--- a/data/highschool-extracted.xlsx
+++ b/data/highschool-extracted.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changemin/Repositories/ko-highschool-logo/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF7069E7-DB74-5B45-ACF8-335E603C1E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -13939,12 +13946,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -13952,7 +13959,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -13962,6 +13969,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -14011,16 +14025,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14062,7 +14084,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14094,9 +14116,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14128,6 +14168,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -14303,12 +14361,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -47460,2373 +47522,2373 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
-    <hyperlink ref="D85" r:id="rId84"/>
-    <hyperlink ref="D86" r:id="rId85"/>
-    <hyperlink ref="D87" r:id="rId86"/>
-    <hyperlink ref="D88" r:id="rId87"/>
-    <hyperlink ref="D89" r:id="rId88"/>
-    <hyperlink ref="D90" r:id="rId89"/>
-    <hyperlink ref="D91" r:id="rId90"/>
-    <hyperlink ref="D92" r:id="rId91"/>
-    <hyperlink ref="D93" r:id="rId92"/>
-    <hyperlink ref="D94" r:id="rId93"/>
-    <hyperlink ref="D95" r:id="rId94"/>
-    <hyperlink ref="D96" r:id="rId95"/>
-    <hyperlink ref="D97" r:id="rId96"/>
-    <hyperlink ref="D98" r:id="rId97"/>
-    <hyperlink ref="D99" r:id="rId98"/>
-    <hyperlink ref="D100" r:id="rId99"/>
-    <hyperlink ref="D101" r:id="rId100"/>
-    <hyperlink ref="D102" r:id="rId101"/>
-    <hyperlink ref="D103" r:id="rId102"/>
-    <hyperlink ref="D104" r:id="rId103"/>
-    <hyperlink ref="D105" r:id="rId104"/>
-    <hyperlink ref="D106" r:id="rId105"/>
-    <hyperlink ref="D107" r:id="rId106"/>
-    <hyperlink ref="D108" r:id="rId107"/>
-    <hyperlink ref="D109" r:id="rId108"/>
-    <hyperlink ref="D110" r:id="rId109"/>
-    <hyperlink ref="D111" r:id="rId110"/>
-    <hyperlink ref="D112" r:id="rId111"/>
-    <hyperlink ref="D113" r:id="rId112"/>
-    <hyperlink ref="D114" r:id="rId113"/>
-    <hyperlink ref="D115" r:id="rId114"/>
-    <hyperlink ref="D116" r:id="rId115"/>
-    <hyperlink ref="D117" r:id="rId116"/>
-    <hyperlink ref="D118" r:id="rId117"/>
-    <hyperlink ref="D119" r:id="rId118"/>
-    <hyperlink ref="D120" r:id="rId119"/>
-    <hyperlink ref="D121" r:id="rId120"/>
-    <hyperlink ref="D122" r:id="rId121"/>
-    <hyperlink ref="D123" r:id="rId122"/>
-    <hyperlink ref="D124" r:id="rId123"/>
-    <hyperlink ref="D125" r:id="rId124"/>
-    <hyperlink ref="D126" r:id="rId125"/>
-    <hyperlink ref="D127" r:id="rId126"/>
-    <hyperlink ref="D128" r:id="rId127"/>
-    <hyperlink ref="D129" r:id="rId128"/>
-    <hyperlink ref="D130" r:id="rId129"/>
-    <hyperlink ref="D131" r:id="rId130"/>
-    <hyperlink ref="D132" r:id="rId131"/>
-    <hyperlink ref="D133" r:id="rId132"/>
-    <hyperlink ref="D134" r:id="rId133"/>
-    <hyperlink ref="D135" r:id="rId134"/>
-    <hyperlink ref="D136" r:id="rId135"/>
-    <hyperlink ref="D137" r:id="rId136"/>
-    <hyperlink ref="D138" r:id="rId137"/>
-    <hyperlink ref="D139" r:id="rId138"/>
-    <hyperlink ref="D140" r:id="rId139"/>
-    <hyperlink ref="D141" r:id="rId140"/>
-    <hyperlink ref="D142" r:id="rId141"/>
-    <hyperlink ref="D143" r:id="rId142"/>
-    <hyperlink ref="D144" r:id="rId143"/>
-    <hyperlink ref="D145" r:id="rId144"/>
-    <hyperlink ref="D146" r:id="rId145"/>
-    <hyperlink ref="D147" r:id="rId146"/>
-    <hyperlink ref="D148" r:id="rId147"/>
-    <hyperlink ref="D149" r:id="rId148"/>
-    <hyperlink ref="D150" r:id="rId149"/>
-    <hyperlink ref="D151" r:id="rId150"/>
-    <hyperlink ref="D152" r:id="rId151"/>
-    <hyperlink ref="D153" r:id="rId152"/>
-    <hyperlink ref="D154" r:id="rId153"/>
-    <hyperlink ref="D155" r:id="rId154"/>
-    <hyperlink ref="D156" r:id="rId155"/>
-    <hyperlink ref="D157" r:id="rId156"/>
-    <hyperlink ref="D158" r:id="rId157"/>
-    <hyperlink ref="D159" r:id="rId158"/>
-    <hyperlink ref="D160" r:id="rId159"/>
-    <hyperlink ref="D161" r:id="rId160"/>
-    <hyperlink ref="D162" r:id="rId161"/>
-    <hyperlink ref="D163" r:id="rId162"/>
-    <hyperlink ref="D164" r:id="rId163"/>
-    <hyperlink ref="D165" r:id="rId164"/>
-    <hyperlink ref="D166" r:id="rId165"/>
-    <hyperlink ref="D167" r:id="rId166"/>
-    <hyperlink ref="D168" r:id="rId167"/>
-    <hyperlink ref="D169" r:id="rId168"/>
-    <hyperlink ref="D170" r:id="rId169"/>
-    <hyperlink ref="D171" r:id="rId170"/>
-    <hyperlink ref="D172" r:id="rId171"/>
-    <hyperlink ref="D173" r:id="rId172"/>
-    <hyperlink ref="D174" r:id="rId173"/>
-    <hyperlink ref="D175" r:id="rId174"/>
-    <hyperlink ref="D176" r:id="rId175"/>
-    <hyperlink ref="D177" r:id="rId176"/>
-    <hyperlink ref="D178" r:id="rId177"/>
-    <hyperlink ref="D179" r:id="rId178"/>
-    <hyperlink ref="D180" r:id="rId179"/>
-    <hyperlink ref="D181" r:id="rId180"/>
-    <hyperlink ref="D182" r:id="rId181"/>
-    <hyperlink ref="D183" r:id="rId182"/>
-    <hyperlink ref="D184" r:id="rId183"/>
-    <hyperlink ref="D185" r:id="rId184"/>
-    <hyperlink ref="D186" r:id="rId185"/>
-    <hyperlink ref="D187" r:id="rId186"/>
-    <hyperlink ref="D188" r:id="rId187"/>
-    <hyperlink ref="D189" r:id="rId188"/>
-    <hyperlink ref="D190" r:id="rId189"/>
-    <hyperlink ref="D191" r:id="rId190"/>
-    <hyperlink ref="D192" r:id="rId191"/>
-    <hyperlink ref="D193" r:id="rId192"/>
-    <hyperlink ref="D194" r:id="rId193"/>
-    <hyperlink ref="D195" r:id="rId194"/>
-    <hyperlink ref="D196" r:id="rId195"/>
-    <hyperlink ref="D197" r:id="rId196"/>
-    <hyperlink ref="D198" r:id="rId197"/>
-    <hyperlink ref="D199" r:id="rId198"/>
-    <hyperlink ref="D200" r:id="rId199"/>
-    <hyperlink ref="D201" r:id="rId200"/>
-    <hyperlink ref="D202" r:id="rId201"/>
-    <hyperlink ref="D203" r:id="rId202"/>
-    <hyperlink ref="D204" r:id="rId203"/>
-    <hyperlink ref="D205" r:id="rId204"/>
-    <hyperlink ref="D206" r:id="rId205"/>
-    <hyperlink ref="D207" r:id="rId206"/>
-    <hyperlink ref="D208" r:id="rId207"/>
-    <hyperlink ref="D209" r:id="rId208"/>
-    <hyperlink ref="D210" r:id="rId209"/>
-    <hyperlink ref="D211" r:id="rId210"/>
-    <hyperlink ref="D212" r:id="rId211"/>
-    <hyperlink ref="D213" r:id="rId212"/>
-    <hyperlink ref="D214" r:id="rId213"/>
-    <hyperlink ref="D215" r:id="rId214"/>
-    <hyperlink ref="D216" r:id="rId215"/>
-    <hyperlink ref="D217" r:id="rId216"/>
-    <hyperlink ref="D218" r:id="rId217"/>
-    <hyperlink ref="D219" r:id="rId218"/>
-    <hyperlink ref="D220" r:id="rId219"/>
-    <hyperlink ref="D221" r:id="rId220"/>
-    <hyperlink ref="D222" r:id="rId221"/>
-    <hyperlink ref="D223" r:id="rId222"/>
-    <hyperlink ref="D224" r:id="rId223"/>
-    <hyperlink ref="D225" r:id="rId224"/>
-    <hyperlink ref="D226" r:id="rId225"/>
-    <hyperlink ref="D227" r:id="rId226"/>
-    <hyperlink ref="D228" r:id="rId227"/>
-    <hyperlink ref="D229" r:id="rId228"/>
-    <hyperlink ref="D230" r:id="rId229"/>
-    <hyperlink ref="D231" r:id="rId230"/>
-    <hyperlink ref="D232" r:id="rId231"/>
-    <hyperlink ref="D233" r:id="rId232"/>
-    <hyperlink ref="D234" r:id="rId233"/>
-    <hyperlink ref="D235" r:id="rId234"/>
-    <hyperlink ref="D236" r:id="rId235"/>
-    <hyperlink ref="D237" r:id="rId236"/>
-    <hyperlink ref="D238" r:id="rId237"/>
-    <hyperlink ref="D239" r:id="rId238"/>
-    <hyperlink ref="D240" r:id="rId239"/>
-    <hyperlink ref="D241" r:id="rId240"/>
-    <hyperlink ref="D242" r:id="rId241"/>
-    <hyperlink ref="D243" r:id="rId242"/>
-    <hyperlink ref="D244" r:id="rId243"/>
-    <hyperlink ref="D245" r:id="rId244"/>
-    <hyperlink ref="D246" r:id="rId245"/>
-    <hyperlink ref="D247" r:id="rId246"/>
-    <hyperlink ref="D248" r:id="rId247"/>
-    <hyperlink ref="D249" r:id="rId248"/>
-    <hyperlink ref="D250" r:id="rId249"/>
-    <hyperlink ref="D251" r:id="rId250"/>
-    <hyperlink ref="D252" r:id="rId251"/>
-    <hyperlink ref="D253" r:id="rId252"/>
-    <hyperlink ref="D254" r:id="rId253"/>
-    <hyperlink ref="D255" r:id="rId254"/>
-    <hyperlink ref="D256" r:id="rId255"/>
-    <hyperlink ref="D257" r:id="rId256"/>
-    <hyperlink ref="D258" r:id="rId257"/>
-    <hyperlink ref="D259" r:id="rId258"/>
-    <hyperlink ref="D260" r:id="rId259"/>
-    <hyperlink ref="D261" r:id="rId260"/>
-    <hyperlink ref="D262" r:id="rId261"/>
-    <hyperlink ref="D263" r:id="rId262"/>
-    <hyperlink ref="D264" r:id="rId263"/>
-    <hyperlink ref="D265" r:id="rId264"/>
-    <hyperlink ref="D266" r:id="rId265"/>
-    <hyperlink ref="D267" r:id="rId266"/>
-    <hyperlink ref="D268" r:id="rId267"/>
-    <hyperlink ref="D269" r:id="rId268"/>
-    <hyperlink ref="D270" r:id="rId269"/>
-    <hyperlink ref="D271" r:id="rId270"/>
-    <hyperlink ref="D272" r:id="rId271"/>
-    <hyperlink ref="D273" r:id="rId272"/>
-    <hyperlink ref="D274" r:id="rId273"/>
-    <hyperlink ref="D275" r:id="rId274"/>
-    <hyperlink ref="D276" r:id="rId275"/>
-    <hyperlink ref="D277" r:id="rId276"/>
-    <hyperlink ref="D278" r:id="rId277"/>
-    <hyperlink ref="D279" r:id="rId278"/>
-    <hyperlink ref="D280" r:id="rId279"/>
-    <hyperlink ref="D281" r:id="rId280"/>
-    <hyperlink ref="D282" r:id="rId281"/>
-    <hyperlink ref="D283" r:id="rId282"/>
-    <hyperlink ref="D284" r:id="rId283"/>
-    <hyperlink ref="D285" r:id="rId284"/>
-    <hyperlink ref="D286" r:id="rId285"/>
-    <hyperlink ref="D287" r:id="rId286"/>
-    <hyperlink ref="D288" r:id="rId287"/>
-    <hyperlink ref="D289" r:id="rId288"/>
-    <hyperlink ref="D290" r:id="rId289"/>
-    <hyperlink ref="D291" r:id="rId290"/>
-    <hyperlink ref="D292" r:id="rId291"/>
-    <hyperlink ref="D293" r:id="rId292"/>
-    <hyperlink ref="D294" r:id="rId293"/>
-    <hyperlink ref="D295" r:id="rId294"/>
-    <hyperlink ref="D296" r:id="rId295"/>
-    <hyperlink ref="D297" r:id="rId296"/>
-    <hyperlink ref="D298" r:id="rId297"/>
-    <hyperlink ref="D299" r:id="rId298"/>
-    <hyperlink ref="D300" r:id="rId299"/>
-    <hyperlink ref="D301" r:id="rId300"/>
-    <hyperlink ref="D302" r:id="rId301"/>
-    <hyperlink ref="D303" r:id="rId302"/>
-    <hyperlink ref="D304" r:id="rId303"/>
-    <hyperlink ref="D305" r:id="rId304"/>
-    <hyperlink ref="D306" r:id="rId305"/>
-    <hyperlink ref="D307" r:id="rId306"/>
-    <hyperlink ref="D308" r:id="rId307"/>
-    <hyperlink ref="D309" r:id="rId308"/>
-    <hyperlink ref="D310" r:id="rId309"/>
-    <hyperlink ref="D311" r:id="rId310"/>
-    <hyperlink ref="D312" r:id="rId311"/>
-    <hyperlink ref="D313" r:id="rId312"/>
-    <hyperlink ref="D314" r:id="rId313"/>
-    <hyperlink ref="D315" r:id="rId314"/>
-    <hyperlink ref="D316" r:id="rId315"/>
-    <hyperlink ref="D317" r:id="rId316"/>
-    <hyperlink ref="D318" r:id="rId317"/>
-    <hyperlink ref="D319" r:id="rId318"/>
-    <hyperlink ref="D320" r:id="rId319"/>
-    <hyperlink ref="D321" r:id="rId320"/>
-    <hyperlink ref="D322" r:id="rId321"/>
-    <hyperlink ref="D323" r:id="rId322"/>
-    <hyperlink ref="D324" r:id="rId323"/>
-    <hyperlink ref="D325" r:id="rId324"/>
-    <hyperlink ref="D326" r:id="rId325"/>
-    <hyperlink ref="D327" r:id="rId326"/>
-    <hyperlink ref="D328" r:id="rId327"/>
-    <hyperlink ref="D329" r:id="rId328"/>
-    <hyperlink ref="D330" r:id="rId329"/>
-    <hyperlink ref="D331" r:id="rId330"/>
-    <hyperlink ref="D332" r:id="rId331"/>
-    <hyperlink ref="D333" r:id="rId332"/>
-    <hyperlink ref="D334" r:id="rId333"/>
-    <hyperlink ref="D335" r:id="rId334"/>
-    <hyperlink ref="D336" r:id="rId335"/>
-    <hyperlink ref="D337" r:id="rId336"/>
-    <hyperlink ref="D338" r:id="rId337"/>
-    <hyperlink ref="D339" r:id="rId338"/>
-    <hyperlink ref="D340" r:id="rId339"/>
-    <hyperlink ref="D341" r:id="rId340"/>
-    <hyperlink ref="D342" r:id="rId341"/>
-    <hyperlink ref="D343" r:id="rId342"/>
-    <hyperlink ref="D344" r:id="rId343"/>
-    <hyperlink ref="D345" r:id="rId344"/>
-    <hyperlink ref="D346" r:id="rId345"/>
-    <hyperlink ref="D347" r:id="rId346"/>
-    <hyperlink ref="D348" r:id="rId347"/>
-    <hyperlink ref="D349" r:id="rId348"/>
-    <hyperlink ref="D350" r:id="rId349"/>
-    <hyperlink ref="D351" r:id="rId350"/>
-    <hyperlink ref="D352" r:id="rId351"/>
-    <hyperlink ref="D353" r:id="rId352"/>
-    <hyperlink ref="D354" r:id="rId353"/>
-    <hyperlink ref="D355" r:id="rId354"/>
-    <hyperlink ref="D356" r:id="rId355"/>
-    <hyperlink ref="D357" r:id="rId356"/>
-    <hyperlink ref="D358" r:id="rId357"/>
-    <hyperlink ref="D359" r:id="rId358"/>
-    <hyperlink ref="D360" r:id="rId359"/>
-    <hyperlink ref="D361" r:id="rId360"/>
-    <hyperlink ref="D362" r:id="rId361"/>
-    <hyperlink ref="D363" r:id="rId362"/>
-    <hyperlink ref="D364" r:id="rId363"/>
-    <hyperlink ref="D365" r:id="rId364"/>
-    <hyperlink ref="D366" r:id="rId365"/>
-    <hyperlink ref="D367" r:id="rId366"/>
-    <hyperlink ref="D368" r:id="rId367"/>
-    <hyperlink ref="D369" r:id="rId368"/>
-    <hyperlink ref="D370" r:id="rId369"/>
-    <hyperlink ref="D371" r:id="rId370"/>
-    <hyperlink ref="D372" r:id="rId371"/>
-    <hyperlink ref="D373" r:id="rId372"/>
-    <hyperlink ref="D374" r:id="rId373"/>
-    <hyperlink ref="D375" r:id="rId374"/>
-    <hyperlink ref="D376" r:id="rId375"/>
-    <hyperlink ref="D377" r:id="rId376"/>
-    <hyperlink ref="D378" r:id="rId377"/>
-    <hyperlink ref="D379" r:id="rId378"/>
-    <hyperlink ref="D380" r:id="rId379"/>
-    <hyperlink ref="D381" r:id="rId380"/>
-    <hyperlink ref="D382" r:id="rId381"/>
-    <hyperlink ref="D383" r:id="rId382"/>
-    <hyperlink ref="D384" r:id="rId383"/>
-    <hyperlink ref="D385" r:id="rId384"/>
-    <hyperlink ref="D386" r:id="rId385"/>
-    <hyperlink ref="D387" r:id="rId386"/>
-    <hyperlink ref="D388" r:id="rId387"/>
-    <hyperlink ref="D389" r:id="rId388"/>
-    <hyperlink ref="D390" r:id="rId389"/>
-    <hyperlink ref="D391" r:id="rId390"/>
-    <hyperlink ref="D392" r:id="rId391"/>
-    <hyperlink ref="D393" r:id="rId392"/>
-    <hyperlink ref="D394" r:id="rId393"/>
-    <hyperlink ref="D395" r:id="rId394"/>
-    <hyperlink ref="D396" r:id="rId395"/>
-    <hyperlink ref="D397" r:id="rId396"/>
-    <hyperlink ref="D398" r:id="rId397"/>
-    <hyperlink ref="D399" r:id="rId398"/>
-    <hyperlink ref="D400" r:id="rId399"/>
-    <hyperlink ref="D401" r:id="rId400"/>
-    <hyperlink ref="D402" r:id="rId401"/>
-    <hyperlink ref="D403" r:id="rId402"/>
-    <hyperlink ref="D404" r:id="rId403"/>
-    <hyperlink ref="D405" r:id="rId404"/>
-    <hyperlink ref="D406" r:id="rId405"/>
-    <hyperlink ref="D407" r:id="rId406"/>
-    <hyperlink ref="D408" r:id="rId407"/>
-    <hyperlink ref="D409" r:id="rId408"/>
-    <hyperlink ref="D410" r:id="rId409"/>
-    <hyperlink ref="D411" r:id="rId410"/>
-    <hyperlink ref="D412" r:id="rId411"/>
-    <hyperlink ref="D413" r:id="rId412"/>
-    <hyperlink ref="D414" r:id="rId413"/>
-    <hyperlink ref="D415" r:id="rId414"/>
-    <hyperlink ref="D416" r:id="rId415"/>
-    <hyperlink ref="D417" r:id="rId416"/>
-    <hyperlink ref="D418" r:id="rId417"/>
-    <hyperlink ref="D419" r:id="rId418"/>
-    <hyperlink ref="D420" r:id="rId419"/>
-    <hyperlink ref="D421" r:id="rId420"/>
-    <hyperlink ref="D422" r:id="rId421"/>
-    <hyperlink ref="D423" r:id="rId422"/>
-    <hyperlink ref="D424" r:id="rId423"/>
-    <hyperlink ref="D425" r:id="rId424"/>
-    <hyperlink ref="D426" r:id="rId425"/>
-    <hyperlink ref="D427" r:id="rId426"/>
-    <hyperlink ref="D428" r:id="rId427"/>
-    <hyperlink ref="D429" r:id="rId428"/>
-    <hyperlink ref="D430" r:id="rId429"/>
-    <hyperlink ref="D431" r:id="rId430"/>
-    <hyperlink ref="D432" r:id="rId431"/>
-    <hyperlink ref="D433" r:id="rId432"/>
-    <hyperlink ref="D434" r:id="rId433"/>
-    <hyperlink ref="D435" r:id="rId434"/>
-    <hyperlink ref="D436" r:id="rId435"/>
-    <hyperlink ref="D437" r:id="rId436"/>
-    <hyperlink ref="D438" r:id="rId437"/>
-    <hyperlink ref="D439" r:id="rId438"/>
-    <hyperlink ref="D440" r:id="rId439"/>
-    <hyperlink ref="D441" r:id="rId440"/>
-    <hyperlink ref="D442" r:id="rId441"/>
-    <hyperlink ref="D443" r:id="rId442"/>
-    <hyperlink ref="D444" r:id="rId443"/>
-    <hyperlink ref="D445" r:id="rId444"/>
-    <hyperlink ref="D446" r:id="rId445"/>
-    <hyperlink ref="D447" r:id="rId446"/>
-    <hyperlink ref="D448" r:id="rId447"/>
-    <hyperlink ref="D449" r:id="rId448"/>
-    <hyperlink ref="D450" r:id="rId449"/>
-    <hyperlink ref="D451" r:id="rId450"/>
-    <hyperlink ref="D452" r:id="rId451"/>
-    <hyperlink ref="D453" r:id="rId452"/>
-    <hyperlink ref="D454" r:id="rId453"/>
-    <hyperlink ref="D455" r:id="rId454"/>
-    <hyperlink ref="D456" r:id="rId455"/>
-    <hyperlink ref="D457" r:id="rId456"/>
-    <hyperlink ref="D458" r:id="rId457"/>
-    <hyperlink ref="D459" r:id="rId458"/>
-    <hyperlink ref="D460" r:id="rId459"/>
-    <hyperlink ref="D461" r:id="rId460"/>
-    <hyperlink ref="D462" r:id="rId461"/>
-    <hyperlink ref="D463" r:id="rId462"/>
-    <hyperlink ref="D464" r:id="rId463"/>
-    <hyperlink ref="D465" r:id="rId464"/>
-    <hyperlink ref="D466" r:id="rId465"/>
-    <hyperlink ref="D467" r:id="rId466"/>
-    <hyperlink ref="D468" r:id="rId467"/>
-    <hyperlink ref="D469" r:id="rId468"/>
-    <hyperlink ref="D470" r:id="rId469"/>
-    <hyperlink ref="D471" r:id="rId470"/>
-    <hyperlink ref="D472" r:id="rId471"/>
-    <hyperlink ref="D473" r:id="rId472"/>
-    <hyperlink ref="D474" r:id="rId473"/>
-    <hyperlink ref="D475" r:id="rId474"/>
-    <hyperlink ref="D476" r:id="rId475"/>
-    <hyperlink ref="D477" r:id="rId476"/>
-    <hyperlink ref="D478" r:id="rId477"/>
-    <hyperlink ref="D479" r:id="rId478"/>
-    <hyperlink ref="D480" r:id="rId479"/>
-    <hyperlink ref="D481" r:id="rId480"/>
-    <hyperlink ref="D482" r:id="rId481"/>
-    <hyperlink ref="D483" r:id="rId482"/>
-    <hyperlink ref="D484" r:id="rId483"/>
-    <hyperlink ref="D485" r:id="rId484"/>
-    <hyperlink ref="D486" r:id="rId485"/>
-    <hyperlink ref="D487" r:id="rId486"/>
-    <hyperlink ref="D488" r:id="rId487"/>
-    <hyperlink ref="D489" r:id="rId488"/>
-    <hyperlink ref="D490" r:id="rId489"/>
-    <hyperlink ref="D491" r:id="rId490"/>
-    <hyperlink ref="D492" r:id="rId491"/>
-    <hyperlink ref="D493" r:id="rId492"/>
-    <hyperlink ref="D494" r:id="rId493"/>
-    <hyperlink ref="D495" r:id="rId494"/>
-    <hyperlink ref="D496" r:id="rId495"/>
-    <hyperlink ref="D497" r:id="rId496"/>
-    <hyperlink ref="D498" r:id="rId497"/>
-    <hyperlink ref="D499" r:id="rId498"/>
-    <hyperlink ref="D500" r:id="rId499"/>
-    <hyperlink ref="D501" r:id="rId500"/>
-    <hyperlink ref="D502" r:id="rId501"/>
-    <hyperlink ref="D503" r:id="rId502"/>
-    <hyperlink ref="D504" r:id="rId503"/>
-    <hyperlink ref="D505" r:id="rId504"/>
-    <hyperlink ref="D506" r:id="rId505"/>
-    <hyperlink ref="D507" r:id="rId506"/>
-    <hyperlink ref="D508" r:id="rId507"/>
-    <hyperlink ref="D509" r:id="rId508"/>
-    <hyperlink ref="D510" r:id="rId509"/>
-    <hyperlink ref="D511" r:id="rId510"/>
-    <hyperlink ref="D512" r:id="rId511"/>
-    <hyperlink ref="D513" r:id="rId512"/>
-    <hyperlink ref="D514" r:id="rId513"/>
-    <hyperlink ref="D515" r:id="rId514"/>
-    <hyperlink ref="D516" r:id="rId515"/>
-    <hyperlink ref="D517" r:id="rId516"/>
-    <hyperlink ref="D518" r:id="rId517"/>
-    <hyperlink ref="D519" r:id="rId518"/>
-    <hyperlink ref="D520" r:id="rId519"/>
-    <hyperlink ref="D521" r:id="rId520"/>
-    <hyperlink ref="D522" r:id="rId521"/>
-    <hyperlink ref="D523" r:id="rId522"/>
-    <hyperlink ref="D524" r:id="rId523"/>
-    <hyperlink ref="D525" r:id="rId524"/>
-    <hyperlink ref="D526" r:id="rId525"/>
-    <hyperlink ref="D527" r:id="rId526"/>
-    <hyperlink ref="D528" r:id="rId527"/>
-    <hyperlink ref="D529" r:id="rId528"/>
-    <hyperlink ref="D530" r:id="rId529"/>
-    <hyperlink ref="D531" r:id="rId530"/>
-    <hyperlink ref="D532" r:id="rId531"/>
-    <hyperlink ref="D533" r:id="rId532"/>
-    <hyperlink ref="D534" r:id="rId533"/>
-    <hyperlink ref="D535" r:id="rId534"/>
-    <hyperlink ref="D536" r:id="rId535"/>
-    <hyperlink ref="D537" r:id="rId536"/>
-    <hyperlink ref="D538" r:id="rId537"/>
-    <hyperlink ref="D539" r:id="rId538"/>
-    <hyperlink ref="D540" r:id="rId539"/>
-    <hyperlink ref="D541" r:id="rId540"/>
-    <hyperlink ref="D542" r:id="rId541"/>
-    <hyperlink ref="D543" r:id="rId542"/>
-    <hyperlink ref="D544" r:id="rId543"/>
-    <hyperlink ref="D545" r:id="rId544"/>
-    <hyperlink ref="D546" r:id="rId545"/>
-    <hyperlink ref="D547" r:id="rId546"/>
-    <hyperlink ref="D548" r:id="rId547"/>
-    <hyperlink ref="D549" r:id="rId548"/>
-    <hyperlink ref="D550" r:id="rId549"/>
-    <hyperlink ref="D551" r:id="rId550"/>
-    <hyperlink ref="D552" r:id="rId551"/>
-    <hyperlink ref="D553" r:id="rId552"/>
-    <hyperlink ref="D554" r:id="rId553"/>
-    <hyperlink ref="D555" r:id="rId554"/>
-    <hyperlink ref="D556" r:id="rId555"/>
-    <hyperlink ref="D557" r:id="rId556"/>
-    <hyperlink ref="D558" r:id="rId557"/>
-    <hyperlink ref="D559" r:id="rId558"/>
-    <hyperlink ref="D560" r:id="rId559"/>
-    <hyperlink ref="D561" r:id="rId560"/>
-    <hyperlink ref="D562" r:id="rId561"/>
-    <hyperlink ref="D563" r:id="rId562"/>
-    <hyperlink ref="D564" r:id="rId563"/>
-    <hyperlink ref="D565" r:id="rId564"/>
-    <hyperlink ref="D566" r:id="rId565"/>
-    <hyperlink ref="D567" r:id="rId566"/>
-    <hyperlink ref="D568" r:id="rId567"/>
-    <hyperlink ref="D569" r:id="rId568"/>
-    <hyperlink ref="D570" r:id="rId569"/>
-    <hyperlink ref="D571" r:id="rId570"/>
-    <hyperlink ref="D572" r:id="rId571"/>
-    <hyperlink ref="D573" r:id="rId572"/>
-    <hyperlink ref="D574" r:id="rId573"/>
-    <hyperlink ref="D575" r:id="rId574"/>
-    <hyperlink ref="D576" r:id="rId575"/>
-    <hyperlink ref="D577" r:id="rId576"/>
-    <hyperlink ref="D578" r:id="rId577"/>
-    <hyperlink ref="D579" r:id="rId578"/>
-    <hyperlink ref="D580" r:id="rId579"/>
-    <hyperlink ref="D581" r:id="rId580"/>
-    <hyperlink ref="D582" r:id="rId581"/>
-    <hyperlink ref="D583" r:id="rId582"/>
-    <hyperlink ref="D584" r:id="rId583"/>
-    <hyperlink ref="D585" r:id="rId584"/>
-    <hyperlink ref="D586" r:id="rId585"/>
-    <hyperlink ref="D587" r:id="rId586"/>
-    <hyperlink ref="D588" r:id="rId587"/>
-    <hyperlink ref="D589" r:id="rId588"/>
-    <hyperlink ref="D590" r:id="rId589"/>
-    <hyperlink ref="D591" r:id="rId590"/>
-    <hyperlink ref="D592" r:id="rId591"/>
-    <hyperlink ref="D593" r:id="rId592"/>
-    <hyperlink ref="D594" r:id="rId593"/>
-    <hyperlink ref="D595" r:id="rId594"/>
-    <hyperlink ref="D596" r:id="rId595"/>
-    <hyperlink ref="D597" r:id="rId596"/>
-    <hyperlink ref="D598" r:id="rId597"/>
-    <hyperlink ref="D599" r:id="rId598"/>
-    <hyperlink ref="D600" r:id="rId599"/>
-    <hyperlink ref="D601" r:id="rId600"/>
-    <hyperlink ref="D602" r:id="rId601"/>
-    <hyperlink ref="D603" r:id="rId602"/>
-    <hyperlink ref="D604" r:id="rId603"/>
-    <hyperlink ref="D605" r:id="rId604"/>
-    <hyperlink ref="D606" r:id="rId605"/>
-    <hyperlink ref="D607" r:id="rId606"/>
-    <hyperlink ref="D608" r:id="rId607"/>
-    <hyperlink ref="D609" r:id="rId608"/>
-    <hyperlink ref="D610" r:id="rId609"/>
-    <hyperlink ref="D611" r:id="rId610"/>
-    <hyperlink ref="D612" r:id="rId611"/>
-    <hyperlink ref="D613" r:id="rId612"/>
-    <hyperlink ref="D614" r:id="rId613"/>
-    <hyperlink ref="D615" r:id="rId614"/>
-    <hyperlink ref="D616" r:id="rId615"/>
-    <hyperlink ref="D617" r:id="rId616"/>
-    <hyperlink ref="D618" r:id="rId617"/>
-    <hyperlink ref="D619" r:id="rId618"/>
-    <hyperlink ref="D620" r:id="rId619"/>
-    <hyperlink ref="D621" r:id="rId620"/>
-    <hyperlink ref="D622" r:id="rId621"/>
-    <hyperlink ref="D623" r:id="rId622"/>
-    <hyperlink ref="D624" r:id="rId623"/>
-    <hyperlink ref="D625" r:id="rId624"/>
-    <hyperlink ref="D626" r:id="rId625"/>
-    <hyperlink ref="D627" r:id="rId626"/>
-    <hyperlink ref="D628" r:id="rId627"/>
-    <hyperlink ref="D629" r:id="rId628"/>
-    <hyperlink ref="D630" r:id="rId629"/>
-    <hyperlink ref="D631" r:id="rId630"/>
-    <hyperlink ref="D632" r:id="rId631"/>
-    <hyperlink ref="D633" r:id="rId632"/>
-    <hyperlink ref="D634" r:id="rId633"/>
-    <hyperlink ref="D635" r:id="rId634"/>
-    <hyperlink ref="D636" r:id="rId635"/>
-    <hyperlink ref="D637" r:id="rId636"/>
-    <hyperlink ref="D638" r:id="rId637"/>
-    <hyperlink ref="D639" r:id="rId638"/>
-    <hyperlink ref="D640" r:id="rId639"/>
-    <hyperlink ref="D641" r:id="rId640"/>
-    <hyperlink ref="D642" r:id="rId641"/>
-    <hyperlink ref="D643" r:id="rId642"/>
-    <hyperlink ref="D644" r:id="rId643"/>
-    <hyperlink ref="D645" r:id="rId644"/>
-    <hyperlink ref="D646" r:id="rId645"/>
-    <hyperlink ref="D647" r:id="rId646"/>
-    <hyperlink ref="D648" r:id="rId647"/>
-    <hyperlink ref="D649" r:id="rId648"/>
-    <hyperlink ref="D650" r:id="rId649"/>
-    <hyperlink ref="D651" r:id="rId650"/>
-    <hyperlink ref="D652" r:id="rId651"/>
-    <hyperlink ref="D653" r:id="rId652"/>
-    <hyperlink ref="D654" r:id="rId653"/>
-    <hyperlink ref="D655" r:id="rId654"/>
-    <hyperlink ref="D656" r:id="rId655"/>
-    <hyperlink ref="D657" r:id="rId656"/>
-    <hyperlink ref="D658" r:id="rId657"/>
-    <hyperlink ref="D659" r:id="rId658"/>
-    <hyperlink ref="D660" r:id="rId659"/>
-    <hyperlink ref="D661" r:id="rId660"/>
-    <hyperlink ref="D662" r:id="rId661"/>
-    <hyperlink ref="D663" r:id="rId662"/>
-    <hyperlink ref="D664" r:id="rId663"/>
-    <hyperlink ref="D665" r:id="rId664"/>
-    <hyperlink ref="D666" r:id="rId665"/>
-    <hyperlink ref="D667" r:id="rId666"/>
-    <hyperlink ref="D668" r:id="rId667"/>
-    <hyperlink ref="D669" r:id="rId668"/>
-    <hyperlink ref="D670" r:id="rId669"/>
-    <hyperlink ref="D671" r:id="rId670"/>
-    <hyperlink ref="D672" r:id="rId671"/>
-    <hyperlink ref="D673" r:id="rId672"/>
-    <hyperlink ref="D674" r:id="rId673"/>
-    <hyperlink ref="D675" r:id="rId674"/>
-    <hyperlink ref="D676" r:id="rId675"/>
-    <hyperlink ref="D677" r:id="rId676"/>
-    <hyperlink ref="D678" r:id="rId677"/>
-    <hyperlink ref="D679" r:id="rId678"/>
-    <hyperlink ref="D680" r:id="rId679"/>
-    <hyperlink ref="D681" r:id="rId680"/>
-    <hyperlink ref="D682" r:id="rId681"/>
-    <hyperlink ref="D683" r:id="rId682"/>
-    <hyperlink ref="D684" r:id="rId683"/>
-    <hyperlink ref="D685" r:id="rId684"/>
-    <hyperlink ref="D686" r:id="rId685"/>
-    <hyperlink ref="D687" r:id="rId686"/>
-    <hyperlink ref="D688" r:id="rId687"/>
-    <hyperlink ref="D689" r:id="rId688"/>
-    <hyperlink ref="D690" r:id="rId689"/>
-    <hyperlink ref="D691" r:id="rId690"/>
-    <hyperlink ref="D692" r:id="rId691"/>
-    <hyperlink ref="D693" r:id="rId692"/>
-    <hyperlink ref="D694" r:id="rId693"/>
-    <hyperlink ref="D695" r:id="rId694"/>
-    <hyperlink ref="D696" r:id="rId695"/>
-    <hyperlink ref="D697" r:id="rId696"/>
-    <hyperlink ref="D698" r:id="rId697"/>
-    <hyperlink ref="D699" r:id="rId698"/>
-    <hyperlink ref="D700" r:id="rId699"/>
-    <hyperlink ref="D701" r:id="rId700"/>
-    <hyperlink ref="D702" r:id="rId701"/>
-    <hyperlink ref="D703" r:id="rId702"/>
-    <hyperlink ref="D704" r:id="rId703"/>
-    <hyperlink ref="D705" r:id="rId704"/>
-    <hyperlink ref="D706" r:id="rId705"/>
-    <hyperlink ref="D707" r:id="rId706"/>
-    <hyperlink ref="D708" r:id="rId707"/>
-    <hyperlink ref="D709" r:id="rId708"/>
-    <hyperlink ref="D710" r:id="rId709"/>
-    <hyperlink ref="D711" r:id="rId710"/>
-    <hyperlink ref="D712" r:id="rId711"/>
-    <hyperlink ref="D713" r:id="rId712"/>
-    <hyperlink ref="D714" r:id="rId713"/>
-    <hyperlink ref="D715" r:id="rId714"/>
-    <hyperlink ref="D716" r:id="rId715"/>
-    <hyperlink ref="D717" r:id="rId716"/>
-    <hyperlink ref="D718" r:id="rId717"/>
-    <hyperlink ref="D719" r:id="rId718"/>
-    <hyperlink ref="D720" r:id="rId719"/>
-    <hyperlink ref="D721" r:id="rId720"/>
-    <hyperlink ref="D722" r:id="rId721"/>
-    <hyperlink ref="D723" r:id="rId722"/>
-    <hyperlink ref="D724" r:id="rId723"/>
-    <hyperlink ref="D725" r:id="rId724"/>
-    <hyperlink ref="D726" r:id="rId725"/>
-    <hyperlink ref="D727" r:id="rId726"/>
-    <hyperlink ref="D728" r:id="rId727"/>
-    <hyperlink ref="D729" r:id="rId728"/>
-    <hyperlink ref="D730" r:id="rId729"/>
-    <hyperlink ref="D731" r:id="rId730"/>
-    <hyperlink ref="D732" r:id="rId731"/>
-    <hyperlink ref="D733" r:id="rId732"/>
-    <hyperlink ref="D734" r:id="rId733"/>
-    <hyperlink ref="D735" r:id="rId734"/>
-    <hyperlink ref="D736" r:id="rId735"/>
-    <hyperlink ref="D737" r:id="rId736"/>
-    <hyperlink ref="D738" r:id="rId737"/>
-    <hyperlink ref="D739" r:id="rId738"/>
-    <hyperlink ref="D740" r:id="rId739"/>
-    <hyperlink ref="D741" r:id="rId740"/>
-    <hyperlink ref="D742" r:id="rId741"/>
-    <hyperlink ref="D743" r:id="rId742"/>
-    <hyperlink ref="D744" r:id="rId743"/>
-    <hyperlink ref="D745" r:id="rId744"/>
-    <hyperlink ref="D746" r:id="rId745"/>
-    <hyperlink ref="D747" r:id="rId746"/>
-    <hyperlink ref="D748" r:id="rId747"/>
-    <hyperlink ref="D749" r:id="rId748"/>
-    <hyperlink ref="D750" r:id="rId749"/>
-    <hyperlink ref="D751" r:id="rId750"/>
-    <hyperlink ref="D752" r:id="rId751"/>
-    <hyperlink ref="D753" r:id="rId752"/>
-    <hyperlink ref="D754" r:id="rId753"/>
-    <hyperlink ref="D755" r:id="rId754"/>
-    <hyperlink ref="D756" r:id="rId755"/>
-    <hyperlink ref="D757" r:id="rId756"/>
-    <hyperlink ref="D758" r:id="rId757"/>
-    <hyperlink ref="D759" r:id="rId758"/>
-    <hyperlink ref="D760" r:id="rId759"/>
-    <hyperlink ref="D761" r:id="rId760"/>
-    <hyperlink ref="D762" r:id="rId761"/>
-    <hyperlink ref="D763" r:id="rId762"/>
-    <hyperlink ref="D764" r:id="rId763"/>
-    <hyperlink ref="D765" r:id="rId764"/>
-    <hyperlink ref="D766" r:id="rId765"/>
-    <hyperlink ref="D767" r:id="rId766"/>
-    <hyperlink ref="D768" r:id="rId767"/>
-    <hyperlink ref="D769" r:id="rId768"/>
-    <hyperlink ref="D770" r:id="rId769"/>
-    <hyperlink ref="D771" r:id="rId770"/>
-    <hyperlink ref="D772" r:id="rId771"/>
-    <hyperlink ref="D773" r:id="rId772"/>
-    <hyperlink ref="D774" r:id="rId773"/>
-    <hyperlink ref="D775" r:id="rId774"/>
-    <hyperlink ref="D776" r:id="rId775"/>
-    <hyperlink ref="D777" r:id="rId776"/>
-    <hyperlink ref="D778" r:id="rId777"/>
-    <hyperlink ref="D779" r:id="rId778"/>
-    <hyperlink ref="D780" r:id="rId779"/>
-    <hyperlink ref="D781" r:id="rId780"/>
-    <hyperlink ref="D782" r:id="rId781"/>
-    <hyperlink ref="D783" r:id="rId782"/>
-    <hyperlink ref="D784" r:id="rId783"/>
-    <hyperlink ref="D785" r:id="rId784"/>
-    <hyperlink ref="D786" r:id="rId785"/>
-    <hyperlink ref="D787" r:id="rId786"/>
-    <hyperlink ref="D788" r:id="rId787"/>
-    <hyperlink ref="D789" r:id="rId788"/>
-    <hyperlink ref="D790" r:id="rId789"/>
-    <hyperlink ref="D791" r:id="rId790"/>
-    <hyperlink ref="D792" r:id="rId791"/>
-    <hyperlink ref="D793" r:id="rId792"/>
-    <hyperlink ref="D794" r:id="rId793"/>
-    <hyperlink ref="D795" r:id="rId794"/>
-    <hyperlink ref="D796" r:id="rId795"/>
-    <hyperlink ref="D797" r:id="rId796"/>
-    <hyperlink ref="D798" r:id="rId797"/>
-    <hyperlink ref="D799" r:id="rId798"/>
-    <hyperlink ref="D800" r:id="rId799"/>
-    <hyperlink ref="D801" r:id="rId800"/>
-    <hyperlink ref="D802" r:id="rId801"/>
-    <hyperlink ref="D803" r:id="rId802"/>
-    <hyperlink ref="D804" r:id="rId803"/>
-    <hyperlink ref="D805" r:id="rId804"/>
-    <hyperlink ref="D806" r:id="rId805"/>
-    <hyperlink ref="D807" r:id="rId806"/>
-    <hyperlink ref="D808" r:id="rId807"/>
-    <hyperlink ref="D809" r:id="rId808"/>
-    <hyperlink ref="D810" r:id="rId809"/>
-    <hyperlink ref="D811" r:id="rId810"/>
-    <hyperlink ref="D812" r:id="rId811"/>
-    <hyperlink ref="D813" r:id="rId812"/>
-    <hyperlink ref="D814" r:id="rId813"/>
-    <hyperlink ref="D815" r:id="rId814"/>
-    <hyperlink ref="D816" r:id="rId815"/>
-    <hyperlink ref="D817" r:id="rId816"/>
-    <hyperlink ref="D818" r:id="rId817"/>
-    <hyperlink ref="D819" r:id="rId818"/>
-    <hyperlink ref="D820" r:id="rId819"/>
-    <hyperlink ref="D821" r:id="rId820"/>
-    <hyperlink ref="D822" r:id="rId821"/>
-    <hyperlink ref="D823" r:id="rId822"/>
-    <hyperlink ref="D824" r:id="rId823"/>
-    <hyperlink ref="D825" r:id="rId824"/>
-    <hyperlink ref="D826" r:id="rId825"/>
-    <hyperlink ref="D827" r:id="rId826"/>
-    <hyperlink ref="D828" r:id="rId827"/>
-    <hyperlink ref="D829" r:id="rId828"/>
-    <hyperlink ref="D830" r:id="rId829"/>
-    <hyperlink ref="D831" r:id="rId830"/>
-    <hyperlink ref="D832" r:id="rId831"/>
-    <hyperlink ref="D833" r:id="rId832"/>
-    <hyperlink ref="D834" r:id="rId833"/>
-    <hyperlink ref="D835" r:id="rId834"/>
-    <hyperlink ref="D836" r:id="rId835"/>
-    <hyperlink ref="D837" r:id="rId836"/>
-    <hyperlink ref="D838" r:id="rId837"/>
-    <hyperlink ref="D839" r:id="rId838"/>
-    <hyperlink ref="D840" r:id="rId839"/>
-    <hyperlink ref="D841" r:id="rId840"/>
-    <hyperlink ref="D842" r:id="rId841"/>
-    <hyperlink ref="D843" r:id="rId842"/>
-    <hyperlink ref="D844" r:id="rId843"/>
-    <hyperlink ref="D845" r:id="rId844"/>
-    <hyperlink ref="D846" r:id="rId845"/>
-    <hyperlink ref="D847" r:id="rId846"/>
-    <hyperlink ref="D848" r:id="rId847"/>
-    <hyperlink ref="D849" r:id="rId848"/>
-    <hyperlink ref="D850" r:id="rId849"/>
-    <hyperlink ref="D851" r:id="rId850"/>
-    <hyperlink ref="D852" r:id="rId851"/>
-    <hyperlink ref="D853" r:id="rId852"/>
-    <hyperlink ref="D854" r:id="rId853"/>
-    <hyperlink ref="D855" r:id="rId854"/>
-    <hyperlink ref="D856" r:id="rId855"/>
-    <hyperlink ref="D857" r:id="rId856"/>
-    <hyperlink ref="D858" r:id="rId857"/>
-    <hyperlink ref="D859" r:id="rId858"/>
-    <hyperlink ref="D860" r:id="rId859"/>
-    <hyperlink ref="D861" r:id="rId860"/>
-    <hyperlink ref="D862" r:id="rId861"/>
-    <hyperlink ref="D863" r:id="rId862"/>
-    <hyperlink ref="D864" r:id="rId863"/>
-    <hyperlink ref="D865" r:id="rId864"/>
-    <hyperlink ref="D866" r:id="rId865"/>
-    <hyperlink ref="D867" r:id="rId866"/>
-    <hyperlink ref="D868" r:id="rId867"/>
-    <hyperlink ref="D869" r:id="rId868"/>
-    <hyperlink ref="D870" r:id="rId869"/>
-    <hyperlink ref="D871" r:id="rId870"/>
-    <hyperlink ref="D872" r:id="rId871"/>
-    <hyperlink ref="D873" r:id="rId872"/>
-    <hyperlink ref="D874" r:id="rId873"/>
-    <hyperlink ref="D875" r:id="rId874"/>
-    <hyperlink ref="D876" r:id="rId875"/>
-    <hyperlink ref="D877" r:id="rId876"/>
-    <hyperlink ref="D878" r:id="rId877"/>
-    <hyperlink ref="D879" r:id="rId878"/>
-    <hyperlink ref="D880" r:id="rId879"/>
-    <hyperlink ref="D881" r:id="rId880"/>
-    <hyperlink ref="D882" r:id="rId881"/>
-    <hyperlink ref="D883" r:id="rId882"/>
-    <hyperlink ref="D884" r:id="rId883"/>
-    <hyperlink ref="D885" r:id="rId884"/>
-    <hyperlink ref="D886" r:id="rId885"/>
-    <hyperlink ref="D887" r:id="rId886"/>
-    <hyperlink ref="D888" r:id="rId887"/>
-    <hyperlink ref="D889" r:id="rId888"/>
-    <hyperlink ref="D890" r:id="rId889"/>
-    <hyperlink ref="D891" r:id="rId890"/>
-    <hyperlink ref="D892" r:id="rId891"/>
-    <hyperlink ref="D893" r:id="rId892"/>
-    <hyperlink ref="D894" r:id="rId893"/>
-    <hyperlink ref="D895" r:id="rId894"/>
-    <hyperlink ref="D896" r:id="rId895"/>
-    <hyperlink ref="D897" r:id="rId896"/>
-    <hyperlink ref="D898" r:id="rId897"/>
-    <hyperlink ref="D899" r:id="rId898"/>
-    <hyperlink ref="D900" r:id="rId899"/>
-    <hyperlink ref="D901" r:id="rId900"/>
-    <hyperlink ref="D902" r:id="rId901"/>
-    <hyperlink ref="D903" r:id="rId902"/>
-    <hyperlink ref="D904" r:id="rId903"/>
-    <hyperlink ref="D905" r:id="rId904"/>
-    <hyperlink ref="D906" r:id="rId905"/>
-    <hyperlink ref="D907" r:id="rId906"/>
-    <hyperlink ref="D908" r:id="rId907"/>
-    <hyperlink ref="D909" r:id="rId908"/>
-    <hyperlink ref="D910" r:id="rId909"/>
-    <hyperlink ref="D911" r:id="rId910"/>
-    <hyperlink ref="D912" r:id="rId911"/>
-    <hyperlink ref="D913" r:id="rId912"/>
-    <hyperlink ref="D914" r:id="rId913"/>
-    <hyperlink ref="D915" r:id="rId914"/>
-    <hyperlink ref="D916" r:id="rId915"/>
-    <hyperlink ref="D917" r:id="rId916"/>
-    <hyperlink ref="D918" r:id="rId917"/>
-    <hyperlink ref="D919" r:id="rId918"/>
-    <hyperlink ref="D920" r:id="rId919"/>
-    <hyperlink ref="D921" r:id="rId920"/>
-    <hyperlink ref="D922" r:id="rId921"/>
-    <hyperlink ref="D923" r:id="rId922"/>
-    <hyperlink ref="D924" r:id="rId923"/>
-    <hyperlink ref="D925" r:id="rId924"/>
-    <hyperlink ref="D926" r:id="rId925"/>
-    <hyperlink ref="D927" r:id="rId926"/>
-    <hyperlink ref="D928" r:id="rId927"/>
-    <hyperlink ref="D929" r:id="rId928"/>
-    <hyperlink ref="D930" r:id="rId929"/>
-    <hyperlink ref="D931" r:id="rId930"/>
-    <hyperlink ref="D932" r:id="rId931"/>
-    <hyperlink ref="D933" r:id="rId932"/>
-    <hyperlink ref="D934" r:id="rId933"/>
-    <hyperlink ref="D935" r:id="rId934"/>
-    <hyperlink ref="D936" r:id="rId935"/>
-    <hyperlink ref="D937" r:id="rId936"/>
-    <hyperlink ref="D938" r:id="rId937"/>
-    <hyperlink ref="D939" r:id="rId938"/>
-    <hyperlink ref="D940" r:id="rId939"/>
-    <hyperlink ref="D941" r:id="rId940"/>
-    <hyperlink ref="D942" r:id="rId941"/>
-    <hyperlink ref="D943" r:id="rId942"/>
-    <hyperlink ref="D944" r:id="rId943"/>
-    <hyperlink ref="D945" r:id="rId944"/>
-    <hyperlink ref="D946" r:id="rId945"/>
-    <hyperlink ref="D947" r:id="rId946"/>
-    <hyperlink ref="D948" r:id="rId947"/>
-    <hyperlink ref="D949" r:id="rId948"/>
-    <hyperlink ref="D950" r:id="rId949"/>
-    <hyperlink ref="D951" r:id="rId950"/>
-    <hyperlink ref="D952" r:id="rId951"/>
-    <hyperlink ref="D953" r:id="rId952"/>
-    <hyperlink ref="D954" r:id="rId953"/>
-    <hyperlink ref="D955" r:id="rId954"/>
-    <hyperlink ref="D956" r:id="rId955"/>
-    <hyperlink ref="D957" r:id="rId956"/>
-    <hyperlink ref="D958" r:id="rId957"/>
-    <hyperlink ref="D959" r:id="rId958"/>
-    <hyperlink ref="D960" r:id="rId959"/>
-    <hyperlink ref="D961" r:id="rId960"/>
-    <hyperlink ref="D962" r:id="rId961"/>
-    <hyperlink ref="D963" r:id="rId962"/>
-    <hyperlink ref="D964" r:id="rId963"/>
-    <hyperlink ref="D965" r:id="rId964"/>
-    <hyperlink ref="D966" r:id="rId965"/>
-    <hyperlink ref="D967" r:id="rId966"/>
-    <hyperlink ref="D968" r:id="rId967"/>
-    <hyperlink ref="D969" r:id="rId968"/>
-    <hyperlink ref="D970" r:id="rId969"/>
-    <hyperlink ref="D971" r:id="rId970"/>
-    <hyperlink ref="D972" r:id="rId971"/>
-    <hyperlink ref="D973" r:id="rId972"/>
-    <hyperlink ref="D974" r:id="rId973"/>
-    <hyperlink ref="D975" r:id="rId974"/>
-    <hyperlink ref="D976" r:id="rId975"/>
-    <hyperlink ref="D977" r:id="rId976"/>
-    <hyperlink ref="D978" r:id="rId977"/>
-    <hyperlink ref="D979" r:id="rId978"/>
-    <hyperlink ref="D980" r:id="rId979"/>
-    <hyperlink ref="D981" r:id="rId980"/>
-    <hyperlink ref="D982" r:id="rId981"/>
-    <hyperlink ref="D983" r:id="rId982"/>
-    <hyperlink ref="D984" r:id="rId983"/>
-    <hyperlink ref="D985" r:id="rId984"/>
-    <hyperlink ref="D986" r:id="rId985"/>
-    <hyperlink ref="D987" r:id="rId986"/>
-    <hyperlink ref="D988" r:id="rId987"/>
-    <hyperlink ref="D989" r:id="rId988"/>
-    <hyperlink ref="D990" r:id="rId989"/>
-    <hyperlink ref="D991" r:id="rId990"/>
-    <hyperlink ref="D992" r:id="rId991"/>
-    <hyperlink ref="D993" r:id="rId992"/>
-    <hyperlink ref="D994" r:id="rId993"/>
-    <hyperlink ref="D995" r:id="rId994"/>
-    <hyperlink ref="D996" r:id="rId995"/>
-    <hyperlink ref="D997" r:id="rId996"/>
-    <hyperlink ref="D998" r:id="rId997"/>
-    <hyperlink ref="D999" r:id="rId998"/>
-    <hyperlink ref="D1000" r:id="rId999"/>
-    <hyperlink ref="D1001" r:id="rId1000"/>
-    <hyperlink ref="D1002" r:id="rId1001"/>
-    <hyperlink ref="D1003" r:id="rId1002"/>
-    <hyperlink ref="D1004" r:id="rId1003"/>
-    <hyperlink ref="D1005" r:id="rId1004"/>
-    <hyperlink ref="D1006" r:id="rId1005"/>
-    <hyperlink ref="D1007" r:id="rId1006"/>
-    <hyperlink ref="D1008" r:id="rId1007"/>
-    <hyperlink ref="D1009" r:id="rId1008"/>
-    <hyperlink ref="D1010" r:id="rId1009"/>
-    <hyperlink ref="D1011" r:id="rId1010"/>
-    <hyperlink ref="D1012" r:id="rId1011"/>
-    <hyperlink ref="D1013" r:id="rId1012"/>
-    <hyperlink ref="D1014" r:id="rId1013"/>
-    <hyperlink ref="D1015" r:id="rId1014"/>
-    <hyperlink ref="D1016" r:id="rId1015"/>
-    <hyperlink ref="D1017" r:id="rId1016"/>
-    <hyperlink ref="D1018" r:id="rId1017"/>
-    <hyperlink ref="D1019" r:id="rId1018"/>
-    <hyperlink ref="D1020" r:id="rId1019"/>
-    <hyperlink ref="D1021" r:id="rId1020"/>
-    <hyperlink ref="D1022" r:id="rId1021"/>
-    <hyperlink ref="D1023" r:id="rId1022"/>
-    <hyperlink ref="D1024" r:id="rId1023"/>
-    <hyperlink ref="D1025" r:id="rId1024"/>
-    <hyperlink ref="D1026" r:id="rId1025"/>
-    <hyperlink ref="D1027" r:id="rId1026"/>
-    <hyperlink ref="D1028" r:id="rId1027"/>
-    <hyperlink ref="D1029" r:id="rId1028"/>
-    <hyperlink ref="D1030" r:id="rId1029"/>
-    <hyperlink ref="D1031" r:id="rId1030"/>
-    <hyperlink ref="D1032" r:id="rId1031"/>
-    <hyperlink ref="D1033" r:id="rId1032"/>
-    <hyperlink ref="D1034" r:id="rId1033"/>
-    <hyperlink ref="D1035" r:id="rId1034"/>
-    <hyperlink ref="D1036" r:id="rId1035"/>
-    <hyperlink ref="D1037" r:id="rId1036"/>
-    <hyperlink ref="D1038" r:id="rId1037"/>
-    <hyperlink ref="D1039" r:id="rId1038"/>
-    <hyperlink ref="D1040" r:id="rId1039"/>
-    <hyperlink ref="D1041" r:id="rId1040"/>
-    <hyperlink ref="D1042" r:id="rId1041"/>
-    <hyperlink ref="D1043" r:id="rId1042"/>
-    <hyperlink ref="D1044" r:id="rId1043"/>
-    <hyperlink ref="D1045" r:id="rId1044"/>
-    <hyperlink ref="D1046" r:id="rId1045"/>
-    <hyperlink ref="D1047" r:id="rId1046"/>
-    <hyperlink ref="D1048" r:id="rId1047"/>
-    <hyperlink ref="D1049" r:id="rId1048"/>
-    <hyperlink ref="D1050" r:id="rId1049"/>
-    <hyperlink ref="D1051" r:id="rId1050"/>
-    <hyperlink ref="D1052" r:id="rId1051"/>
-    <hyperlink ref="D1053" r:id="rId1052"/>
-    <hyperlink ref="D1054" r:id="rId1053"/>
-    <hyperlink ref="D1055" r:id="rId1054"/>
-    <hyperlink ref="D1056" r:id="rId1055"/>
-    <hyperlink ref="D1057" r:id="rId1056"/>
-    <hyperlink ref="D1058" r:id="rId1057"/>
-    <hyperlink ref="D1059" r:id="rId1058"/>
-    <hyperlink ref="D1060" r:id="rId1059"/>
-    <hyperlink ref="D1061" r:id="rId1060"/>
-    <hyperlink ref="D1062" r:id="rId1061"/>
-    <hyperlink ref="D1063" r:id="rId1062"/>
-    <hyperlink ref="D1064" r:id="rId1063"/>
-    <hyperlink ref="D1065" r:id="rId1064"/>
-    <hyperlink ref="D1066" r:id="rId1065"/>
-    <hyperlink ref="D1067" r:id="rId1066"/>
-    <hyperlink ref="D1068" r:id="rId1067"/>
-    <hyperlink ref="D1069" r:id="rId1068"/>
-    <hyperlink ref="D1070" r:id="rId1069"/>
-    <hyperlink ref="D1071" r:id="rId1070"/>
-    <hyperlink ref="D1072" r:id="rId1071"/>
-    <hyperlink ref="D1073" r:id="rId1072"/>
-    <hyperlink ref="D1074" r:id="rId1073"/>
-    <hyperlink ref="D1075" r:id="rId1074"/>
-    <hyperlink ref="D1076" r:id="rId1075"/>
-    <hyperlink ref="D1077" r:id="rId1076"/>
-    <hyperlink ref="D1078" r:id="rId1077"/>
-    <hyperlink ref="D1079" r:id="rId1078"/>
-    <hyperlink ref="D1080" r:id="rId1079"/>
-    <hyperlink ref="D1081" r:id="rId1080"/>
-    <hyperlink ref="D1082" r:id="rId1081"/>
-    <hyperlink ref="D1083" r:id="rId1082"/>
-    <hyperlink ref="D1084" r:id="rId1083"/>
-    <hyperlink ref="D1085" r:id="rId1084"/>
-    <hyperlink ref="D1086" r:id="rId1085"/>
-    <hyperlink ref="D1087" r:id="rId1086"/>
-    <hyperlink ref="D1088" r:id="rId1087"/>
-    <hyperlink ref="D1089" r:id="rId1088"/>
-    <hyperlink ref="D1090" r:id="rId1089"/>
-    <hyperlink ref="D1091" r:id="rId1090"/>
-    <hyperlink ref="D1092" r:id="rId1091"/>
-    <hyperlink ref="D1093" r:id="rId1092"/>
-    <hyperlink ref="D1094" r:id="rId1093"/>
-    <hyperlink ref="D1095" r:id="rId1094"/>
-    <hyperlink ref="D1096" r:id="rId1095"/>
-    <hyperlink ref="D1097" r:id="rId1096"/>
-    <hyperlink ref="D1098" r:id="rId1097"/>
-    <hyperlink ref="D1099" r:id="rId1098"/>
-    <hyperlink ref="D1100" r:id="rId1099"/>
-    <hyperlink ref="D1101" r:id="rId1100"/>
-    <hyperlink ref="D1102" r:id="rId1101"/>
-    <hyperlink ref="D1103" r:id="rId1102"/>
-    <hyperlink ref="D1104" r:id="rId1103"/>
-    <hyperlink ref="D1105" r:id="rId1104"/>
-    <hyperlink ref="D1106" r:id="rId1105"/>
-    <hyperlink ref="D1107" r:id="rId1106"/>
-    <hyperlink ref="D1108" r:id="rId1107"/>
-    <hyperlink ref="D1109" r:id="rId1108"/>
-    <hyperlink ref="D1110" r:id="rId1109"/>
-    <hyperlink ref="D1111" r:id="rId1110"/>
-    <hyperlink ref="D1112" r:id="rId1111"/>
-    <hyperlink ref="D1113" r:id="rId1112"/>
-    <hyperlink ref="D1114" r:id="rId1113"/>
-    <hyperlink ref="D1115" r:id="rId1114"/>
-    <hyperlink ref="D1116" r:id="rId1115"/>
-    <hyperlink ref="D1117" r:id="rId1116"/>
-    <hyperlink ref="D1118" r:id="rId1117"/>
-    <hyperlink ref="D1119" r:id="rId1118"/>
-    <hyperlink ref="D1120" r:id="rId1119"/>
-    <hyperlink ref="D1121" r:id="rId1120"/>
-    <hyperlink ref="D1122" r:id="rId1121"/>
-    <hyperlink ref="D1123" r:id="rId1122"/>
-    <hyperlink ref="D1124" r:id="rId1123"/>
-    <hyperlink ref="D1125" r:id="rId1124"/>
-    <hyperlink ref="D1126" r:id="rId1125"/>
-    <hyperlink ref="D1127" r:id="rId1126"/>
-    <hyperlink ref="D1128" r:id="rId1127"/>
-    <hyperlink ref="D1129" r:id="rId1128"/>
-    <hyperlink ref="D1130" r:id="rId1129"/>
-    <hyperlink ref="D1131" r:id="rId1130"/>
-    <hyperlink ref="D1132" r:id="rId1131"/>
-    <hyperlink ref="D1133" r:id="rId1132"/>
-    <hyperlink ref="D1134" r:id="rId1133"/>
-    <hyperlink ref="D1135" r:id="rId1134"/>
-    <hyperlink ref="D1136" r:id="rId1135"/>
-    <hyperlink ref="D1137" r:id="rId1136"/>
-    <hyperlink ref="D1138" r:id="rId1137"/>
-    <hyperlink ref="D1139" r:id="rId1138"/>
-    <hyperlink ref="D1140" r:id="rId1139"/>
-    <hyperlink ref="D1141" r:id="rId1140"/>
-    <hyperlink ref="D1142" r:id="rId1141"/>
-    <hyperlink ref="D1143" r:id="rId1142"/>
-    <hyperlink ref="D1144" r:id="rId1143"/>
-    <hyperlink ref="D1145" r:id="rId1144"/>
-    <hyperlink ref="D1146" r:id="rId1145"/>
-    <hyperlink ref="D1147" r:id="rId1146"/>
-    <hyperlink ref="D1148" r:id="rId1147"/>
-    <hyperlink ref="D1149" r:id="rId1148"/>
-    <hyperlink ref="D1150" r:id="rId1149"/>
-    <hyperlink ref="D1151" r:id="rId1150"/>
-    <hyperlink ref="D1152" r:id="rId1151"/>
-    <hyperlink ref="D1153" r:id="rId1152"/>
-    <hyperlink ref="D1154" r:id="rId1153"/>
-    <hyperlink ref="D1155" r:id="rId1154"/>
-    <hyperlink ref="D1156" r:id="rId1155"/>
-    <hyperlink ref="D1157" r:id="rId1156"/>
-    <hyperlink ref="D1158" r:id="rId1157"/>
-    <hyperlink ref="D1159" r:id="rId1158"/>
-    <hyperlink ref="D1160" r:id="rId1159"/>
-    <hyperlink ref="D1161" r:id="rId1160"/>
-    <hyperlink ref="D1162" r:id="rId1161"/>
-    <hyperlink ref="D1163" r:id="rId1162"/>
-    <hyperlink ref="D1164" r:id="rId1163"/>
-    <hyperlink ref="D1165" r:id="rId1164"/>
-    <hyperlink ref="D1166" r:id="rId1165"/>
-    <hyperlink ref="D1167" r:id="rId1166"/>
-    <hyperlink ref="D1168" r:id="rId1167"/>
-    <hyperlink ref="D1169" r:id="rId1168"/>
-    <hyperlink ref="D1170" r:id="rId1169"/>
-    <hyperlink ref="D1171" r:id="rId1170"/>
-    <hyperlink ref="D1172" r:id="rId1171"/>
-    <hyperlink ref="D1173" r:id="rId1172"/>
-    <hyperlink ref="D1174" r:id="rId1173"/>
-    <hyperlink ref="D1175" r:id="rId1174"/>
-    <hyperlink ref="D1176" r:id="rId1175"/>
-    <hyperlink ref="D1177" r:id="rId1176"/>
-    <hyperlink ref="D1178" r:id="rId1177"/>
-    <hyperlink ref="D1179" r:id="rId1178"/>
-    <hyperlink ref="D1180" r:id="rId1179"/>
-    <hyperlink ref="D1181" r:id="rId1180"/>
-    <hyperlink ref="D1182" r:id="rId1181"/>
-    <hyperlink ref="D1183" r:id="rId1182"/>
-    <hyperlink ref="D1184" r:id="rId1183"/>
-    <hyperlink ref="D1185" r:id="rId1184"/>
-    <hyperlink ref="D1186" r:id="rId1185"/>
-    <hyperlink ref="D1187" r:id="rId1186"/>
-    <hyperlink ref="D1188" r:id="rId1187"/>
-    <hyperlink ref="D1189" r:id="rId1188"/>
-    <hyperlink ref="D1190" r:id="rId1189"/>
-    <hyperlink ref="D1191" r:id="rId1190"/>
-    <hyperlink ref="D1192" r:id="rId1191"/>
-    <hyperlink ref="D1193" r:id="rId1192"/>
-    <hyperlink ref="D1194" r:id="rId1193"/>
-    <hyperlink ref="D1195" r:id="rId1194"/>
-    <hyperlink ref="D1196" r:id="rId1195"/>
-    <hyperlink ref="D1197" r:id="rId1196"/>
-    <hyperlink ref="D1198" r:id="rId1197"/>
-    <hyperlink ref="D1199" r:id="rId1198"/>
-    <hyperlink ref="D1200" r:id="rId1199"/>
-    <hyperlink ref="D1201" r:id="rId1200"/>
-    <hyperlink ref="D1202" r:id="rId1201"/>
-    <hyperlink ref="D1203" r:id="rId1202"/>
-    <hyperlink ref="D1204" r:id="rId1203"/>
-    <hyperlink ref="D1205" r:id="rId1204"/>
-    <hyperlink ref="D1206" r:id="rId1205"/>
-    <hyperlink ref="D1207" r:id="rId1206"/>
-    <hyperlink ref="D1208" r:id="rId1207"/>
-    <hyperlink ref="D1209" r:id="rId1208"/>
-    <hyperlink ref="D1210" r:id="rId1209"/>
-    <hyperlink ref="D1211" r:id="rId1210"/>
-    <hyperlink ref="D1212" r:id="rId1211"/>
-    <hyperlink ref="D1213" r:id="rId1212"/>
-    <hyperlink ref="D1214" r:id="rId1213"/>
-    <hyperlink ref="D1215" r:id="rId1214"/>
-    <hyperlink ref="D1216" r:id="rId1215"/>
-    <hyperlink ref="D1217" r:id="rId1216"/>
-    <hyperlink ref="D1218" r:id="rId1217"/>
-    <hyperlink ref="D1219" r:id="rId1218"/>
-    <hyperlink ref="D1220" r:id="rId1219"/>
-    <hyperlink ref="D1221" r:id="rId1220"/>
-    <hyperlink ref="D1222" r:id="rId1221"/>
-    <hyperlink ref="D1223" r:id="rId1222"/>
-    <hyperlink ref="D1224" r:id="rId1223"/>
-    <hyperlink ref="D1225" r:id="rId1224"/>
-    <hyperlink ref="D1226" r:id="rId1225"/>
-    <hyperlink ref="D1227" r:id="rId1226"/>
-    <hyperlink ref="D1228" r:id="rId1227"/>
-    <hyperlink ref="D1229" r:id="rId1228"/>
-    <hyperlink ref="D1230" r:id="rId1229"/>
-    <hyperlink ref="D1231" r:id="rId1230"/>
-    <hyperlink ref="D1232" r:id="rId1231"/>
-    <hyperlink ref="D1233" r:id="rId1232"/>
-    <hyperlink ref="D1234" r:id="rId1233"/>
-    <hyperlink ref="D1235" r:id="rId1234"/>
-    <hyperlink ref="D1236" r:id="rId1235"/>
-    <hyperlink ref="D1237" r:id="rId1236"/>
-    <hyperlink ref="D1238" r:id="rId1237"/>
-    <hyperlink ref="D1239" r:id="rId1238"/>
-    <hyperlink ref="D1240" r:id="rId1239"/>
-    <hyperlink ref="D1241" r:id="rId1240"/>
-    <hyperlink ref="D1242" r:id="rId1241"/>
-    <hyperlink ref="D1243" r:id="rId1242"/>
-    <hyperlink ref="D1244" r:id="rId1243"/>
-    <hyperlink ref="D1245" r:id="rId1244"/>
-    <hyperlink ref="D1246" r:id="rId1245"/>
-    <hyperlink ref="D1247" r:id="rId1246"/>
-    <hyperlink ref="D1248" r:id="rId1247"/>
-    <hyperlink ref="D1249" r:id="rId1248"/>
-    <hyperlink ref="D1250" r:id="rId1249"/>
-    <hyperlink ref="D1251" r:id="rId1250"/>
-    <hyperlink ref="D1252" r:id="rId1251"/>
-    <hyperlink ref="D1253" r:id="rId1252"/>
-    <hyperlink ref="D1254" r:id="rId1253"/>
-    <hyperlink ref="D1255" r:id="rId1254"/>
-    <hyperlink ref="D1256" r:id="rId1255"/>
-    <hyperlink ref="D1257" r:id="rId1256"/>
-    <hyperlink ref="D1258" r:id="rId1257"/>
-    <hyperlink ref="D1259" r:id="rId1258"/>
-    <hyperlink ref="D1260" r:id="rId1259"/>
-    <hyperlink ref="D1261" r:id="rId1260"/>
-    <hyperlink ref="D1262" r:id="rId1261"/>
-    <hyperlink ref="D1263" r:id="rId1262"/>
-    <hyperlink ref="D1264" r:id="rId1263"/>
-    <hyperlink ref="D1265" r:id="rId1264"/>
-    <hyperlink ref="D1266" r:id="rId1265"/>
-    <hyperlink ref="D1267" r:id="rId1266"/>
-    <hyperlink ref="D1268" r:id="rId1267"/>
-    <hyperlink ref="D1269" r:id="rId1268"/>
-    <hyperlink ref="D1270" r:id="rId1269"/>
-    <hyperlink ref="D1271" r:id="rId1270"/>
-    <hyperlink ref="D1272" r:id="rId1271"/>
-    <hyperlink ref="D1273" r:id="rId1272"/>
-    <hyperlink ref="D1274" r:id="rId1273"/>
-    <hyperlink ref="D1275" r:id="rId1274"/>
-    <hyperlink ref="D1276" r:id="rId1275"/>
-    <hyperlink ref="D1277" r:id="rId1276"/>
-    <hyperlink ref="D1278" r:id="rId1277"/>
-    <hyperlink ref="D1279" r:id="rId1278"/>
-    <hyperlink ref="D1280" r:id="rId1279"/>
-    <hyperlink ref="D1281" r:id="rId1280"/>
-    <hyperlink ref="D1282" r:id="rId1281"/>
-    <hyperlink ref="D1283" r:id="rId1282"/>
-    <hyperlink ref="D1284" r:id="rId1283"/>
-    <hyperlink ref="D1285" r:id="rId1284"/>
-    <hyperlink ref="D1286" r:id="rId1285"/>
-    <hyperlink ref="D1287" r:id="rId1286"/>
-    <hyperlink ref="D1288" r:id="rId1287"/>
-    <hyperlink ref="D1289" r:id="rId1288"/>
-    <hyperlink ref="D1290" r:id="rId1289"/>
-    <hyperlink ref="D1291" r:id="rId1290"/>
-    <hyperlink ref="D1292" r:id="rId1291"/>
-    <hyperlink ref="D1293" r:id="rId1292"/>
-    <hyperlink ref="D1294" r:id="rId1293"/>
-    <hyperlink ref="D1295" r:id="rId1294"/>
-    <hyperlink ref="D1296" r:id="rId1295"/>
-    <hyperlink ref="D1297" r:id="rId1296"/>
-    <hyperlink ref="D1298" r:id="rId1297"/>
-    <hyperlink ref="D1299" r:id="rId1298"/>
-    <hyperlink ref="D1300" r:id="rId1299"/>
-    <hyperlink ref="D1301" r:id="rId1300"/>
-    <hyperlink ref="D1302" r:id="rId1301"/>
-    <hyperlink ref="D1303" r:id="rId1302"/>
-    <hyperlink ref="D1304" r:id="rId1303"/>
-    <hyperlink ref="D1305" r:id="rId1304"/>
-    <hyperlink ref="D1306" r:id="rId1305"/>
-    <hyperlink ref="D1307" r:id="rId1306"/>
-    <hyperlink ref="D1308" r:id="rId1307"/>
-    <hyperlink ref="D1309" r:id="rId1308"/>
-    <hyperlink ref="D1310" r:id="rId1309"/>
-    <hyperlink ref="D1311" r:id="rId1310"/>
-    <hyperlink ref="D1312" r:id="rId1311"/>
-    <hyperlink ref="D1313" r:id="rId1312"/>
-    <hyperlink ref="D1314" r:id="rId1313"/>
-    <hyperlink ref="D1315" r:id="rId1314"/>
-    <hyperlink ref="D1316" r:id="rId1315"/>
-    <hyperlink ref="D1317" r:id="rId1316"/>
-    <hyperlink ref="D1318" r:id="rId1317"/>
-    <hyperlink ref="D1319" r:id="rId1318"/>
-    <hyperlink ref="D1320" r:id="rId1319"/>
-    <hyperlink ref="D1321" r:id="rId1320"/>
-    <hyperlink ref="D1322" r:id="rId1321"/>
-    <hyperlink ref="D1323" r:id="rId1322"/>
-    <hyperlink ref="D1324" r:id="rId1323"/>
-    <hyperlink ref="D1325" r:id="rId1324"/>
-    <hyperlink ref="D1326" r:id="rId1325"/>
-    <hyperlink ref="D1327" r:id="rId1326"/>
-    <hyperlink ref="D1328" r:id="rId1327"/>
-    <hyperlink ref="D1329" r:id="rId1328"/>
-    <hyperlink ref="D1330" r:id="rId1329"/>
-    <hyperlink ref="D1331" r:id="rId1330"/>
-    <hyperlink ref="D1332" r:id="rId1331"/>
-    <hyperlink ref="D1333" r:id="rId1332"/>
-    <hyperlink ref="D1334" r:id="rId1333"/>
-    <hyperlink ref="D1335" r:id="rId1334"/>
-    <hyperlink ref="D1336" r:id="rId1335"/>
-    <hyperlink ref="D1337" r:id="rId1336"/>
-    <hyperlink ref="D1338" r:id="rId1337"/>
-    <hyperlink ref="D1339" r:id="rId1338"/>
-    <hyperlink ref="D1340" r:id="rId1339"/>
-    <hyperlink ref="D1341" r:id="rId1340"/>
-    <hyperlink ref="D1342" r:id="rId1341"/>
-    <hyperlink ref="D1343" r:id="rId1342"/>
-    <hyperlink ref="D1344" r:id="rId1343"/>
-    <hyperlink ref="D1345" r:id="rId1344"/>
-    <hyperlink ref="D1346" r:id="rId1345"/>
-    <hyperlink ref="D1347" r:id="rId1346"/>
-    <hyperlink ref="D1348" r:id="rId1347"/>
-    <hyperlink ref="D1349" r:id="rId1348"/>
-    <hyperlink ref="D1350" r:id="rId1349"/>
-    <hyperlink ref="D1351" r:id="rId1350"/>
-    <hyperlink ref="D1352" r:id="rId1351"/>
-    <hyperlink ref="D1353" r:id="rId1352"/>
-    <hyperlink ref="D1354" r:id="rId1353"/>
-    <hyperlink ref="D1355" r:id="rId1354"/>
-    <hyperlink ref="D1356" r:id="rId1355"/>
-    <hyperlink ref="D1357" r:id="rId1356"/>
-    <hyperlink ref="D1358" r:id="rId1357"/>
-    <hyperlink ref="D1359" r:id="rId1358"/>
-    <hyperlink ref="D1360" r:id="rId1359"/>
-    <hyperlink ref="D1361" r:id="rId1360"/>
-    <hyperlink ref="D1362" r:id="rId1361"/>
-    <hyperlink ref="D1363" r:id="rId1362"/>
-    <hyperlink ref="D1364" r:id="rId1363"/>
-    <hyperlink ref="D1365" r:id="rId1364"/>
-    <hyperlink ref="D1366" r:id="rId1365"/>
-    <hyperlink ref="D1367" r:id="rId1366"/>
-    <hyperlink ref="D1368" r:id="rId1367"/>
-    <hyperlink ref="D1369" r:id="rId1368"/>
-    <hyperlink ref="D1370" r:id="rId1369"/>
-    <hyperlink ref="D1371" r:id="rId1370"/>
-    <hyperlink ref="D1372" r:id="rId1371"/>
-    <hyperlink ref="D1373" r:id="rId1372"/>
-    <hyperlink ref="D1374" r:id="rId1373"/>
-    <hyperlink ref="D1375" r:id="rId1374"/>
-    <hyperlink ref="D1376" r:id="rId1375"/>
-    <hyperlink ref="D1377" r:id="rId1376"/>
-    <hyperlink ref="D1378" r:id="rId1377"/>
-    <hyperlink ref="D1379" r:id="rId1378"/>
-    <hyperlink ref="D1380" r:id="rId1379"/>
-    <hyperlink ref="D1381" r:id="rId1380"/>
-    <hyperlink ref="D1382" r:id="rId1381"/>
-    <hyperlink ref="D1383" r:id="rId1382"/>
-    <hyperlink ref="D1384" r:id="rId1383"/>
-    <hyperlink ref="D1385" r:id="rId1384"/>
-    <hyperlink ref="D1386" r:id="rId1385"/>
-    <hyperlink ref="D1387" r:id="rId1386"/>
-    <hyperlink ref="D1388" r:id="rId1387"/>
-    <hyperlink ref="D1389" r:id="rId1388"/>
-    <hyperlink ref="D1390" r:id="rId1389"/>
-    <hyperlink ref="D1391" r:id="rId1390"/>
-    <hyperlink ref="D1392" r:id="rId1391"/>
-    <hyperlink ref="D1393" r:id="rId1392"/>
-    <hyperlink ref="D1394" r:id="rId1393"/>
-    <hyperlink ref="D1395" r:id="rId1394"/>
-    <hyperlink ref="D1396" r:id="rId1395"/>
-    <hyperlink ref="D1397" r:id="rId1396"/>
-    <hyperlink ref="D1398" r:id="rId1397"/>
-    <hyperlink ref="D1399" r:id="rId1398"/>
-    <hyperlink ref="D1400" r:id="rId1399"/>
-    <hyperlink ref="D1401" r:id="rId1400"/>
-    <hyperlink ref="D1402" r:id="rId1401"/>
-    <hyperlink ref="D1403" r:id="rId1402"/>
-    <hyperlink ref="D1404" r:id="rId1403"/>
-    <hyperlink ref="D1405" r:id="rId1404"/>
-    <hyperlink ref="D1406" r:id="rId1405"/>
-    <hyperlink ref="D1407" r:id="rId1406"/>
-    <hyperlink ref="D1408" r:id="rId1407"/>
-    <hyperlink ref="D1409" r:id="rId1408"/>
-    <hyperlink ref="D1410" r:id="rId1409"/>
-    <hyperlink ref="D1411" r:id="rId1410"/>
-    <hyperlink ref="D1412" r:id="rId1411"/>
-    <hyperlink ref="D1413" r:id="rId1412"/>
-    <hyperlink ref="D1414" r:id="rId1413"/>
-    <hyperlink ref="D1415" r:id="rId1414"/>
-    <hyperlink ref="D1416" r:id="rId1415"/>
-    <hyperlink ref="D1417" r:id="rId1416"/>
-    <hyperlink ref="D1418" r:id="rId1417"/>
-    <hyperlink ref="D1419" r:id="rId1418"/>
-    <hyperlink ref="D1420" r:id="rId1419"/>
-    <hyperlink ref="D1421" r:id="rId1420"/>
-    <hyperlink ref="D1422" r:id="rId1421"/>
-    <hyperlink ref="D1423" r:id="rId1422"/>
-    <hyperlink ref="D1424" r:id="rId1423"/>
-    <hyperlink ref="D1425" r:id="rId1424"/>
-    <hyperlink ref="D1426" r:id="rId1425"/>
-    <hyperlink ref="D1427" r:id="rId1426"/>
-    <hyperlink ref="D1428" r:id="rId1427"/>
-    <hyperlink ref="D1429" r:id="rId1428"/>
-    <hyperlink ref="D1430" r:id="rId1429"/>
-    <hyperlink ref="D1431" r:id="rId1430"/>
-    <hyperlink ref="D1432" r:id="rId1431"/>
-    <hyperlink ref="D1433" r:id="rId1432"/>
-    <hyperlink ref="D1434" r:id="rId1433"/>
-    <hyperlink ref="D1435" r:id="rId1434"/>
-    <hyperlink ref="D1436" r:id="rId1435"/>
-    <hyperlink ref="D1437" r:id="rId1436"/>
-    <hyperlink ref="D1438" r:id="rId1437"/>
-    <hyperlink ref="D1439" r:id="rId1438"/>
-    <hyperlink ref="D1440" r:id="rId1439"/>
-    <hyperlink ref="D1441" r:id="rId1440"/>
-    <hyperlink ref="D1442" r:id="rId1441"/>
-    <hyperlink ref="D1443" r:id="rId1442"/>
-    <hyperlink ref="D1444" r:id="rId1443"/>
-    <hyperlink ref="D1445" r:id="rId1444"/>
-    <hyperlink ref="D1446" r:id="rId1445"/>
-    <hyperlink ref="D1447" r:id="rId1446"/>
-    <hyperlink ref="D1448" r:id="rId1447"/>
-    <hyperlink ref="D1449" r:id="rId1448"/>
-    <hyperlink ref="D1450" r:id="rId1449"/>
-    <hyperlink ref="D1451" r:id="rId1450"/>
-    <hyperlink ref="D1452" r:id="rId1451"/>
-    <hyperlink ref="D1453" r:id="rId1452"/>
-    <hyperlink ref="D1454" r:id="rId1453"/>
-    <hyperlink ref="D1455" r:id="rId1454"/>
-    <hyperlink ref="D1456" r:id="rId1455"/>
-    <hyperlink ref="D1457" r:id="rId1456"/>
-    <hyperlink ref="D1458" r:id="rId1457"/>
-    <hyperlink ref="D1459" r:id="rId1458"/>
-    <hyperlink ref="D1460" r:id="rId1459"/>
-    <hyperlink ref="D1461" r:id="rId1460"/>
-    <hyperlink ref="D1462" r:id="rId1461"/>
-    <hyperlink ref="D1463" r:id="rId1462"/>
-    <hyperlink ref="D1464" r:id="rId1463"/>
-    <hyperlink ref="D1465" r:id="rId1464"/>
-    <hyperlink ref="D1466" r:id="rId1465"/>
-    <hyperlink ref="D1467" r:id="rId1466"/>
-    <hyperlink ref="D1468" r:id="rId1467"/>
-    <hyperlink ref="D1469" r:id="rId1468"/>
-    <hyperlink ref="D1470" r:id="rId1469"/>
-    <hyperlink ref="D1471" r:id="rId1470"/>
-    <hyperlink ref="D1472" r:id="rId1471"/>
-    <hyperlink ref="D1473" r:id="rId1472"/>
-    <hyperlink ref="D1474" r:id="rId1473"/>
-    <hyperlink ref="D1475" r:id="rId1474"/>
-    <hyperlink ref="D1476" r:id="rId1475"/>
-    <hyperlink ref="D1477" r:id="rId1476"/>
-    <hyperlink ref="D1478" r:id="rId1477"/>
-    <hyperlink ref="D1479" r:id="rId1478"/>
-    <hyperlink ref="D1480" r:id="rId1479"/>
-    <hyperlink ref="D1481" r:id="rId1480"/>
-    <hyperlink ref="D1482" r:id="rId1481"/>
-    <hyperlink ref="D1483" r:id="rId1482"/>
-    <hyperlink ref="D1484" r:id="rId1483"/>
-    <hyperlink ref="D1485" r:id="rId1484"/>
-    <hyperlink ref="D1486" r:id="rId1485"/>
-    <hyperlink ref="D1487" r:id="rId1486"/>
-    <hyperlink ref="D1488" r:id="rId1487"/>
-    <hyperlink ref="D1489" r:id="rId1488"/>
-    <hyperlink ref="D1490" r:id="rId1489"/>
-    <hyperlink ref="D1491" r:id="rId1490"/>
-    <hyperlink ref="D1492" r:id="rId1491"/>
-    <hyperlink ref="D1493" r:id="rId1492"/>
-    <hyperlink ref="D1494" r:id="rId1493"/>
-    <hyperlink ref="D1495" r:id="rId1494"/>
-    <hyperlink ref="D1496" r:id="rId1495"/>
-    <hyperlink ref="D1497" r:id="rId1496"/>
-    <hyperlink ref="D1498" r:id="rId1497"/>
-    <hyperlink ref="D1499" r:id="rId1498"/>
-    <hyperlink ref="D1500" r:id="rId1499"/>
-    <hyperlink ref="D1501" r:id="rId1500"/>
-    <hyperlink ref="D1502" r:id="rId1501"/>
-    <hyperlink ref="D1503" r:id="rId1502"/>
-    <hyperlink ref="D1504" r:id="rId1503"/>
-    <hyperlink ref="D1505" r:id="rId1504"/>
-    <hyperlink ref="D1506" r:id="rId1505"/>
-    <hyperlink ref="D1507" r:id="rId1506"/>
-    <hyperlink ref="D1508" r:id="rId1507"/>
-    <hyperlink ref="D1509" r:id="rId1508"/>
-    <hyperlink ref="D1510" r:id="rId1509"/>
-    <hyperlink ref="D1511" r:id="rId1510"/>
-    <hyperlink ref="D1512" r:id="rId1511"/>
-    <hyperlink ref="D1513" r:id="rId1512"/>
-    <hyperlink ref="D1514" r:id="rId1513"/>
-    <hyperlink ref="D1515" r:id="rId1514"/>
-    <hyperlink ref="D1516" r:id="rId1515"/>
-    <hyperlink ref="D1517" r:id="rId1516"/>
-    <hyperlink ref="D1518" r:id="rId1517"/>
-    <hyperlink ref="D1519" r:id="rId1518"/>
-    <hyperlink ref="D1520" r:id="rId1519"/>
-    <hyperlink ref="D1521" r:id="rId1520"/>
-    <hyperlink ref="D1522" r:id="rId1521"/>
-    <hyperlink ref="D1523" r:id="rId1522"/>
-    <hyperlink ref="D1524" r:id="rId1523"/>
-    <hyperlink ref="D1525" r:id="rId1524"/>
-    <hyperlink ref="D1526" r:id="rId1525"/>
-    <hyperlink ref="D1527" r:id="rId1526"/>
-    <hyperlink ref="D1528" r:id="rId1527"/>
-    <hyperlink ref="D1529" r:id="rId1528"/>
-    <hyperlink ref="D1530" r:id="rId1529"/>
-    <hyperlink ref="D1531" r:id="rId1530"/>
-    <hyperlink ref="D1532" r:id="rId1531"/>
-    <hyperlink ref="D1533" r:id="rId1532"/>
-    <hyperlink ref="D1534" r:id="rId1533"/>
-    <hyperlink ref="D1535" r:id="rId1534"/>
-    <hyperlink ref="D1536" r:id="rId1535"/>
-    <hyperlink ref="D1537" r:id="rId1536"/>
-    <hyperlink ref="D1538" r:id="rId1537"/>
-    <hyperlink ref="D1539" r:id="rId1538"/>
-    <hyperlink ref="D1540" r:id="rId1539"/>
-    <hyperlink ref="D1541" r:id="rId1540"/>
-    <hyperlink ref="D1542" r:id="rId1541"/>
-    <hyperlink ref="D1543" r:id="rId1542"/>
-    <hyperlink ref="D1544" r:id="rId1543"/>
-    <hyperlink ref="D1545" r:id="rId1544"/>
-    <hyperlink ref="D1546" r:id="rId1545"/>
-    <hyperlink ref="D1547" r:id="rId1546"/>
-    <hyperlink ref="D1548" r:id="rId1547"/>
-    <hyperlink ref="D1549" r:id="rId1548"/>
-    <hyperlink ref="D1550" r:id="rId1549"/>
-    <hyperlink ref="D1551" r:id="rId1550"/>
-    <hyperlink ref="D1552" r:id="rId1551"/>
-    <hyperlink ref="D1553" r:id="rId1552"/>
-    <hyperlink ref="D1554" r:id="rId1553"/>
-    <hyperlink ref="D1555" r:id="rId1554"/>
-    <hyperlink ref="D1556" r:id="rId1555"/>
-    <hyperlink ref="D1557" r:id="rId1556"/>
-    <hyperlink ref="D1558" r:id="rId1557"/>
-    <hyperlink ref="D1559" r:id="rId1558"/>
-    <hyperlink ref="D1560" r:id="rId1559"/>
-    <hyperlink ref="D1561" r:id="rId1560"/>
-    <hyperlink ref="D1562" r:id="rId1561"/>
-    <hyperlink ref="D1563" r:id="rId1562"/>
-    <hyperlink ref="D1564" r:id="rId1563"/>
-    <hyperlink ref="D1565" r:id="rId1564"/>
-    <hyperlink ref="D1566" r:id="rId1565"/>
-    <hyperlink ref="D1567" r:id="rId1566"/>
-    <hyperlink ref="D1568" r:id="rId1567"/>
-    <hyperlink ref="D1569" r:id="rId1568"/>
-    <hyperlink ref="D1570" r:id="rId1569"/>
-    <hyperlink ref="D1571" r:id="rId1570"/>
-    <hyperlink ref="D1572" r:id="rId1571"/>
-    <hyperlink ref="D1573" r:id="rId1572"/>
-    <hyperlink ref="D1574" r:id="rId1573"/>
-    <hyperlink ref="D1575" r:id="rId1574"/>
-    <hyperlink ref="D1576" r:id="rId1575"/>
-    <hyperlink ref="D1577" r:id="rId1576"/>
-    <hyperlink ref="D1578" r:id="rId1577"/>
-    <hyperlink ref="D1579" r:id="rId1578"/>
-    <hyperlink ref="D1580" r:id="rId1579"/>
-    <hyperlink ref="D1581" r:id="rId1580"/>
-    <hyperlink ref="D1582" r:id="rId1581"/>
-    <hyperlink ref="D1583" r:id="rId1582"/>
-    <hyperlink ref="D1584" r:id="rId1583"/>
-    <hyperlink ref="D1585" r:id="rId1584"/>
-    <hyperlink ref="D1586" r:id="rId1585"/>
-    <hyperlink ref="D1587" r:id="rId1586"/>
-    <hyperlink ref="D1588" r:id="rId1587"/>
-    <hyperlink ref="D1589" r:id="rId1588"/>
-    <hyperlink ref="D1590" r:id="rId1589"/>
-    <hyperlink ref="D1591" r:id="rId1590"/>
-    <hyperlink ref="D1592" r:id="rId1591"/>
-    <hyperlink ref="D1593" r:id="rId1592"/>
-    <hyperlink ref="D1594" r:id="rId1593"/>
-    <hyperlink ref="D1595" r:id="rId1594"/>
-    <hyperlink ref="D1596" r:id="rId1595"/>
-    <hyperlink ref="D1597" r:id="rId1596"/>
-    <hyperlink ref="D1598" r:id="rId1597"/>
-    <hyperlink ref="D1599" r:id="rId1598"/>
-    <hyperlink ref="D1600" r:id="rId1599"/>
-    <hyperlink ref="D1601" r:id="rId1600"/>
-    <hyperlink ref="D1602" r:id="rId1601"/>
-    <hyperlink ref="D1603" r:id="rId1602"/>
-    <hyperlink ref="D1604" r:id="rId1603"/>
-    <hyperlink ref="D1605" r:id="rId1604"/>
-    <hyperlink ref="D1606" r:id="rId1605"/>
-    <hyperlink ref="D1607" r:id="rId1606"/>
-    <hyperlink ref="D1608" r:id="rId1607"/>
-    <hyperlink ref="D1609" r:id="rId1608"/>
-    <hyperlink ref="D1610" r:id="rId1609"/>
-    <hyperlink ref="D1611" r:id="rId1610"/>
-    <hyperlink ref="D1612" r:id="rId1611"/>
-    <hyperlink ref="D1613" r:id="rId1612"/>
-    <hyperlink ref="D1614" r:id="rId1613"/>
-    <hyperlink ref="D1615" r:id="rId1614"/>
-    <hyperlink ref="D1616" r:id="rId1615"/>
-    <hyperlink ref="D1617" r:id="rId1616"/>
-    <hyperlink ref="D1618" r:id="rId1617"/>
-    <hyperlink ref="D1619" r:id="rId1618"/>
-    <hyperlink ref="D1620" r:id="rId1619"/>
-    <hyperlink ref="D1621" r:id="rId1620"/>
-    <hyperlink ref="D1622" r:id="rId1621"/>
-    <hyperlink ref="D1623" r:id="rId1622"/>
-    <hyperlink ref="D1624" r:id="rId1623"/>
-    <hyperlink ref="D1625" r:id="rId1624"/>
-    <hyperlink ref="D1626" r:id="rId1625"/>
-    <hyperlink ref="D1627" r:id="rId1626"/>
-    <hyperlink ref="D1628" r:id="rId1627"/>
-    <hyperlink ref="D1629" r:id="rId1628"/>
-    <hyperlink ref="D1630" r:id="rId1629"/>
-    <hyperlink ref="D1631" r:id="rId1630"/>
-    <hyperlink ref="D1632" r:id="rId1631"/>
-    <hyperlink ref="D1633" r:id="rId1632"/>
-    <hyperlink ref="D1634" r:id="rId1633"/>
-    <hyperlink ref="D1635" r:id="rId1634"/>
-    <hyperlink ref="D1636" r:id="rId1635"/>
-    <hyperlink ref="D1637" r:id="rId1636"/>
-    <hyperlink ref="D1638" r:id="rId1637"/>
-    <hyperlink ref="D1639" r:id="rId1638"/>
-    <hyperlink ref="D1640" r:id="rId1639"/>
-    <hyperlink ref="D1641" r:id="rId1640"/>
-    <hyperlink ref="D1642" r:id="rId1641"/>
-    <hyperlink ref="D1643" r:id="rId1642"/>
-    <hyperlink ref="D1644" r:id="rId1643"/>
-    <hyperlink ref="D1645" r:id="rId1644"/>
-    <hyperlink ref="D1646" r:id="rId1645"/>
-    <hyperlink ref="D1647" r:id="rId1646"/>
-    <hyperlink ref="D1648" r:id="rId1647"/>
-    <hyperlink ref="D1649" r:id="rId1648"/>
-    <hyperlink ref="D1650" r:id="rId1649"/>
-    <hyperlink ref="D1651" r:id="rId1650"/>
-    <hyperlink ref="D1652" r:id="rId1651"/>
-    <hyperlink ref="D1653" r:id="rId1652"/>
-    <hyperlink ref="D1654" r:id="rId1653"/>
-    <hyperlink ref="D1655" r:id="rId1654"/>
-    <hyperlink ref="D1656" r:id="rId1655"/>
-    <hyperlink ref="D1657" r:id="rId1656"/>
-    <hyperlink ref="D1658" r:id="rId1657"/>
-    <hyperlink ref="D1659" r:id="rId1658"/>
-    <hyperlink ref="D1660" r:id="rId1659"/>
-    <hyperlink ref="D1661" r:id="rId1660"/>
-    <hyperlink ref="D1662" r:id="rId1661"/>
-    <hyperlink ref="D1663" r:id="rId1662"/>
-    <hyperlink ref="D1664" r:id="rId1663"/>
-    <hyperlink ref="D1665" r:id="rId1664"/>
-    <hyperlink ref="D1666" r:id="rId1665"/>
-    <hyperlink ref="D1667" r:id="rId1666"/>
-    <hyperlink ref="D1668" r:id="rId1667"/>
-    <hyperlink ref="D1669" r:id="rId1668"/>
-    <hyperlink ref="D1670" r:id="rId1669"/>
-    <hyperlink ref="D1671" r:id="rId1670"/>
-    <hyperlink ref="D1672" r:id="rId1671"/>
-    <hyperlink ref="D1673" r:id="rId1672"/>
-    <hyperlink ref="D1674" r:id="rId1673"/>
-    <hyperlink ref="D1675" r:id="rId1674"/>
-    <hyperlink ref="D1676" r:id="rId1675"/>
-    <hyperlink ref="D1677" r:id="rId1676"/>
-    <hyperlink ref="D1678" r:id="rId1677"/>
-    <hyperlink ref="D1679" r:id="rId1678"/>
-    <hyperlink ref="D1680" r:id="rId1679"/>
-    <hyperlink ref="D1681" r:id="rId1680"/>
-    <hyperlink ref="D1682" r:id="rId1681"/>
-    <hyperlink ref="D1683" r:id="rId1682"/>
-    <hyperlink ref="D1684" r:id="rId1683"/>
-    <hyperlink ref="D1685" r:id="rId1684"/>
-    <hyperlink ref="D1686" r:id="rId1685"/>
-    <hyperlink ref="D1687" r:id="rId1686"/>
-    <hyperlink ref="D1688" r:id="rId1687"/>
-    <hyperlink ref="D1689" r:id="rId1688"/>
-    <hyperlink ref="D1690" r:id="rId1689"/>
-    <hyperlink ref="D1691" r:id="rId1690"/>
-    <hyperlink ref="D1692" r:id="rId1691"/>
-    <hyperlink ref="D1693" r:id="rId1692"/>
-    <hyperlink ref="D1694" r:id="rId1693"/>
-    <hyperlink ref="D1695" r:id="rId1694"/>
-    <hyperlink ref="D1696" r:id="rId1695"/>
-    <hyperlink ref="D1697" r:id="rId1696"/>
-    <hyperlink ref="D1698" r:id="rId1697"/>
-    <hyperlink ref="D1699" r:id="rId1698"/>
-    <hyperlink ref="D1700" r:id="rId1699"/>
-    <hyperlink ref="D1701" r:id="rId1700"/>
-    <hyperlink ref="D1702" r:id="rId1701"/>
-    <hyperlink ref="D1703" r:id="rId1702"/>
-    <hyperlink ref="D1704" r:id="rId1703"/>
-    <hyperlink ref="D1705" r:id="rId1704"/>
-    <hyperlink ref="D1706" r:id="rId1705"/>
-    <hyperlink ref="D1707" r:id="rId1706"/>
-    <hyperlink ref="D1708" r:id="rId1707"/>
-    <hyperlink ref="D1709" r:id="rId1708"/>
-    <hyperlink ref="D1710" r:id="rId1709"/>
-    <hyperlink ref="D1711" r:id="rId1710"/>
-    <hyperlink ref="D1712" r:id="rId1711"/>
-    <hyperlink ref="D1713" r:id="rId1712"/>
-    <hyperlink ref="D1714" r:id="rId1713"/>
-    <hyperlink ref="D1715" r:id="rId1714"/>
-    <hyperlink ref="D1716" r:id="rId1715"/>
-    <hyperlink ref="D1717" r:id="rId1716"/>
-    <hyperlink ref="D1718" r:id="rId1717"/>
-    <hyperlink ref="D1719" r:id="rId1718"/>
-    <hyperlink ref="D1720" r:id="rId1719"/>
-    <hyperlink ref="D1721" r:id="rId1720"/>
-    <hyperlink ref="D1722" r:id="rId1721"/>
-    <hyperlink ref="D1723" r:id="rId1722"/>
-    <hyperlink ref="D1724" r:id="rId1723"/>
-    <hyperlink ref="D1725" r:id="rId1724"/>
-    <hyperlink ref="D1726" r:id="rId1725"/>
-    <hyperlink ref="D1727" r:id="rId1726"/>
-    <hyperlink ref="D1728" r:id="rId1727"/>
-    <hyperlink ref="D1729" r:id="rId1728"/>
-    <hyperlink ref="D1730" r:id="rId1729"/>
-    <hyperlink ref="D1731" r:id="rId1730"/>
-    <hyperlink ref="D1732" r:id="rId1731"/>
-    <hyperlink ref="D1733" r:id="rId1732"/>
-    <hyperlink ref="D1734" r:id="rId1733"/>
-    <hyperlink ref="D1735" r:id="rId1734"/>
-    <hyperlink ref="D1736" r:id="rId1735"/>
-    <hyperlink ref="D1737" r:id="rId1736"/>
-    <hyperlink ref="D1738" r:id="rId1737"/>
-    <hyperlink ref="D1739" r:id="rId1738"/>
-    <hyperlink ref="D1740" r:id="rId1739"/>
-    <hyperlink ref="D1741" r:id="rId1740"/>
-    <hyperlink ref="D1742" r:id="rId1741"/>
-    <hyperlink ref="D1743" r:id="rId1742"/>
-    <hyperlink ref="D1744" r:id="rId1743"/>
-    <hyperlink ref="D1745" r:id="rId1744"/>
-    <hyperlink ref="D1746" r:id="rId1745"/>
-    <hyperlink ref="D1747" r:id="rId1746"/>
-    <hyperlink ref="D1748" r:id="rId1747"/>
-    <hyperlink ref="D1749" r:id="rId1748"/>
-    <hyperlink ref="D1750" r:id="rId1749"/>
-    <hyperlink ref="D1751" r:id="rId1750"/>
-    <hyperlink ref="D1752" r:id="rId1751"/>
-    <hyperlink ref="D1753" r:id="rId1752"/>
-    <hyperlink ref="D1754" r:id="rId1753"/>
-    <hyperlink ref="D1755" r:id="rId1754"/>
-    <hyperlink ref="D1756" r:id="rId1755"/>
-    <hyperlink ref="D1757" r:id="rId1756"/>
-    <hyperlink ref="D1758" r:id="rId1757"/>
-    <hyperlink ref="D1759" r:id="rId1758"/>
-    <hyperlink ref="D1760" r:id="rId1759"/>
-    <hyperlink ref="D1761" r:id="rId1760"/>
-    <hyperlink ref="D1762" r:id="rId1761"/>
-    <hyperlink ref="D1763" r:id="rId1762"/>
-    <hyperlink ref="D1764" r:id="rId1763"/>
-    <hyperlink ref="D1765" r:id="rId1764"/>
-    <hyperlink ref="D1766" r:id="rId1765"/>
-    <hyperlink ref="D1767" r:id="rId1766"/>
-    <hyperlink ref="D1768" r:id="rId1767"/>
-    <hyperlink ref="D1769" r:id="rId1768"/>
-    <hyperlink ref="D1770" r:id="rId1769"/>
-    <hyperlink ref="D1771" r:id="rId1770"/>
-    <hyperlink ref="D1772" r:id="rId1771"/>
-    <hyperlink ref="D1773" r:id="rId1772"/>
-    <hyperlink ref="D1774" r:id="rId1773"/>
-    <hyperlink ref="D1775" r:id="rId1774"/>
-    <hyperlink ref="D1776" r:id="rId1775"/>
-    <hyperlink ref="D1777" r:id="rId1776"/>
-    <hyperlink ref="D1778" r:id="rId1777"/>
-    <hyperlink ref="D1779" r:id="rId1778"/>
-    <hyperlink ref="D1780" r:id="rId1779"/>
-    <hyperlink ref="D1781" r:id="rId1780"/>
-    <hyperlink ref="D1782" r:id="rId1781"/>
-    <hyperlink ref="D1783" r:id="rId1782"/>
-    <hyperlink ref="D1784" r:id="rId1783"/>
-    <hyperlink ref="D1785" r:id="rId1784"/>
-    <hyperlink ref="D1786" r:id="rId1785"/>
-    <hyperlink ref="D1787" r:id="rId1786"/>
-    <hyperlink ref="D1788" r:id="rId1787"/>
-    <hyperlink ref="D1789" r:id="rId1788"/>
-    <hyperlink ref="D1790" r:id="rId1789"/>
-    <hyperlink ref="D1791" r:id="rId1790"/>
-    <hyperlink ref="D1792" r:id="rId1791"/>
-    <hyperlink ref="D1793" r:id="rId1792"/>
-    <hyperlink ref="D1794" r:id="rId1793"/>
-    <hyperlink ref="D1795" r:id="rId1794"/>
-    <hyperlink ref="D1796" r:id="rId1795"/>
-    <hyperlink ref="D1797" r:id="rId1796"/>
-    <hyperlink ref="D1798" r:id="rId1797"/>
-    <hyperlink ref="D1799" r:id="rId1798"/>
-    <hyperlink ref="D1800" r:id="rId1799"/>
-    <hyperlink ref="D1801" r:id="rId1800"/>
-    <hyperlink ref="D1802" r:id="rId1801"/>
-    <hyperlink ref="D1803" r:id="rId1802"/>
-    <hyperlink ref="D1804" r:id="rId1803"/>
-    <hyperlink ref="D1805" r:id="rId1804"/>
-    <hyperlink ref="D1806" r:id="rId1805"/>
-    <hyperlink ref="D1807" r:id="rId1806"/>
-    <hyperlink ref="D1808" r:id="rId1807"/>
-    <hyperlink ref="D1809" r:id="rId1808"/>
-    <hyperlink ref="D1810" r:id="rId1809"/>
-    <hyperlink ref="D1811" r:id="rId1810"/>
-    <hyperlink ref="D1812" r:id="rId1811"/>
-    <hyperlink ref="D1813" r:id="rId1812"/>
-    <hyperlink ref="D1814" r:id="rId1813"/>
-    <hyperlink ref="D1815" r:id="rId1814"/>
-    <hyperlink ref="D1816" r:id="rId1815"/>
-    <hyperlink ref="D1817" r:id="rId1816"/>
-    <hyperlink ref="D1818" r:id="rId1817"/>
-    <hyperlink ref="D1819" r:id="rId1818"/>
-    <hyperlink ref="D1820" r:id="rId1819"/>
-    <hyperlink ref="D1821" r:id="rId1820"/>
-    <hyperlink ref="D1822" r:id="rId1821"/>
-    <hyperlink ref="D1823" r:id="rId1822"/>
-    <hyperlink ref="D1824" r:id="rId1823"/>
-    <hyperlink ref="D1825" r:id="rId1824"/>
-    <hyperlink ref="D1826" r:id="rId1825"/>
-    <hyperlink ref="D1827" r:id="rId1826"/>
-    <hyperlink ref="D1828" r:id="rId1827"/>
-    <hyperlink ref="D1829" r:id="rId1828"/>
-    <hyperlink ref="D1830" r:id="rId1829"/>
-    <hyperlink ref="D1831" r:id="rId1830"/>
-    <hyperlink ref="D1832" r:id="rId1831"/>
-    <hyperlink ref="D1833" r:id="rId1832"/>
-    <hyperlink ref="D1834" r:id="rId1833"/>
-    <hyperlink ref="D1835" r:id="rId1834"/>
-    <hyperlink ref="D1836" r:id="rId1835"/>
-    <hyperlink ref="D1837" r:id="rId1836"/>
-    <hyperlink ref="D1838" r:id="rId1837"/>
-    <hyperlink ref="D1839" r:id="rId1838"/>
-    <hyperlink ref="D1840" r:id="rId1839"/>
-    <hyperlink ref="D1841" r:id="rId1840"/>
-    <hyperlink ref="D1843" r:id="rId1841"/>
-    <hyperlink ref="D1844" r:id="rId1842"/>
-    <hyperlink ref="D1845" r:id="rId1843"/>
-    <hyperlink ref="D1846" r:id="rId1844"/>
-    <hyperlink ref="D1847" r:id="rId1845"/>
-    <hyperlink ref="D1848" r:id="rId1846"/>
-    <hyperlink ref="D1849" r:id="rId1847"/>
-    <hyperlink ref="D1850" r:id="rId1848"/>
-    <hyperlink ref="D1851" r:id="rId1849"/>
-    <hyperlink ref="D1852" r:id="rId1850"/>
-    <hyperlink ref="D1853" r:id="rId1851"/>
-    <hyperlink ref="D1854" r:id="rId1852"/>
-    <hyperlink ref="D1855" r:id="rId1853"/>
-    <hyperlink ref="D1856" r:id="rId1854"/>
-    <hyperlink ref="D1857" r:id="rId1855"/>
-    <hyperlink ref="D1858" r:id="rId1856"/>
-    <hyperlink ref="D1859" r:id="rId1857"/>
-    <hyperlink ref="D1860" r:id="rId1858"/>
-    <hyperlink ref="D1861" r:id="rId1859"/>
-    <hyperlink ref="D1862" r:id="rId1860"/>
-    <hyperlink ref="D1863" r:id="rId1861"/>
-    <hyperlink ref="D1864" r:id="rId1862"/>
-    <hyperlink ref="D1865" r:id="rId1863"/>
-    <hyperlink ref="D1866" r:id="rId1864"/>
-    <hyperlink ref="D1867" r:id="rId1865"/>
-    <hyperlink ref="D1868" r:id="rId1866"/>
-    <hyperlink ref="D1869" r:id="rId1867"/>
-    <hyperlink ref="D1870" r:id="rId1868"/>
-    <hyperlink ref="D1871" r:id="rId1869"/>
-    <hyperlink ref="D1872" r:id="rId1870"/>
-    <hyperlink ref="D1873" r:id="rId1871"/>
-    <hyperlink ref="D1874" r:id="rId1872"/>
-    <hyperlink ref="D1875" r:id="rId1873"/>
-    <hyperlink ref="D1876" r:id="rId1874"/>
-    <hyperlink ref="D1877" r:id="rId1875"/>
-    <hyperlink ref="D1878" r:id="rId1876"/>
-    <hyperlink ref="D1879" r:id="rId1877"/>
-    <hyperlink ref="D1880" r:id="rId1878"/>
-    <hyperlink ref="D1881" r:id="rId1879"/>
-    <hyperlink ref="D1882" r:id="rId1880"/>
-    <hyperlink ref="D1883" r:id="rId1881"/>
-    <hyperlink ref="D1884" r:id="rId1882"/>
-    <hyperlink ref="D1885" r:id="rId1883"/>
-    <hyperlink ref="D1886" r:id="rId1884"/>
-    <hyperlink ref="D1887" r:id="rId1885"/>
-    <hyperlink ref="D1888" r:id="rId1886"/>
-    <hyperlink ref="D1889" r:id="rId1887"/>
-    <hyperlink ref="D1890" r:id="rId1888"/>
-    <hyperlink ref="D1891" r:id="rId1889"/>
-    <hyperlink ref="D1892" r:id="rId1890"/>
-    <hyperlink ref="D1893" r:id="rId1891"/>
-    <hyperlink ref="D1894" r:id="rId1892"/>
-    <hyperlink ref="D1895" r:id="rId1893"/>
-    <hyperlink ref="D1896" r:id="rId1894"/>
-    <hyperlink ref="D1897" r:id="rId1895"/>
-    <hyperlink ref="D1898" r:id="rId1896"/>
-    <hyperlink ref="D1899" r:id="rId1897"/>
-    <hyperlink ref="D1900" r:id="rId1898"/>
-    <hyperlink ref="D1901" r:id="rId1899"/>
-    <hyperlink ref="D1902" r:id="rId1900"/>
-    <hyperlink ref="D1903" r:id="rId1901"/>
-    <hyperlink ref="D1904" r:id="rId1902"/>
-    <hyperlink ref="D1905" r:id="rId1903"/>
-    <hyperlink ref="D1906" r:id="rId1904"/>
-    <hyperlink ref="D1907" r:id="rId1905"/>
-    <hyperlink ref="D1908" r:id="rId1906"/>
-    <hyperlink ref="D1909" r:id="rId1907"/>
-    <hyperlink ref="D1910" r:id="rId1908"/>
-    <hyperlink ref="D1911" r:id="rId1909"/>
-    <hyperlink ref="D1912" r:id="rId1910"/>
-    <hyperlink ref="D1913" r:id="rId1911"/>
-    <hyperlink ref="D1914" r:id="rId1912"/>
-    <hyperlink ref="D1915" r:id="rId1913"/>
-    <hyperlink ref="D1916" r:id="rId1914"/>
-    <hyperlink ref="D1917" r:id="rId1915"/>
-    <hyperlink ref="D1918" r:id="rId1916"/>
-    <hyperlink ref="D1919" r:id="rId1917"/>
-    <hyperlink ref="D1920" r:id="rId1918"/>
-    <hyperlink ref="D1921" r:id="rId1919"/>
-    <hyperlink ref="D1922" r:id="rId1920"/>
-    <hyperlink ref="D1923" r:id="rId1921"/>
-    <hyperlink ref="D1924" r:id="rId1922"/>
-    <hyperlink ref="D1925" r:id="rId1923"/>
-    <hyperlink ref="D1926" r:id="rId1924"/>
-    <hyperlink ref="D1927" r:id="rId1925"/>
-    <hyperlink ref="D1928" r:id="rId1926"/>
-    <hyperlink ref="D1929" r:id="rId1927"/>
-    <hyperlink ref="D1930" r:id="rId1928"/>
-    <hyperlink ref="D1931" r:id="rId1929"/>
-    <hyperlink ref="D1932" r:id="rId1930"/>
-    <hyperlink ref="D1933" r:id="rId1931"/>
-    <hyperlink ref="D1934" r:id="rId1932"/>
-    <hyperlink ref="D1935" r:id="rId1933"/>
-    <hyperlink ref="D1936" r:id="rId1934"/>
-    <hyperlink ref="D1937" r:id="rId1935"/>
-    <hyperlink ref="D1938" r:id="rId1936"/>
-    <hyperlink ref="D1939" r:id="rId1937"/>
-    <hyperlink ref="D1940" r:id="rId1938"/>
-    <hyperlink ref="D1941" r:id="rId1939"/>
-    <hyperlink ref="D1942" r:id="rId1940"/>
-    <hyperlink ref="D1943" r:id="rId1941"/>
-    <hyperlink ref="D1944" r:id="rId1942"/>
-    <hyperlink ref="D1945" r:id="rId1943"/>
-    <hyperlink ref="D1946" r:id="rId1944"/>
-    <hyperlink ref="D1947" r:id="rId1945"/>
-    <hyperlink ref="D1948" r:id="rId1946"/>
-    <hyperlink ref="D1949" r:id="rId1947"/>
-    <hyperlink ref="D1950" r:id="rId1948"/>
-    <hyperlink ref="D1951" r:id="rId1949"/>
-    <hyperlink ref="D1952" r:id="rId1950"/>
-    <hyperlink ref="D1953" r:id="rId1951"/>
-    <hyperlink ref="D1954" r:id="rId1952"/>
-    <hyperlink ref="D1955" r:id="rId1953"/>
-    <hyperlink ref="D1956" r:id="rId1954"/>
-    <hyperlink ref="D1957" r:id="rId1955"/>
-    <hyperlink ref="D1958" r:id="rId1956"/>
-    <hyperlink ref="D1959" r:id="rId1957"/>
-    <hyperlink ref="D1960" r:id="rId1958"/>
-    <hyperlink ref="D1961" r:id="rId1959"/>
-    <hyperlink ref="D1962" r:id="rId1960"/>
-    <hyperlink ref="D1963" r:id="rId1961"/>
-    <hyperlink ref="D1964" r:id="rId1962"/>
-    <hyperlink ref="D1965" r:id="rId1963"/>
-    <hyperlink ref="D1966" r:id="rId1964"/>
-    <hyperlink ref="D1967" r:id="rId1965"/>
-    <hyperlink ref="D1968" r:id="rId1966"/>
-    <hyperlink ref="D1969" r:id="rId1967"/>
-    <hyperlink ref="D1970" r:id="rId1968"/>
-    <hyperlink ref="D1971" r:id="rId1969"/>
-    <hyperlink ref="D1972" r:id="rId1970"/>
-    <hyperlink ref="D1973" r:id="rId1971"/>
-    <hyperlink ref="D1974" r:id="rId1972"/>
-    <hyperlink ref="D1975" r:id="rId1973"/>
-    <hyperlink ref="D1976" r:id="rId1974"/>
-    <hyperlink ref="D1977" r:id="rId1975"/>
-    <hyperlink ref="D1978" r:id="rId1976"/>
-    <hyperlink ref="D1979" r:id="rId1977"/>
-    <hyperlink ref="D1980" r:id="rId1978"/>
-    <hyperlink ref="D1981" r:id="rId1979"/>
-    <hyperlink ref="D1982" r:id="rId1980"/>
-    <hyperlink ref="D1983" r:id="rId1981"/>
-    <hyperlink ref="D1984" r:id="rId1982"/>
-    <hyperlink ref="D1985" r:id="rId1983"/>
-    <hyperlink ref="D1986" r:id="rId1984"/>
-    <hyperlink ref="D1987" r:id="rId1985"/>
-    <hyperlink ref="D1988" r:id="rId1986"/>
-    <hyperlink ref="D1989" r:id="rId1987"/>
-    <hyperlink ref="D1990" r:id="rId1988"/>
-    <hyperlink ref="D1991" r:id="rId1989"/>
-    <hyperlink ref="D1992" r:id="rId1990"/>
-    <hyperlink ref="D1993" r:id="rId1991"/>
-    <hyperlink ref="D1994" r:id="rId1992"/>
-    <hyperlink ref="D1995" r:id="rId1993"/>
-    <hyperlink ref="D1996" r:id="rId1994"/>
-    <hyperlink ref="D1997" r:id="rId1995"/>
-    <hyperlink ref="D1998" r:id="rId1996"/>
-    <hyperlink ref="D1999" r:id="rId1997"/>
-    <hyperlink ref="D2000" r:id="rId1998"/>
-    <hyperlink ref="D2001" r:id="rId1999"/>
-    <hyperlink ref="D2002" r:id="rId2000"/>
-    <hyperlink ref="D2003" r:id="rId2001"/>
-    <hyperlink ref="D2004" r:id="rId2002"/>
-    <hyperlink ref="D2005" r:id="rId2003"/>
-    <hyperlink ref="D2006" r:id="rId2004"/>
-    <hyperlink ref="D2007" r:id="rId2005"/>
-    <hyperlink ref="D2008" r:id="rId2006"/>
-    <hyperlink ref="D2009" r:id="rId2007"/>
-    <hyperlink ref="D2010" r:id="rId2008"/>
-    <hyperlink ref="D2011" r:id="rId2009"/>
-    <hyperlink ref="D2012" r:id="rId2010"/>
-    <hyperlink ref="D2013" r:id="rId2011"/>
-    <hyperlink ref="D2014" r:id="rId2012"/>
-    <hyperlink ref="D2015" r:id="rId2013"/>
-    <hyperlink ref="D2016" r:id="rId2014"/>
-    <hyperlink ref="D2017" r:id="rId2015"/>
-    <hyperlink ref="D2018" r:id="rId2016"/>
-    <hyperlink ref="D2019" r:id="rId2017"/>
-    <hyperlink ref="D2020" r:id="rId2018"/>
-    <hyperlink ref="D2021" r:id="rId2019"/>
-    <hyperlink ref="D2022" r:id="rId2020"/>
-    <hyperlink ref="D2023" r:id="rId2021"/>
-    <hyperlink ref="D2024" r:id="rId2022"/>
-    <hyperlink ref="D2025" r:id="rId2023"/>
-    <hyperlink ref="D2026" r:id="rId2024"/>
-    <hyperlink ref="D2027" r:id="rId2025"/>
-    <hyperlink ref="D2028" r:id="rId2026"/>
-    <hyperlink ref="D2029" r:id="rId2027"/>
-    <hyperlink ref="D2030" r:id="rId2028"/>
-    <hyperlink ref="D2031" r:id="rId2029"/>
-    <hyperlink ref="D2032" r:id="rId2030"/>
-    <hyperlink ref="D2033" r:id="rId2031"/>
-    <hyperlink ref="D2034" r:id="rId2032"/>
-    <hyperlink ref="D2035" r:id="rId2033"/>
-    <hyperlink ref="D2036" r:id="rId2034"/>
-    <hyperlink ref="D2037" r:id="rId2035"/>
-    <hyperlink ref="D2038" r:id="rId2036"/>
-    <hyperlink ref="D2039" r:id="rId2037"/>
-    <hyperlink ref="D2040" r:id="rId2038"/>
-    <hyperlink ref="D2041" r:id="rId2039"/>
-    <hyperlink ref="D2042" r:id="rId2040"/>
-    <hyperlink ref="D2043" r:id="rId2041"/>
-    <hyperlink ref="D2044" r:id="rId2042"/>
-    <hyperlink ref="D2045" r:id="rId2043"/>
-    <hyperlink ref="D2046" r:id="rId2044"/>
-    <hyperlink ref="D2047" r:id="rId2045"/>
-    <hyperlink ref="D2048" r:id="rId2046"/>
-    <hyperlink ref="D2049" r:id="rId2047"/>
-    <hyperlink ref="D2050" r:id="rId2048"/>
-    <hyperlink ref="D2051" r:id="rId2049"/>
-    <hyperlink ref="D2052" r:id="rId2050"/>
-    <hyperlink ref="D2053" r:id="rId2051"/>
-    <hyperlink ref="D2054" r:id="rId2052"/>
-    <hyperlink ref="D2055" r:id="rId2053"/>
-    <hyperlink ref="D2056" r:id="rId2054"/>
-    <hyperlink ref="D2057" r:id="rId2055"/>
-    <hyperlink ref="D2058" r:id="rId2056"/>
-    <hyperlink ref="D2059" r:id="rId2057"/>
-    <hyperlink ref="D2060" r:id="rId2058"/>
-    <hyperlink ref="D2061" r:id="rId2059"/>
-    <hyperlink ref="D2062" r:id="rId2060"/>
-    <hyperlink ref="D2063" r:id="rId2061"/>
-    <hyperlink ref="D2064" r:id="rId2062"/>
-    <hyperlink ref="D2065" r:id="rId2063"/>
-    <hyperlink ref="D2066" r:id="rId2064"/>
-    <hyperlink ref="D2067" r:id="rId2065"/>
-    <hyperlink ref="D2068" r:id="rId2066"/>
-    <hyperlink ref="D2069" r:id="rId2067"/>
-    <hyperlink ref="D2070" r:id="rId2068"/>
-    <hyperlink ref="D2071" r:id="rId2069"/>
-    <hyperlink ref="D2072" r:id="rId2070"/>
-    <hyperlink ref="D2073" r:id="rId2071"/>
-    <hyperlink ref="D2074" r:id="rId2072"/>
-    <hyperlink ref="D2075" r:id="rId2073"/>
-    <hyperlink ref="D2076" r:id="rId2074"/>
-    <hyperlink ref="D2077" r:id="rId2075"/>
-    <hyperlink ref="D2078" r:id="rId2076"/>
-    <hyperlink ref="D2079" r:id="rId2077"/>
-    <hyperlink ref="D2080" r:id="rId2078"/>
-    <hyperlink ref="D2081" r:id="rId2079"/>
-    <hyperlink ref="D2082" r:id="rId2080"/>
-    <hyperlink ref="D2083" r:id="rId2081"/>
-    <hyperlink ref="D2084" r:id="rId2082"/>
-    <hyperlink ref="D2085" r:id="rId2083"/>
-    <hyperlink ref="D2086" r:id="rId2084"/>
-    <hyperlink ref="D2087" r:id="rId2085"/>
-    <hyperlink ref="D2088" r:id="rId2086"/>
-    <hyperlink ref="D2089" r:id="rId2087"/>
-    <hyperlink ref="D2090" r:id="rId2088"/>
-    <hyperlink ref="D2091" r:id="rId2089"/>
-    <hyperlink ref="D2092" r:id="rId2090"/>
-    <hyperlink ref="D2093" r:id="rId2091"/>
-    <hyperlink ref="D2094" r:id="rId2092"/>
-    <hyperlink ref="D2095" r:id="rId2093"/>
-    <hyperlink ref="D2096" r:id="rId2094"/>
-    <hyperlink ref="D2097" r:id="rId2095"/>
-    <hyperlink ref="D2098" r:id="rId2096"/>
-    <hyperlink ref="D2099" r:id="rId2097"/>
-    <hyperlink ref="D2100" r:id="rId2098"/>
-    <hyperlink ref="D2101" r:id="rId2099"/>
-    <hyperlink ref="D2102" r:id="rId2100"/>
-    <hyperlink ref="D2103" r:id="rId2101"/>
-    <hyperlink ref="D2104" r:id="rId2102"/>
-    <hyperlink ref="D2105" r:id="rId2103"/>
-    <hyperlink ref="D2106" r:id="rId2104"/>
-    <hyperlink ref="D2107" r:id="rId2105"/>
-    <hyperlink ref="D2108" r:id="rId2106"/>
-    <hyperlink ref="D2109" r:id="rId2107"/>
-    <hyperlink ref="D2110" r:id="rId2108"/>
-    <hyperlink ref="D2111" r:id="rId2109"/>
-    <hyperlink ref="D2112" r:id="rId2110"/>
-    <hyperlink ref="D2113" r:id="rId2111"/>
-    <hyperlink ref="D2114" r:id="rId2112"/>
-    <hyperlink ref="D2115" r:id="rId2113"/>
-    <hyperlink ref="D2116" r:id="rId2114"/>
-    <hyperlink ref="D2117" r:id="rId2115"/>
-    <hyperlink ref="D2118" r:id="rId2116"/>
-    <hyperlink ref="D2119" r:id="rId2117"/>
-    <hyperlink ref="D2120" r:id="rId2118"/>
-    <hyperlink ref="D2121" r:id="rId2119"/>
-    <hyperlink ref="D2122" r:id="rId2120"/>
-    <hyperlink ref="D2123" r:id="rId2121"/>
-    <hyperlink ref="D2124" r:id="rId2122"/>
-    <hyperlink ref="D2125" r:id="rId2123"/>
-    <hyperlink ref="D2126" r:id="rId2124"/>
-    <hyperlink ref="D2127" r:id="rId2125"/>
-    <hyperlink ref="D2128" r:id="rId2126"/>
-    <hyperlink ref="D2129" r:id="rId2127"/>
-    <hyperlink ref="D2130" r:id="rId2128"/>
-    <hyperlink ref="D2131" r:id="rId2129"/>
-    <hyperlink ref="D2132" r:id="rId2130"/>
-    <hyperlink ref="D2133" r:id="rId2131"/>
-    <hyperlink ref="D2134" r:id="rId2132"/>
-    <hyperlink ref="D2135" r:id="rId2133"/>
-    <hyperlink ref="D2136" r:id="rId2134"/>
-    <hyperlink ref="D2137" r:id="rId2135"/>
-    <hyperlink ref="D2138" r:id="rId2136"/>
-    <hyperlink ref="D2139" r:id="rId2137"/>
-    <hyperlink ref="D2140" r:id="rId2138"/>
-    <hyperlink ref="D2141" r:id="rId2139"/>
-    <hyperlink ref="D2142" r:id="rId2140"/>
-    <hyperlink ref="D2143" r:id="rId2141"/>
-    <hyperlink ref="D2144" r:id="rId2142"/>
-    <hyperlink ref="D2145" r:id="rId2143"/>
-    <hyperlink ref="D2146" r:id="rId2144"/>
-    <hyperlink ref="D2147" r:id="rId2145"/>
-    <hyperlink ref="D2148" r:id="rId2146"/>
-    <hyperlink ref="D2149" r:id="rId2147"/>
-    <hyperlink ref="D2150" r:id="rId2148"/>
-    <hyperlink ref="D2151" r:id="rId2149"/>
-    <hyperlink ref="D2152" r:id="rId2150"/>
-    <hyperlink ref="D2153" r:id="rId2151"/>
-    <hyperlink ref="D2154" r:id="rId2152"/>
-    <hyperlink ref="D2155" r:id="rId2153"/>
-    <hyperlink ref="D2156" r:id="rId2154"/>
-    <hyperlink ref="D2157" r:id="rId2155"/>
-    <hyperlink ref="D2158" r:id="rId2156"/>
-    <hyperlink ref="D2159" r:id="rId2157"/>
-    <hyperlink ref="D2160" r:id="rId2158"/>
-    <hyperlink ref="D2161" r:id="rId2159"/>
-    <hyperlink ref="D2162" r:id="rId2160"/>
-    <hyperlink ref="D2163" r:id="rId2161"/>
-    <hyperlink ref="D2164" r:id="rId2162"/>
-    <hyperlink ref="D2165" r:id="rId2163"/>
-    <hyperlink ref="D2166" r:id="rId2164"/>
-    <hyperlink ref="D2167" r:id="rId2165"/>
-    <hyperlink ref="D2168" r:id="rId2166"/>
-    <hyperlink ref="D2169" r:id="rId2167"/>
-    <hyperlink ref="D2170" r:id="rId2168"/>
-    <hyperlink ref="D2171" r:id="rId2169"/>
-    <hyperlink ref="D2172" r:id="rId2170"/>
-    <hyperlink ref="D2173" r:id="rId2171"/>
-    <hyperlink ref="D2174" r:id="rId2172"/>
-    <hyperlink ref="D2175" r:id="rId2173"/>
-    <hyperlink ref="D2176" r:id="rId2174"/>
-    <hyperlink ref="D2177" r:id="rId2175"/>
-    <hyperlink ref="D2178" r:id="rId2176"/>
-    <hyperlink ref="D2179" r:id="rId2177"/>
-    <hyperlink ref="D2180" r:id="rId2178"/>
-    <hyperlink ref="D2181" r:id="rId2179"/>
-    <hyperlink ref="D2182" r:id="rId2180"/>
-    <hyperlink ref="D2183" r:id="rId2181"/>
-    <hyperlink ref="D2184" r:id="rId2182"/>
-    <hyperlink ref="D2185" r:id="rId2183"/>
-    <hyperlink ref="D2186" r:id="rId2184"/>
-    <hyperlink ref="D2187" r:id="rId2185"/>
-    <hyperlink ref="D2188" r:id="rId2186"/>
-    <hyperlink ref="D2189" r:id="rId2187"/>
-    <hyperlink ref="D2190" r:id="rId2188"/>
-    <hyperlink ref="D2191" r:id="rId2189"/>
-    <hyperlink ref="D2192" r:id="rId2190"/>
-    <hyperlink ref="D2193" r:id="rId2191"/>
-    <hyperlink ref="D2194" r:id="rId2192"/>
-    <hyperlink ref="D2195" r:id="rId2193"/>
-    <hyperlink ref="D2196" r:id="rId2194"/>
-    <hyperlink ref="D2197" r:id="rId2195"/>
-    <hyperlink ref="D2198" r:id="rId2196"/>
-    <hyperlink ref="D2199" r:id="rId2197"/>
-    <hyperlink ref="D2200" r:id="rId2198"/>
-    <hyperlink ref="D2201" r:id="rId2199"/>
-    <hyperlink ref="D2202" r:id="rId2200"/>
-    <hyperlink ref="D2203" r:id="rId2201"/>
-    <hyperlink ref="D2204" r:id="rId2202"/>
-    <hyperlink ref="D2205" r:id="rId2203"/>
-    <hyperlink ref="D2206" r:id="rId2204"/>
-    <hyperlink ref="D2207" r:id="rId2205"/>
-    <hyperlink ref="D2208" r:id="rId2206"/>
-    <hyperlink ref="D2209" r:id="rId2207"/>
-    <hyperlink ref="D2210" r:id="rId2208"/>
-    <hyperlink ref="D2211" r:id="rId2209"/>
-    <hyperlink ref="D2212" r:id="rId2210"/>
-    <hyperlink ref="D2213" r:id="rId2211"/>
-    <hyperlink ref="D2214" r:id="rId2212"/>
-    <hyperlink ref="D2215" r:id="rId2213"/>
-    <hyperlink ref="D2216" r:id="rId2214"/>
-    <hyperlink ref="D2217" r:id="rId2215"/>
-    <hyperlink ref="D2218" r:id="rId2216"/>
-    <hyperlink ref="D2219" r:id="rId2217"/>
-    <hyperlink ref="D2220" r:id="rId2218"/>
-    <hyperlink ref="D2221" r:id="rId2219"/>
-    <hyperlink ref="D2222" r:id="rId2220"/>
-    <hyperlink ref="D2223" r:id="rId2221"/>
-    <hyperlink ref="D2224" r:id="rId2222"/>
-    <hyperlink ref="D2225" r:id="rId2223"/>
-    <hyperlink ref="D2226" r:id="rId2224"/>
-    <hyperlink ref="D2227" r:id="rId2225"/>
-    <hyperlink ref="D2228" r:id="rId2226"/>
-    <hyperlink ref="D2229" r:id="rId2227"/>
-    <hyperlink ref="D2230" r:id="rId2228"/>
-    <hyperlink ref="D2231" r:id="rId2229"/>
-    <hyperlink ref="D2232" r:id="rId2230"/>
-    <hyperlink ref="D2233" r:id="rId2231"/>
-    <hyperlink ref="D2234" r:id="rId2232"/>
-    <hyperlink ref="D2235" r:id="rId2233"/>
-    <hyperlink ref="D2236" r:id="rId2234"/>
-    <hyperlink ref="D2237" r:id="rId2235"/>
-    <hyperlink ref="D2238" r:id="rId2236"/>
-    <hyperlink ref="D2239" r:id="rId2237"/>
-    <hyperlink ref="D2240" r:id="rId2238"/>
-    <hyperlink ref="D2241" r:id="rId2239"/>
-    <hyperlink ref="D2242" r:id="rId2240"/>
-    <hyperlink ref="D2243" r:id="rId2241"/>
-    <hyperlink ref="D2244" r:id="rId2242"/>
-    <hyperlink ref="D2245" r:id="rId2243"/>
-    <hyperlink ref="D2246" r:id="rId2244"/>
-    <hyperlink ref="D2247" r:id="rId2245"/>
-    <hyperlink ref="D2248" r:id="rId2246"/>
-    <hyperlink ref="D2249" r:id="rId2247"/>
-    <hyperlink ref="D2250" r:id="rId2248"/>
-    <hyperlink ref="D2251" r:id="rId2249"/>
-    <hyperlink ref="D2252" r:id="rId2250"/>
-    <hyperlink ref="D2253" r:id="rId2251"/>
-    <hyperlink ref="D2254" r:id="rId2252"/>
-    <hyperlink ref="D2255" r:id="rId2253"/>
-    <hyperlink ref="D2256" r:id="rId2254"/>
-    <hyperlink ref="D2257" r:id="rId2255"/>
-    <hyperlink ref="D2258" r:id="rId2256"/>
-    <hyperlink ref="D2259" r:id="rId2257"/>
-    <hyperlink ref="D2260" r:id="rId2258"/>
-    <hyperlink ref="D2261" r:id="rId2259"/>
-    <hyperlink ref="D2262" r:id="rId2260"/>
-    <hyperlink ref="D2263" r:id="rId2261"/>
-    <hyperlink ref="D2264" r:id="rId2262"/>
-    <hyperlink ref="D2265" r:id="rId2263"/>
-    <hyperlink ref="D2266" r:id="rId2264"/>
-    <hyperlink ref="D2267" r:id="rId2265"/>
-    <hyperlink ref="D2268" r:id="rId2266"/>
-    <hyperlink ref="D2269" r:id="rId2267"/>
-    <hyperlink ref="D2270" r:id="rId2268"/>
-    <hyperlink ref="D2271" r:id="rId2269"/>
-    <hyperlink ref="D2272" r:id="rId2270"/>
-    <hyperlink ref="D2273" r:id="rId2271"/>
-    <hyperlink ref="D2274" r:id="rId2272"/>
-    <hyperlink ref="D2275" r:id="rId2273"/>
-    <hyperlink ref="D2276" r:id="rId2274"/>
-    <hyperlink ref="D2277" r:id="rId2275"/>
-    <hyperlink ref="D2278" r:id="rId2276"/>
-    <hyperlink ref="D2279" r:id="rId2277"/>
-    <hyperlink ref="D2280" r:id="rId2278"/>
-    <hyperlink ref="D2281" r:id="rId2279"/>
-    <hyperlink ref="D2282" r:id="rId2280"/>
-    <hyperlink ref="D2283" r:id="rId2281"/>
-    <hyperlink ref="D2284" r:id="rId2282"/>
-    <hyperlink ref="D2285" r:id="rId2283"/>
-    <hyperlink ref="D2286" r:id="rId2284"/>
-    <hyperlink ref="D2287" r:id="rId2285"/>
-    <hyperlink ref="D2288" r:id="rId2286"/>
-    <hyperlink ref="D2289" r:id="rId2287"/>
-    <hyperlink ref="D2290" r:id="rId2288"/>
-    <hyperlink ref="D2291" r:id="rId2289"/>
-    <hyperlink ref="D2292" r:id="rId2290"/>
-    <hyperlink ref="D2293" r:id="rId2291"/>
-    <hyperlink ref="D2294" r:id="rId2292"/>
-    <hyperlink ref="D2295" r:id="rId2293"/>
-    <hyperlink ref="D2296" r:id="rId2294"/>
-    <hyperlink ref="D2297" r:id="rId2295"/>
-    <hyperlink ref="D2298" r:id="rId2296"/>
-    <hyperlink ref="D2299" r:id="rId2297"/>
-    <hyperlink ref="D2300" r:id="rId2298"/>
-    <hyperlink ref="D2301" r:id="rId2299"/>
-    <hyperlink ref="D2302" r:id="rId2300"/>
-    <hyperlink ref="D2303" r:id="rId2301"/>
-    <hyperlink ref="D2304" r:id="rId2302"/>
-    <hyperlink ref="D2305" r:id="rId2303"/>
-    <hyperlink ref="D2306" r:id="rId2304"/>
-    <hyperlink ref="D2307" r:id="rId2305"/>
-    <hyperlink ref="D2308" r:id="rId2306"/>
-    <hyperlink ref="D2309" r:id="rId2307"/>
-    <hyperlink ref="D2310" r:id="rId2308"/>
-    <hyperlink ref="D2311" r:id="rId2309"/>
-    <hyperlink ref="D2312" r:id="rId2310"/>
-    <hyperlink ref="D2313" r:id="rId2311"/>
-    <hyperlink ref="D2314" r:id="rId2312"/>
-    <hyperlink ref="D2315" r:id="rId2313"/>
-    <hyperlink ref="D2316" r:id="rId2314"/>
-    <hyperlink ref="D2317" r:id="rId2315"/>
-    <hyperlink ref="D2318" r:id="rId2316"/>
-    <hyperlink ref="D2319" r:id="rId2317"/>
-    <hyperlink ref="D2320" r:id="rId2318"/>
-    <hyperlink ref="D2321" r:id="rId2319"/>
-    <hyperlink ref="D2322" r:id="rId2320"/>
-    <hyperlink ref="D2323" r:id="rId2321"/>
-    <hyperlink ref="D2324" r:id="rId2322"/>
-    <hyperlink ref="D2325" r:id="rId2323"/>
-    <hyperlink ref="D2326" r:id="rId2324"/>
-    <hyperlink ref="D2327" r:id="rId2325"/>
-    <hyperlink ref="D2328" r:id="rId2326"/>
-    <hyperlink ref="D2329" r:id="rId2327"/>
-    <hyperlink ref="D2330" r:id="rId2328"/>
-    <hyperlink ref="D2331" r:id="rId2329"/>
-    <hyperlink ref="D2332" r:id="rId2330"/>
-    <hyperlink ref="D2333" r:id="rId2331"/>
-    <hyperlink ref="D2334" r:id="rId2332"/>
-    <hyperlink ref="D2335" r:id="rId2333"/>
-    <hyperlink ref="D2336" r:id="rId2334"/>
-    <hyperlink ref="D2337" r:id="rId2335"/>
-    <hyperlink ref="D2338" r:id="rId2336"/>
-    <hyperlink ref="D2339" r:id="rId2337"/>
-    <hyperlink ref="D2340" r:id="rId2338"/>
-    <hyperlink ref="D2341" r:id="rId2339"/>
-    <hyperlink ref="D2342" r:id="rId2340"/>
-    <hyperlink ref="D2343" r:id="rId2341"/>
-    <hyperlink ref="D2344" r:id="rId2342"/>
-    <hyperlink ref="D2345" r:id="rId2343"/>
-    <hyperlink ref="D2346" r:id="rId2344"/>
-    <hyperlink ref="D2347" r:id="rId2345"/>
-    <hyperlink ref="D2348" r:id="rId2346"/>
-    <hyperlink ref="D2349" r:id="rId2347"/>
-    <hyperlink ref="D2350" r:id="rId2348"/>
-    <hyperlink ref="D2351" r:id="rId2349"/>
-    <hyperlink ref="D2352" r:id="rId2350"/>
-    <hyperlink ref="D2353" r:id="rId2351"/>
-    <hyperlink ref="D2354" r:id="rId2352"/>
-    <hyperlink ref="D2355" r:id="rId2353"/>
-    <hyperlink ref="D2356" r:id="rId2354"/>
-    <hyperlink ref="D2357" r:id="rId2355"/>
-    <hyperlink ref="D2358" r:id="rId2356"/>
-    <hyperlink ref="D2359" r:id="rId2357"/>
-    <hyperlink ref="D2360" r:id="rId2358"/>
-    <hyperlink ref="D2361" r:id="rId2359"/>
-    <hyperlink ref="D2362" r:id="rId2360"/>
-    <hyperlink ref="D2363" r:id="rId2361"/>
-    <hyperlink ref="D2364" r:id="rId2362"/>
-    <hyperlink ref="D2365" r:id="rId2363"/>
-    <hyperlink ref="D2366" r:id="rId2364"/>
-    <hyperlink ref="D2367" r:id="rId2365"/>
-    <hyperlink ref="D2368" r:id="rId2366"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="D200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="D201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="D202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="D203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="D204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="D205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="D206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="D207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="D208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="D209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="D210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="D211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="D213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="D214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="D215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="D216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="D217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="D218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="D219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="D220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="D221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="D222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="D223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="D224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="D225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="D226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="D227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="D228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="D229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="D230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="D231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="D232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="D233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="D234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="D235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="D236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="D237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="D238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="D239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="D240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="D241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="D242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="D243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="D244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="D245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="D246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="D247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="D248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="D249" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="D250" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="D251" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="D252" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="D253" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="D254" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="D255" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="D256" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="D257" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="D258" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="D259" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="D260" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="D261" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="D262" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="D263" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="D264" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="D265" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="D266" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="D267" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="D268" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="D269" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="D270" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="D271" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="D272" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="D273" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="D274" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="D275" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="D276" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="D277" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="D278" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="D279" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="D280" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="D281" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="D282" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="D283" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="D284" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="D285" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="D286" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="D287" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="D288" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="D289" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="D290" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="D291" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="D292" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="D293" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="D294" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="D295" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="D296" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="D297" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="D298" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="D299" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="D300" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="D301" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="D302" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="D303" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="D304" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="D305" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="D306" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="D307" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="D308" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="D309" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="D310" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="D311" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="D312" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="D313" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="D314" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="D315" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="D316" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="D317" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="D318" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="D319" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="D320" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="D321" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="D322" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="D323" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="D324" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="D325" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="D326" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="D327" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="D328" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="D329" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="D330" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="D331" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="D332" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="D333" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="D334" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="D335" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="D336" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="D337" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="D338" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="D339" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="D340" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="D341" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="D342" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="D343" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="D344" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="D345" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="D346" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="D347" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="D348" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="D349" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="D350" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="D351" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="D352" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="D353" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="D354" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="D355" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="D356" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="D357" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="D358" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="D359" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="D360" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="D361" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="D362" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="D363" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="D364" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="D365" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="D366" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="D367" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="D368" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="D369" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="D370" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="D371" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="D372" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="D373" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="D374" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="D375" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="D376" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="D377" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="D378" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="D379" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="D380" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="D381" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="D382" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="D383" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="D384" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="D385" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="D386" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="D387" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="D388" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="D389" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="D390" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="D391" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="D392" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="D393" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="D394" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="D395" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="D396" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="D397" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="D398" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="D399" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="D400" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="D401" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="D402" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="D403" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="D404" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="D405" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="D406" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="D407" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="D408" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="D409" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="D410" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="D411" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="D412" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="D413" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="D414" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="D415" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="D416" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="D417" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="D418" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="D419" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="D420" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="D421" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="D422" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="D423" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="D424" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="D425" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="D426" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="D427" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="D428" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="D429" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="D430" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="D431" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="D432" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="D433" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="D434" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="D435" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="D436" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="D437" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="D438" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="D439" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="D440" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="D441" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="D442" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="D443" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="D444" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="D445" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="D446" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="D447" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="D448" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="D449" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="D450" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="D451" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="D452" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="D453" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="D454" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="D455" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="D456" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="D457" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="D458" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="D459" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="D460" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="D461" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="D462" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="D463" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="D464" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="D465" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="D466" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="D467" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="D468" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="D469" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="D470" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="D471" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="D472" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="D473" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="D474" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="D475" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="D476" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="D477" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="D478" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="D479" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="D480" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="D481" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="D482" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="D483" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="D484" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="D485" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="D486" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="D487" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="D488" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="D489" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="D490" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="D491" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="D492" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="D493" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="D494" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="D495" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="D496" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="D497" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="D498" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="D499" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="D500" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="D501" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="D502" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="D503" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="D504" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="D505" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="D506" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="D507" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="D508" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="D509" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="D510" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="D511" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="D512" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="D513" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="D514" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="D515" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="D516" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="D517" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="D518" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="D519" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="D520" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="D521" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="D522" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="D523" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="D524" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="D525" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="D526" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="D527" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="D528" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="D529" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="D530" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="D531" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="D532" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="D533" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="D534" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="D535" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="D536" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="D537" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="D538" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="D539" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="D540" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="D541" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="D542" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="D543" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="D544" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="D545" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="D546" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="D547" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="D548" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="D549" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="D550" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="D551" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="D552" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="D553" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="D554" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="D555" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="D556" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="D557" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="D558" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="D559" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="D560" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="D561" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="D562" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="D563" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="D564" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="D565" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="D566" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="D567" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="D568" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="D569" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="D570" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="D571" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="D572" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="D573" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="D574" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="D575" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="D576" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="D577" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="D578" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="D579" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="D580" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="D581" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="D582" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="D583" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="D584" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="D585" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="D586" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="D587" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="D588" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="D589" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="D590" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="D591" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="D592" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="D593" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="D594" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="D595" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="D596" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="D597" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="D598" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="D599" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="D600" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="D601" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="D602" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="D603" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="D604" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="D605" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="D606" r:id="rId605" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="D607" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="D608" r:id="rId607" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="D609" r:id="rId608" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="D610" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="D611" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="D612" r:id="rId611" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="D613" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="D614" r:id="rId613" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="D615" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="D616" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="D617" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="D618" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="D619" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="D620" r:id="rId619" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="D621" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="D622" r:id="rId621" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="D623" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="D624" r:id="rId623" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="D625" r:id="rId624" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="D626" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="D627" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="D628" r:id="rId627" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="D629" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="D630" r:id="rId629" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="D631" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="D632" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="D633" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="D634" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="D635" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="D636" r:id="rId635" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="D637" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="D638" r:id="rId637" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="D639" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="D640" r:id="rId639" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="D641" r:id="rId640" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="D642" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="D643" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="D644" r:id="rId643" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="D645" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="D646" r:id="rId645" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="D647" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="D648" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="D649" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="D650" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="D651" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="D652" r:id="rId651" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="D653" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="D654" r:id="rId653" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="D655" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="D656" r:id="rId655" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="D657" r:id="rId656" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="D658" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="D659" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="D660" r:id="rId659" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="D661" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="D662" r:id="rId661" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="D663" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="D664" r:id="rId663" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="D665" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="D666" r:id="rId665" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="D667" r:id="rId666" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="D668" r:id="rId667" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="D669" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="D670" r:id="rId669" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="D671" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="D672" r:id="rId671" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="D673" r:id="rId672" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="D674" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="D675" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="D676" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="D677" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="D678" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="D679" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="D680" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="D681" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="D682" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="D683" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="D684" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
+    <hyperlink ref="D685" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
+    <hyperlink ref="D686" r:id="rId685" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
+    <hyperlink ref="D687" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
+    <hyperlink ref="D688" r:id="rId687" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
+    <hyperlink ref="D689" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
+    <hyperlink ref="D690" r:id="rId689" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
+    <hyperlink ref="D691" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
+    <hyperlink ref="D692" r:id="rId691" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
+    <hyperlink ref="D693" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
+    <hyperlink ref="D694" r:id="rId693" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
+    <hyperlink ref="D695" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
+    <hyperlink ref="D696" r:id="rId695" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
+    <hyperlink ref="D697" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
+    <hyperlink ref="D698" r:id="rId697" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
+    <hyperlink ref="D699" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
+    <hyperlink ref="D700" r:id="rId699" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
+    <hyperlink ref="D701" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
+    <hyperlink ref="D702" r:id="rId701" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
+    <hyperlink ref="D703" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
+    <hyperlink ref="D704" r:id="rId703" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
+    <hyperlink ref="D705" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
+    <hyperlink ref="D706" r:id="rId705" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
+    <hyperlink ref="D707" r:id="rId706" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
+    <hyperlink ref="D708" r:id="rId707" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
+    <hyperlink ref="D709" r:id="rId708" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
+    <hyperlink ref="D710" r:id="rId709" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
+    <hyperlink ref="D711" r:id="rId710" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
+    <hyperlink ref="D712" r:id="rId711" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
+    <hyperlink ref="D713" r:id="rId712" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
+    <hyperlink ref="D714" r:id="rId713" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
+    <hyperlink ref="D715" r:id="rId714" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
+    <hyperlink ref="D716" r:id="rId715" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
+    <hyperlink ref="D717" r:id="rId716" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
+    <hyperlink ref="D718" r:id="rId717" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
+    <hyperlink ref="D719" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
+    <hyperlink ref="D720" r:id="rId719" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
+    <hyperlink ref="D721" r:id="rId720" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
+    <hyperlink ref="D722" r:id="rId721" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
+    <hyperlink ref="D723" r:id="rId722" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
+    <hyperlink ref="D724" r:id="rId723" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
+    <hyperlink ref="D725" r:id="rId724" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
+    <hyperlink ref="D726" r:id="rId725" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
+    <hyperlink ref="D727" r:id="rId726" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
+    <hyperlink ref="D728" r:id="rId727" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
+    <hyperlink ref="D729" r:id="rId728" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
+    <hyperlink ref="D730" r:id="rId729" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
+    <hyperlink ref="D731" r:id="rId730" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
+    <hyperlink ref="D732" r:id="rId731" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
+    <hyperlink ref="D733" r:id="rId732" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
+    <hyperlink ref="D734" r:id="rId733" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
+    <hyperlink ref="D735" r:id="rId734" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
+    <hyperlink ref="D736" r:id="rId735" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
+    <hyperlink ref="D737" r:id="rId736" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
+    <hyperlink ref="D738" r:id="rId737" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
+    <hyperlink ref="D739" r:id="rId738" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
+    <hyperlink ref="D740" r:id="rId739" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
+    <hyperlink ref="D741" r:id="rId740" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
+    <hyperlink ref="D742" r:id="rId741" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
+    <hyperlink ref="D743" r:id="rId742" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
+    <hyperlink ref="D744" r:id="rId743" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
+    <hyperlink ref="D745" r:id="rId744" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
+    <hyperlink ref="D746" r:id="rId745" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
+    <hyperlink ref="D747" r:id="rId746" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
+    <hyperlink ref="D748" r:id="rId747" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
+    <hyperlink ref="D749" r:id="rId748" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
+    <hyperlink ref="D750" r:id="rId749" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
+    <hyperlink ref="D751" r:id="rId750" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
+    <hyperlink ref="D752" r:id="rId751" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
+    <hyperlink ref="D753" r:id="rId752" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
+    <hyperlink ref="D754" r:id="rId753" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
+    <hyperlink ref="D755" r:id="rId754" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
+    <hyperlink ref="D756" r:id="rId755" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
+    <hyperlink ref="D757" r:id="rId756" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
+    <hyperlink ref="D758" r:id="rId757" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
+    <hyperlink ref="D759" r:id="rId758" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
+    <hyperlink ref="D760" r:id="rId759" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
+    <hyperlink ref="D761" r:id="rId760" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
+    <hyperlink ref="D762" r:id="rId761" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
+    <hyperlink ref="D763" r:id="rId762" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
+    <hyperlink ref="D764" r:id="rId763" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
+    <hyperlink ref="D765" r:id="rId764" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
+    <hyperlink ref="D766" r:id="rId765" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
+    <hyperlink ref="D767" r:id="rId766" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
+    <hyperlink ref="D768" r:id="rId767" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
+    <hyperlink ref="D769" r:id="rId768" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
+    <hyperlink ref="D770" r:id="rId769" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
+    <hyperlink ref="D771" r:id="rId770" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
+    <hyperlink ref="D772" r:id="rId771" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
+    <hyperlink ref="D773" r:id="rId772" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
+    <hyperlink ref="D774" r:id="rId773" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
+    <hyperlink ref="D775" r:id="rId774" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
+    <hyperlink ref="D776" r:id="rId775" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
+    <hyperlink ref="D777" r:id="rId776" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
+    <hyperlink ref="D778" r:id="rId777" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
+    <hyperlink ref="D779" r:id="rId778" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
+    <hyperlink ref="D780" r:id="rId779" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
+    <hyperlink ref="D781" r:id="rId780" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
+    <hyperlink ref="D782" r:id="rId781" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
+    <hyperlink ref="D783" r:id="rId782" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
+    <hyperlink ref="D784" r:id="rId783" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
+    <hyperlink ref="D785" r:id="rId784" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
+    <hyperlink ref="D786" r:id="rId785" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
+    <hyperlink ref="D787" r:id="rId786" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
+    <hyperlink ref="D788" r:id="rId787" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
+    <hyperlink ref="D789" r:id="rId788" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
+    <hyperlink ref="D790" r:id="rId789" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
+    <hyperlink ref="D791" r:id="rId790" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
+    <hyperlink ref="D792" r:id="rId791" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
+    <hyperlink ref="D793" r:id="rId792" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
+    <hyperlink ref="D794" r:id="rId793" xr:uid="{00000000-0004-0000-0000-000018030000}"/>
+    <hyperlink ref="D795" r:id="rId794" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
+    <hyperlink ref="D796" r:id="rId795" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
+    <hyperlink ref="D797" r:id="rId796" xr:uid="{00000000-0004-0000-0000-00001B030000}"/>
+    <hyperlink ref="D798" r:id="rId797" xr:uid="{00000000-0004-0000-0000-00001C030000}"/>
+    <hyperlink ref="D799" r:id="rId798" xr:uid="{00000000-0004-0000-0000-00001D030000}"/>
+    <hyperlink ref="D800" r:id="rId799" xr:uid="{00000000-0004-0000-0000-00001E030000}"/>
+    <hyperlink ref="D801" r:id="rId800" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
+    <hyperlink ref="D802" r:id="rId801" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
+    <hyperlink ref="D803" r:id="rId802" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
+    <hyperlink ref="D804" r:id="rId803" xr:uid="{00000000-0004-0000-0000-000022030000}"/>
+    <hyperlink ref="D805" r:id="rId804" xr:uid="{00000000-0004-0000-0000-000023030000}"/>
+    <hyperlink ref="D806" r:id="rId805" xr:uid="{00000000-0004-0000-0000-000024030000}"/>
+    <hyperlink ref="D807" r:id="rId806" xr:uid="{00000000-0004-0000-0000-000025030000}"/>
+    <hyperlink ref="D808" r:id="rId807" xr:uid="{00000000-0004-0000-0000-000026030000}"/>
+    <hyperlink ref="D809" r:id="rId808" xr:uid="{00000000-0004-0000-0000-000027030000}"/>
+    <hyperlink ref="D810" r:id="rId809" xr:uid="{00000000-0004-0000-0000-000028030000}"/>
+    <hyperlink ref="D811" r:id="rId810" xr:uid="{00000000-0004-0000-0000-000029030000}"/>
+    <hyperlink ref="D812" r:id="rId811" xr:uid="{00000000-0004-0000-0000-00002A030000}"/>
+    <hyperlink ref="D813" r:id="rId812" xr:uid="{00000000-0004-0000-0000-00002B030000}"/>
+    <hyperlink ref="D814" r:id="rId813" xr:uid="{00000000-0004-0000-0000-00002C030000}"/>
+    <hyperlink ref="D815" r:id="rId814" xr:uid="{00000000-0004-0000-0000-00002D030000}"/>
+    <hyperlink ref="D816" r:id="rId815" xr:uid="{00000000-0004-0000-0000-00002E030000}"/>
+    <hyperlink ref="D817" r:id="rId816" xr:uid="{00000000-0004-0000-0000-00002F030000}"/>
+    <hyperlink ref="D818" r:id="rId817" xr:uid="{00000000-0004-0000-0000-000030030000}"/>
+    <hyperlink ref="D819" r:id="rId818" xr:uid="{00000000-0004-0000-0000-000031030000}"/>
+    <hyperlink ref="D820" r:id="rId819" xr:uid="{00000000-0004-0000-0000-000032030000}"/>
+    <hyperlink ref="D821" r:id="rId820" xr:uid="{00000000-0004-0000-0000-000033030000}"/>
+    <hyperlink ref="D822" r:id="rId821" xr:uid="{00000000-0004-0000-0000-000034030000}"/>
+    <hyperlink ref="D823" r:id="rId822" xr:uid="{00000000-0004-0000-0000-000035030000}"/>
+    <hyperlink ref="D824" r:id="rId823" xr:uid="{00000000-0004-0000-0000-000036030000}"/>
+    <hyperlink ref="D825" r:id="rId824" xr:uid="{00000000-0004-0000-0000-000037030000}"/>
+    <hyperlink ref="D826" r:id="rId825" xr:uid="{00000000-0004-0000-0000-000038030000}"/>
+    <hyperlink ref="D827" r:id="rId826" xr:uid="{00000000-0004-0000-0000-000039030000}"/>
+    <hyperlink ref="D828" r:id="rId827" xr:uid="{00000000-0004-0000-0000-00003A030000}"/>
+    <hyperlink ref="D829" r:id="rId828" xr:uid="{00000000-0004-0000-0000-00003B030000}"/>
+    <hyperlink ref="D830" r:id="rId829" xr:uid="{00000000-0004-0000-0000-00003C030000}"/>
+    <hyperlink ref="D831" r:id="rId830" xr:uid="{00000000-0004-0000-0000-00003D030000}"/>
+    <hyperlink ref="D832" r:id="rId831" xr:uid="{00000000-0004-0000-0000-00003E030000}"/>
+    <hyperlink ref="D833" r:id="rId832" xr:uid="{00000000-0004-0000-0000-00003F030000}"/>
+    <hyperlink ref="D834" r:id="rId833" xr:uid="{00000000-0004-0000-0000-000040030000}"/>
+    <hyperlink ref="D835" r:id="rId834" xr:uid="{00000000-0004-0000-0000-000041030000}"/>
+    <hyperlink ref="D836" r:id="rId835" xr:uid="{00000000-0004-0000-0000-000042030000}"/>
+    <hyperlink ref="D837" r:id="rId836" xr:uid="{00000000-0004-0000-0000-000043030000}"/>
+    <hyperlink ref="D838" r:id="rId837" xr:uid="{00000000-0004-0000-0000-000044030000}"/>
+    <hyperlink ref="D839" r:id="rId838" xr:uid="{00000000-0004-0000-0000-000045030000}"/>
+    <hyperlink ref="D840" r:id="rId839" xr:uid="{00000000-0004-0000-0000-000046030000}"/>
+    <hyperlink ref="D841" r:id="rId840" xr:uid="{00000000-0004-0000-0000-000047030000}"/>
+    <hyperlink ref="D842" r:id="rId841" xr:uid="{00000000-0004-0000-0000-000048030000}"/>
+    <hyperlink ref="D843" r:id="rId842" xr:uid="{00000000-0004-0000-0000-000049030000}"/>
+    <hyperlink ref="D844" r:id="rId843" xr:uid="{00000000-0004-0000-0000-00004A030000}"/>
+    <hyperlink ref="D845" r:id="rId844" xr:uid="{00000000-0004-0000-0000-00004B030000}"/>
+    <hyperlink ref="D846" r:id="rId845" xr:uid="{00000000-0004-0000-0000-00004C030000}"/>
+    <hyperlink ref="D847" r:id="rId846" xr:uid="{00000000-0004-0000-0000-00004D030000}"/>
+    <hyperlink ref="D848" r:id="rId847" xr:uid="{00000000-0004-0000-0000-00004E030000}"/>
+    <hyperlink ref="D849" r:id="rId848" xr:uid="{00000000-0004-0000-0000-00004F030000}"/>
+    <hyperlink ref="D850" r:id="rId849" xr:uid="{00000000-0004-0000-0000-000050030000}"/>
+    <hyperlink ref="D851" r:id="rId850" xr:uid="{00000000-0004-0000-0000-000051030000}"/>
+    <hyperlink ref="D852" r:id="rId851" xr:uid="{00000000-0004-0000-0000-000052030000}"/>
+    <hyperlink ref="D853" r:id="rId852" xr:uid="{00000000-0004-0000-0000-000053030000}"/>
+    <hyperlink ref="D854" r:id="rId853" xr:uid="{00000000-0004-0000-0000-000054030000}"/>
+    <hyperlink ref="D855" r:id="rId854" xr:uid="{00000000-0004-0000-0000-000055030000}"/>
+    <hyperlink ref="D856" r:id="rId855" xr:uid="{00000000-0004-0000-0000-000056030000}"/>
+    <hyperlink ref="D857" r:id="rId856" xr:uid="{00000000-0004-0000-0000-000057030000}"/>
+    <hyperlink ref="D858" r:id="rId857" xr:uid="{00000000-0004-0000-0000-000058030000}"/>
+    <hyperlink ref="D859" r:id="rId858" xr:uid="{00000000-0004-0000-0000-000059030000}"/>
+    <hyperlink ref="D860" r:id="rId859" xr:uid="{00000000-0004-0000-0000-00005A030000}"/>
+    <hyperlink ref="D861" r:id="rId860" xr:uid="{00000000-0004-0000-0000-00005B030000}"/>
+    <hyperlink ref="D862" r:id="rId861" xr:uid="{00000000-0004-0000-0000-00005C030000}"/>
+    <hyperlink ref="D863" r:id="rId862" xr:uid="{00000000-0004-0000-0000-00005D030000}"/>
+    <hyperlink ref="D864" r:id="rId863" xr:uid="{00000000-0004-0000-0000-00005E030000}"/>
+    <hyperlink ref="D865" r:id="rId864" xr:uid="{00000000-0004-0000-0000-00005F030000}"/>
+    <hyperlink ref="D866" r:id="rId865" xr:uid="{00000000-0004-0000-0000-000060030000}"/>
+    <hyperlink ref="D867" r:id="rId866" xr:uid="{00000000-0004-0000-0000-000061030000}"/>
+    <hyperlink ref="D868" r:id="rId867" xr:uid="{00000000-0004-0000-0000-000062030000}"/>
+    <hyperlink ref="D869" r:id="rId868" xr:uid="{00000000-0004-0000-0000-000063030000}"/>
+    <hyperlink ref="D870" r:id="rId869" xr:uid="{00000000-0004-0000-0000-000064030000}"/>
+    <hyperlink ref="D871" r:id="rId870" xr:uid="{00000000-0004-0000-0000-000065030000}"/>
+    <hyperlink ref="D872" r:id="rId871" xr:uid="{00000000-0004-0000-0000-000066030000}"/>
+    <hyperlink ref="D873" r:id="rId872" xr:uid="{00000000-0004-0000-0000-000067030000}"/>
+    <hyperlink ref="D874" r:id="rId873" xr:uid="{00000000-0004-0000-0000-000068030000}"/>
+    <hyperlink ref="D875" r:id="rId874" xr:uid="{00000000-0004-0000-0000-000069030000}"/>
+    <hyperlink ref="D876" r:id="rId875" xr:uid="{00000000-0004-0000-0000-00006A030000}"/>
+    <hyperlink ref="D877" r:id="rId876" xr:uid="{00000000-0004-0000-0000-00006B030000}"/>
+    <hyperlink ref="D878" r:id="rId877" xr:uid="{00000000-0004-0000-0000-00006C030000}"/>
+    <hyperlink ref="D879" r:id="rId878" xr:uid="{00000000-0004-0000-0000-00006D030000}"/>
+    <hyperlink ref="D880" r:id="rId879" xr:uid="{00000000-0004-0000-0000-00006E030000}"/>
+    <hyperlink ref="D881" r:id="rId880" xr:uid="{00000000-0004-0000-0000-00006F030000}"/>
+    <hyperlink ref="D882" r:id="rId881" xr:uid="{00000000-0004-0000-0000-000070030000}"/>
+    <hyperlink ref="D883" r:id="rId882" xr:uid="{00000000-0004-0000-0000-000071030000}"/>
+    <hyperlink ref="D884" r:id="rId883" xr:uid="{00000000-0004-0000-0000-000072030000}"/>
+    <hyperlink ref="D885" r:id="rId884" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
+    <hyperlink ref="D886" r:id="rId885" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
+    <hyperlink ref="D887" r:id="rId886" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
+    <hyperlink ref="D888" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
+    <hyperlink ref="D889" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
+    <hyperlink ref="D890" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
+    <hyperlink ref="D891" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
+    <hyperlink ref="D892" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="D893" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="D894" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="D895" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="D896" r:id="rId895" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
+    <hyperlink ref="D897" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
+    <hyperlink ref="D898" r:id="rId897" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
+    <hyperlink ref="D899" r:id="rId898" xr:uid="{00000000-0004-0000-0000-000081030000}"/>
+    <hyperlink ref="D900" r:id="rId899" xr:uid="{00000000-0004-0000-0000-000082030000}"/>
+    <hyperlink ref="D901" r:id="rId900" xr:uid="{00000000-0004-0000-0000-000083030000}"/>
+    <hyperlink ref="D902" r:id="rId901" xr:uid="{00000000-0004-0000-0000-000084030000}"/>
+    <hyperlink ref="D903" r:id="rId902" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
+    <hyperlink ref="D904" r:id="rId903" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
+    <hyperlink ref="D905" r:id="rId904" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
+    <hyperlink ref="D906" r:id="rId905" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
+    <hyperlink ref="D907" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
+    <hyperlink ref="D908" r:id="rId907" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
+    <hyperlink ref="D909" r:id="rId908" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
+    <hyperlink ref="D910" r:id="rId909" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
+    <hyperlink ref="D911" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
+    <hyperlink ref="D912" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
+    <hyperlink ref="D913" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
+    <hyperlink ref="D914" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
+    <hyperlink ref="D915" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
+    <hyperlink ref="D916" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
+    <hyperlink ref="D917" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
+    <hyperlink ref="D918" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
+    <hyperlink ref="D919" r:id="rId918" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
+    <hyperlink ref="D920" r:id="rId919" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
+    <hyperlink ref="D921" r:id="rId920" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
+    <hyperlink ref="D922" r:id="rId921" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
+    <hyperlink ref="D923" r:id="rId922" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
+    <hyperlink ref="D924" r:id="rId923" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
+    <hyperlink ref="D925" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
+    <hyperlink ref="D926" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
+    <hyperlink ref="D927" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
+    <hyperlink ref="D928" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
+    <hyperlink ref="D929" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
+    <hyperlink ref="D930" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
+    <hyperlink ref="D931" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
+    <hyperlink ref="D932" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
+    <hyperlink ref="D933" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
+    <hyperlink ref="D934" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
+    <hyperlink ref="D935" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
+    <hyperlink ref="D936" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
+    <hyperlink ref="D937" r:id="rId936" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
+    <hyperlink ref="D938" r:id="rId937" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
+    <hyperlink ref="D939" r:id="rId938" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
+    <hyperlink ref="D940" r:id="rId939" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
+    <hyperlink ref="D941" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
+    <hyperlink ref="D942" r:id="rId941" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
+    <hyperlink ref="D943" r:id="rId942" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
+    <hyperlink ref="D944" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
+    <hyperlink ref="D945" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
+    <hyperlink ref="D946" r:id="rId945" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
+    <hyperlink ref="D947" r:id="rId946" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
+    <hyperlink ref="D948" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
+    <hyperlink ref="D949" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
+    <hyperlink ref="D950" r:id="rId949" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
+    <hyperlink ref="D951" r:id="rId950" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
+    <hyperlink ref="D952" r:id="rId951" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
+    <hyperlink ref="D953" r:id="rId952" xr:uid="{00000000-0004-0000-0000-0000B7030000}"/>
+    <hyperlink ref="D954" r:id="rId953" xr:uid="{00000000-0004-0000-0000-0000B8030000}"/>
+    <hyperlink ref="D955" r:id="rId954" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
+    <hyperlink ref="D956" r:id="rId955" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
+    <hyperlink ref="D957" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
+    <hyperlink ref="D958" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
+    <hyperlink ref="D959" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
+    <hyperlink ref="D960" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
+    <hyperlink ref="D961" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
+    <hyperlink ref="D962" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
+    <hyperlink ref="D963" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
+    <hyperlink ref="D964" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
+    <hyperlink ref="D965" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
+    <hyperlink ref="D966" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
+    <hyperlink ref="D967" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
+    <hyperlink ref="D968" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
+    <hyperlink ref="D969" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
+    <hyperlink ref="D970" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
+    <hyperlink ref="D971" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
+    <hyperlink ref="D972" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
+    <hyperlink ref="D973" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
+    <hyperlink ref="D974" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
+    <hyperlink ref="D975" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
+    <hyperlink ref="D976" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
+    <hyperlink ref="D977" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
+    <hyperlink ref="D978" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
+    <hyperlink ref="D979" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="D980" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
+    <hyperlink ref="D981" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
+    <hyperlink ref="D982" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="D983" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="D984" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="D985" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="D986" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="D987" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="D988" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
+    <hyperlink ref="D989" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
+    <hyperlink ref="D990" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
+    <hyperlink ref="D991" r:id="rId990" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
+    <hyperlink ref="D992" r:id="rId991" xr:uid="{00000000-0004-0000-0000-0000DE030000}"/>
+    <hyperlink ref="D993" r:id="rId992" xr:uid="{00000000-0004-0000-0000-0000DF030000}"/>
+    <hyperlink ref="D994" r:id="rId993" xr:uid="{00000000-0004-0000-0000-0000E0030000}"/>
+    <hyperlink ref="D995" r:id="rId994" xr:uid="{00000000-0004-0000-0000-0000E1030000}"/>
+    <hyperlink ref="D996" r:id="rId995" xr:uid="{00000000-0004-0000-0000-0000E2030000}"/>
+    <hyperlink ref="D997" r:id="rId996" xr:uid="{00000000-0004-0000-0000-0000E3030000}"/>
+    <hyperlink ref="D998" r:id="rId997" xr:uid="{00000000-0004-0000-0000-0000E4030000}"/>
+    <hyperlink ref="D999" r:id="rId998" xr:uid="{00000000-0004-0000-0000-0000E5030000}"/>
+    <hyperlink ref="D1000" r:id="rId999" xr:uid="{00000000-0004-0000-0000-0000E6030000}"/>
+    <hyperlink ref="D1001" r:id="rId1000" xr:uid="{00000000-0004-0000-0000-0000E7030000}"/>
+    <hyperlink ref="D1002" r:id="rId1001" xr:uid="{00000000-0004-0000-0000-0000E8030000}"/>
+    <hyperlink ref="D1003" r:id="rId1002" xr:uid="{00000000-0004-0000-0000-0000E9030000}"/>
+    <hyperlink ref="D1004" r:id="rId1003" xr:uid="{00000000-0004-0000-0000-0000EA030000}"/>
+    <hyperlink ref="D1005" r:id="rId1004" xr:uid="{00000000-0004-0000-0000-0000EB030000}"/>
+    <hyperlink ref="D1006" r:id="rId1005" xr:uid="{00000000-0004-0000-0000-0000EC030000}"/>
+    <hyperlink ref="D1007" r:id="rId1006" xr:uid="{00000000-0004-0000-0000-0000ED030000}"/>
+    <hyperlink ref="D1008" r:id="rId1007" xr:uid="{00000000-0004-0000-0000-0000EE030000}"/>
+    <hyperlink ref="D1009" r:id="rId1008" xr:uid="{00000000-0004-0000-0000-0000EF030000}"/>
+    <hyperlink ref="D1010" r:id="rId1009" xr:uid="{00000000-0004-0000-0000-0000F0030000}"/>
+    <hyperlink ref="D1011" r:id="rId1010" xr:uid="{00000000-0004-0000-0000-0000F1030000}"/>
+    <hyperlink ref="D1012" r:id="rId1011" xr:uid="{00000000-0004-0000-0000-0000F2030000}"/>
+    <hyperlink ref="D1013" r:id="rId1012" xr:uid="{00000000-0004-0000-0000-0000F3030000}"/>
+    <hyperlink ref="D1014" r:id="rId1013" xr:uid="{00000000-0004-0000-0000-0000F4030000}"/>
+    <hyperlink ref="D1015" r:id="rId1014" xr:uid="{00000000-0004-0000-0000-0000F5030000}"/>
+    <hyperlink ref="D1016" r:id="rId1015" xr:uid="{00000000-0004-0000-0000-0000F6030000}"/>
+    <hyperlink ref="D1017" r:id="rId1016" xr:uid="{00000000-0004-0000-0000-0000F7030000}"/>
+    <hyperlink ref="D1018" r:id="rId1017" xr:uid="{00000000-0004-0000-0000-0000F8030000}"/>
+    <hyperlink ref="D1019" r:id="rId1018" xr:uid="{00000000-0004-0000-0000-0000F9030000}"/>
+    <hyperlink ref="D1020" r:id="rId1019" xr:uid="{00000000-0004-0000-0000-0000FA030000}"/>
+    <hyperlink ref="D1021" r:id="rId1020" xr:uid="{00000000-0004-0000-0000-0000FB030000}"/>
+    <hyperlink ref="D1022" r:id="rId1021" xr:uid="{00000000-0004-0000-0000-0000FC030000}"/>
+    <hyperlink ref="D1023" r:id="rId1022" xr:uid="{00000000-0004-0000-0000-0000FD030000}"/>
+    <hyperlink ref="D1024" r:id="rId1023" xr:uid="{00000000-0004-0000-0000-0000FE030000}"/>
+    <hyperlink ref="D1025" r:id="rId1024" xr:uid="{00000000-0004-0000-0000-0000FF030000}"/>
+    <hyperlink ref="D1026" r:id="rId1025" xr:uid="{00000000-0004-0000-0000-000000040000}"/>
+    <hyperlink ref="D1027" r:id="rId1026" xr:uid="{00000000-0004-0000-0000-000001040000}"/>
+    <hyperlink ref="D1028" r:id="rId1027" xr:uid="{00000000-0004-0000-0000-000002040000}"/>
+    <hyperlink ref="D1029" r:id="rId1028" xr:uid="{00000000-0004-0000-0000-000003040000}"/>
+    <hyperlink ref="D1030" r:id="rId1029" xr:uid="{00000000-0004-0000-0000-000004040000}"/>
+    <hyperlink ref="D1031" r:id="rId1030" xr:uid="{00000000-0004-0000-0000-000005040000}"/>
+    <hyperlink ref="D1032" r:id="rId1031" xr:uid="{00000000-0004-0000-0000-000006040000}"/>
+    <hyperlink ref="D1033" r:id="rId1032" xr:uid="{00000000-0004-0000-0000-000007040000}"/>
+    <hyperlink ref="D1034" r:id="rId1033" xr:uid="{00000000-0004-0000-0000-000008040000}"/>
+    <hyperlink ref="D1035" r:id="rId1034" xr:uid="{00000000-0004-0000-0000-000009040000}"/>
+    <hyperlink ref="D1036" r:id="rId1035" xr:uid="{00000000-0004-0000-0000-00000A040000}"/>
+    <hyperlink ref="D1037" r:id="rId1036" xr:uid="{00000000-0004-0000-0000-00000B040000}"/>
+    <hyperlink ref="D1038" r:id="rId1037" xr:uid="{00000000-0004-0000-0000-00000C040000}"/>
+    <hyperlink ref="D1039" r:id="rId1038" xr:uid="{00000000-0004-0000-0000-00000D040000}"/>
+    <hyperlink ref="D1040" r:id="rId1039" xr:uid="{00000000-0004-0000-0000-00000E040000}"/>
+    <hyperlink ref="D1041" r:id="rId1040" xr:uid="{00000000-0004-0000-0000-00000F040000}"/>
+    <hyperlink ref="D1042" r:id="rId1041" xr:uid="{00000000-0004-0000-0000-000010040000}"/>
+    <hyperlink ref="D1043" r:id="rId1042" xr:uid="{00000000-0004-0000-0000-000011040000}"/>
+    <hyperlink ref="D1044" r:id="rId1043" xr:uid="{00000000-0004-0000-0000-000012040000}"/>
+    <hyperlink ref="D1045" r:id="rId1044" xr:uid="{00000000-0004-0000-0000-000013040000}"/>
+    <hyperlink ref="D1046" r:id="rId1045" xr:uid="{00000000-0004-0000-0000-000014040000}"/>
+    <hyperlink ref="D1047" r:id="rId1046" xr:uid="{00000000-0004-0000-0000-000015040000}"/>
+    <hyperlink ref="D1048" r:id="rId1047" xr:uid="{00000000-0004-0000-0000-000016040000}"/>
+    <hyperlink ref="D1049" r:id="rId1048" xr:uid="{00000000-0004-0000-0000-000017040000}"/>
+    <hyperlink ref="D1050" r:id="rId1049" xr:uid="{00000000-0004-0000-0000-000018040000}"/>
+    <hyperlink ref="D1051" r:id="rId1050" xr:uid="{00000000-0004-0000-0000-000019040000}"/>
+    <hyperlink ref="D1052" r:id="rId1051" xr:uid="{00000000-0004-0000-0000-00001A040000}"/>
+    <hyperlink ref="D1053" r:id="rId1052" xr:uid="{00000000-0004-0000-0000-00001B040000}"/>
+    <hyperlink ref="D1054" r:id="rId1053" xr:uid="{00000000-0004-0000-0000-00001C040000}"/>
+    <hyperlink ref="D1055" r:id="rId1054" xr:uid="{00000000-0004-0000-0000-00001D040000}"/>
+    <hyperlink ref="D1056" r:id="rId1055" xr:uid="{00000000-0004-0000-0000-00001E040000}"/>
+    <hyperlink ref="D1057" r:id="rId1056" xr:uid="{00000000-0004-0000-0000-00001F040000}"/>
+    <hyperlink ref="D1058" r:id="rId1057" xr:uid="{00000000-0004-0000-0000-000020040000}"/>
+    <hyperlink ref="D1059" r:id="rId1058" xr:uid="{00000000-0004-0000-0000-000021040000}"/>
+    <hyperlink ref="D1060" r:id="rId1059" xr:uid="{00000000-0004-0000-0000-000022040000}"/>
+    <hyperlink ref="D1061" r:id="rId1060" xr:uid="{00000000-0004-0000-0000-000023040000}"/>
+    <hyperlink ref="D1062" r:id="rId1061" xr:uid="{00000000-0004-0000-0000-000024040000}"/>
+    <hyperlink ref="D1063" r:id="rId1062" xr:uid="{00000000-0004-0000-0000-000025040000}"/>
+    <hyperlink ref="D1064" r:id="rId1063" xr:uid="{00000000-0004-0000-0000-000026040000}"/>
+    <hyperlink ref="D1065" r:id="rId1064" xr:uid="{00000000-0004-0000-0000-000027040000}"/>
+    <hyperlink ref="D1066" r:id="rId1065" xr:uid="{00000000-0004-0000-0000-000028040000}"/>
+    <hyperlink ref="D1067" r:id="rId1066" xr:uid="{00000000-0004-0000-0000-000029040000}"/>
+    <hyperlink ref="D1068" r:id="rId1067" xr:uid="{00000000-0004-0000-0000-00002A040000}"/>
+    <hyperlink ref="D1069" r:id="rId1068" xr:uid="{00000000-0004-0000-0000-00002B040000}"/>
+    <hyperlink ref="D1070" r:id="rId1069" xr:uid="{00000000-0004-0000-0000-00002C040000}"/>
+    <hyperlink ref="D1071" r:id="rId1070" xr:uid="{00000000-0004-0000-0000-00002D040000}"/>
+    <hyperlink ref="D1072" r:id="rId1071" xr:uid="{00000000-0004-0000-0000-00002E040000}"/>
+    <hyperlink ref="D1073" r:id="rId1072" xr:uid="{00000000-0004-0000-0000-00002F040000}"/>
+    <hyperlink ref="D1074" r:id="rId1073" xr:uid="{00000000-0004-0000-0000-000030040000}"/>
+    <hyperlink ref="D1075" r:id="rId1074" xr:uid="{00000000-0004-0000-0000-000031040000}"/>
+    <hyperlink ref="D1076" r:id="rId1075" xr:uid="{00000000-0004-0000-0000-000032040000}"/>
+    <hyperlink ref="D1077" r:id="rId1076" xr:uid="{00000000-0004-0000-0000-000033040000}"/>
+    <hyperlink ref="D1078" r:id="rId1077" xr:uid="{00000000-0004-0000-0000-000034040000}"/>
+    <hyperlink ref="D1079" r:id="rId1078" xr:uid="{00000000-0004-0000-0000-000035040000}"/>
+    <hyperlink ref="D1080" r:id="rId1079" xr:uid="{00000000-0004-0000-0000-000036040000}"/>
+    <hyperlink ref="D1081" r:id="rId1080" xr:uid="{00000000-0004-0000-0000-000037040000}"/>
+    <hyperlink ref="D1082" r:id="rId1081" xr:uid="{00000000-0004-0000-0000-000038040000}"/>
+    <hyperlink ref="D1083" r:id="rId1082" xr:uid="{00000000-0004-0000-0000-000039040000}"/>
+    <hyperlink ref="D1084" r:id="rId1083" xr:uid="{00000000-0004-0000-0000-00003A040000}"/>
+    <hyperlink ref="D1085" r:id="rId1084" xr:uid="{00000000-0004-0000-0000-00003B040000}"/>
+    <hyperlink ref="D1086" r:id="rId1085" xr:uid="{00000000-0004-0000-0000-00003C040000}"/>
+    <hyperlink ref="D1087" r:id="rId1086" xr:uid="{00000000-0004-0000-0000-00003D040000}"/>
+    <hyperlink ref="D1088" r:id="rId1087" xr:uid="{00000000-0004-0000-0000-00003E040000}"/>
+    <hyperlink ref="D1089" r:id="rId1088" xr:uid="{00000000-0004-0000-0000-00003F040000}"/>
+    <hyperlink ref="D1090" r:id="rId1089" xr:uid="{00000000-0004-0000-0000-000040040000}"/>
+    <hyperlink ref="D1091" r:id="rId1090" xr:uid="{00000000-0004-0000-0000-000041040000}"/>
+    <hyperlink ref="D1092" r:id="rId1091" xr:uid="{00000000-0004-0000-0000-000042040000}"/>
+    <hyperlink ref="D1093" r:id="rId1092" xr:uid="{00000000-0004-0000-0000-000043040000}"/>
+    <hyperlink ref="D1094" r:id="rId1093" xr:uid="{00000000-0004-0000-0000-000044040000}"/>
+    <hyperlink ref="D1095" r:id="rId1094" xr:uid="{00000000-0004-0000-0000-000045040000}"/>
+    <hyperlink ref="D1096" r:id="rId1095" xr:uid="{00000000-0004-0000-0000-000046040000}"/>
+    <hyperlink ref="D1097" r:id="rId1096" xr:uid="{00000000-0004-0000-0000-000047040000}"/>
+    <hyperlink ref="D1098" r:id="rId1097" xr:uid="{00000000-0004-0000-0000-000048040000}"/>
+    <hyperlink ref="D1099" r:id="rId1098" xr:uid="{00000000-0004-0000-0000-000049040000}"/>
+    <hyperlink ref="D1100" r:id="rId1099" xr:uid="{00000000-0004-0000-0000-00004A040000}"/>
+    <hyperlink ref="D1101" r:id="rId1100" xr:uid="{00000000-0004-0000-0000-00004B040000}"/>
+    <hyperlink ref="D1102" r:id="rId1101" xr:uid="{00000000-0004-0000-0000-00004C040000}"/>
+    <hyperlink ref="D1103" r:id="rId1102" xr:uid="{00000000-0004-0000-0000-00004D040000}"/>
+    <hyperlink ref="D1104" r:id="rId1103" xr:uid="{00000000-0004-0000-0000-00004E040000}"/>
+    <hyperlink ref="D1105" r:id="rId1104" xr:uid="{00000000-0004-0000-0000-00004F040000}"/>
+    <hyperlink ref="D1106" r:id="rId1105" xr:uid="{00000000-0004-0000-0000-000050040000}"/>
+    <hyperlink ref="D1107" r:id="rId1106" xr:uid="{00000000-0004-0000-0000-000051040000}"/>
+    <hyperlink ref="D1108" r:id="rId1107" xr:uid="{00000000-0004-0000-0000-000052040000}"/>
+    <hyperlink ref="D1109" r:id="rId1108" xr:uid="{00000000-0004-0000-0000-000053040000}"/>
+    <hyperlink ref="D1110" r:id="rId1109" xr:uid="{00000000-0004-0000-0000-000054040000}"/>
+    <hyperlink ref="D1111" r:id="rId1110" xr:uid="{00000000-0004-0000-0000-000055040000}"/>
+    <hyperlink ref="D1112" r:id="rId1111" xr:uid="{00000000-0004-0000-0000-000056040000}"/>
+    <hyperlink ref="D1113" r:id="rId1112" xr:uid="{00000000-0004-0000-0000-000057040000}"/>
+    <hyperlink ref="D1114" r:id="rId1113" xr:uid="{00000000-0004-0000-0000-000058040000}"/>
+    <hyperlink ref="D1115" r:id="rId1114" xr:uid="{00000000-0004-0000-0000-000059040000}"/>
+    <hyperlink ref="D1116" r:id="rId1115" xr:uid="{00000000-0004-0000-0000-00005A040000}"/>
+    <hyperlink ref="D1117" r:id="rId1116" xr:uid="{00000000-0004-0000-0000-00005B040000}"/>
+    <hyperlink ref="D1118" r:id="rId1117" xr:uid="{00000000-0004-0000-0000-00005C040000}"/>
+    <hyperlink ref="D1119" r:id="rId1118" xr:uid="{00000000-0004-0000-0000-00005D040000}"/>
+    <hyperlink ref="D1120" r:id="rId1119" xr:uid="{00000000-0004-0000-0000-00005E040000}"/>
+    <hyperlink ref="D1121" r:id="rId1120" xr:uid="{00000000-0004-0000-0000-00005F040000}"/>
+    <hyperlink ref="D1122" r:id="rId1121" xr:uid="{00000000-0004-0000-0000-000060040000}"/>
+    <hyperlink ref="D1123" r:id="rId1122" xr:uid="{00000000-0004-0000-0000-000061040000}"/>
+    <hyperlink ref="D1124" r:id="rId1123" xr:uid="{00000000-0004-0000-0000-000062040000}"/>
+    <hyperlink ref="D1125" r:id="rId1124" xr:uid="{00000000-0004-0000-0000-000063040000}"/>
+    <hyperlink ref="D1126" r:id="rId1125" xr:uid="{00000000-0004-0000-0000-000064040000}"/>
+    <hyperlink ref="D1127" r:id="rId1126" xr:uid="{00000000-0004-0000-0000-000065040000}"/>
+    <hyperlink ref="D1128" r:id="rId1127" xr:uid="{00000000-0004-0000-0000-000066040000}"/>
+    <hyperlink ref="D1129" r:id="rId1128" xr:uid="{00000000-0004-0000-0000-000067040000}"/>
+    <hyperlink ref="D1130" r:id="rId1129" xr:uid="{00000000-0004-0000-0000-000068040000}"/>
+    <hyperlink ref="D1131" r:id="rId1130" xr:uid="{00000000-0004-0000-0000-000069040000}"/>
+    <hyperlink ref="D1132" r:id="rId1131" xr:uid="{00000000-0004-0000-0000-00006A040000}"/>
+    <hyperlink ref="D1133" r:id="rId1132" xr:uid="{00000000-0004-0000-0000-00006B040000}"/>
+    <hyperlink ref="D1134" r:id="rId1133" xr:uid="{00000000-0004-0000-0000-00006C040000}"/>
+    <hyperlink ref="D1135" r:id="rId1134" xr:uid="{00000000-0004-0000-0000-00006D040000}"/>
+    <hyperlink ref="D1136" r:id="rId1135" xr:uid="{00000000-0004-0000-0000-00006E040000}"/>
+    <hyperlink ref="D1137" r:id="rId1136" xr:uid="{00000000-0004-0000-0000-00006F040000}"/>
+    <hyperlink ref="D1138" r:id="rId1137" xr:uid="{00000000-0004-0000-0000-000070040000}"/>
+    <hyperlink ref="D1139" r:id="rId1138" xr:uid="{00000000-0004-0000-0000-000071040000}"/>
+    <hyperlink ref="D1140" r:id="rId1139" xr:uid="{00000000-0004-0000-0000-000072040000}"/>
+    <hyperlink ref="D1141" r:id="rId1140" xr:uid="{00000000-0004-0000-0000-000073040000}"/>
+    <hyperlink ref="D1142" r:id="rId1141" xr:uid="{00000000-0004-0000-0000-000074040000}"/>
+    <hyperlink ref="D1143" r:id="rId1142" xr:uid="{00000000-0004-0000-0000-000075040000}"/>
+    <hyperlink ref="D1144" r:id="rId1143" xr:uid="{00000000-0004-0000-0000-000076040000}"/>
+    <hyperlink ref="D1145" r:id="rId1144" xr:uid="{00000000-0004-0000-0000-000077040000}"/>
+    <hyperlink ref="D1146" r:id="rId1145" xr:uid="{00000000-0004-0000-0000-000078040000}"/>
+    <hyperlink ref="D1147" r:id="rId1146" xr:uid="{00000000-0004-0000-0000-000079040000}"/>
+    <hyperlink ref="D1148" r:id="rId1147" xr:uid="{00000000-0004-0000-0000-00007A040000}"/>
+    <hyperlink ref="D1149" r:id="rId1148" xr:uid="{00000000-0004-0000-0000-00007B040000}"/>
+    <hyperlink ref="D1150" r:id="rId1149" xr:uid="{00000000-0004-0000-0000-00007C040000}"/>
+    <hyperlink ref="D1151" r:id="rId1150" xr:uid="{00000000-0004-0000-0000-00007D040000}"/>
+    <hyperlink ref="D1152" r:id="rId1151" xr:uid="{00000000-0004-0000-0000-00007E040000}"/>
+    <hyperlink ref="D1153" r:id="rId1152" xr:uid="{00000000-0004-0000-0000-00007F040000}"/>
+    <hyperlink ref="D1154" r:id="rId1153" xr:uid="{00000000-0004-0000-0000-000080040000}"/>
+    <hyperlink ref="D1155" r:id="rId1154" xr:uid="{00000000-0004-0000-0000-000081040000}"/>
+    <hyperlink ref="D1156" r:id="rId1155" xr:uid="{00000000-0004-0000-0000-000082040000}"/>
+    <hyperlink ref="D1157" r:id="rId1156" xr:uid="{00000000-0004-0000-0000-000083040000}"/>
+    <hyperlink ref="D1158" r:id="rId1157" xr:uid="{00000000-0004-0000-0000-000084040000}"/>
+    <hyperlink ref="D1159" r:id="rId1158" xr:uid="{00000000-0004-0000-0000-000085040000}"/>
+    <hyperlink ref="D1160" r:id="rId1159" xr:uid="{00000000-0004-0000-0000-000086040000}"/>
+    <hyperlink ref="D1161" r:id="rId1160" xr:uid="{00000000-0004-0000-0000-000087040000}"/>
+    <hyperlink ref="D1162" r:id="rId1161" xr:uid="{00000000-0004-0000-0000-000088040000}"/>
+    <hyperlink ref="D1163" r:id="rId1162" xr:uid="{00000000-0004-0000-0000-000089040000}"/>
+    <hyperlink ref="D1164" r:id="rId1163" xr:uid="{00000000-0004-0000-0000-00008A040000}"/>
+    <hyperlink ref="D1165" r:id="rId1164" xr:uid="{00000000-0004-0000-0000-00008B040000}"/>
+    <hyperlink ref="D1166" r:id="rId1165" xr:uid="{00000000-0004-0000-0000-00008C040000}"/>
+    <hyperlink ref="D1167" r:id="rId1166" xr:uid="{00000000-0004-0000-0000-00008D040000}"/>
+    <hyperlink ref="D1168" r:id="rId1167" xr:uid="{00000000-0004-0000-0000-00008E040000}"/>
+    <hyperlink ref="D1169" r:id="rId1168" xr:uid="{00000000-0004-0000-0000-00008F040000}"/>
+    <hyperlink ref="D1170" r:id="rId1169" xr:uid="{00000000-0004-0000-0000-000090040000}"/>
+    <hyperlink ref="D1171" r:id="rId1170" xr:uid="{00000000-0004-0000-0000-000091040000}"/>
+    <hyperlink ref="D1172" r:id="rId1171" xr:uid="{00000000-0004-0000-0000-000092040000}"/>
+    <hyperlink ref="D1173" r:id="rId1172" xr:uid="{00000000-0004-0000-0000-000093040000}"/>
+    <hyperlink ref="D1174" r:id="rId1173" xr:uid="{00000000-0004-0000-0000-000094040000}"/>
+    <hyperlink ref="D1175" r:id="rId1174" xr:uid="{00000000-0004-0000-0000-000095040000}"/>
+    <hyperlink ref="D1176" r:id="rId1175" xr:uid="{00000000-0004-0000-0000-000096040000}"/>
+    <hyperlink ref="D1177" r:id="rId1176" xr:uid="{00000000-0004-0000-0000-000097040000}"/>
+    <hyperlink ref="D1178" r:id="rId1177" xr:uid="{00000000-0004-0000-0000-000098040000}"/>
+    <hyperlink ref="D1179" r:id="rId1178" xr:uid="{00000000-0004-0000-0000-000099040000}"/>
+    <hyperlink ref="D1180" r:id="rId1179" xr:uid="{00000000-0004-0000-0000-00009A040000}"/>
+    <hyperlink ref="D1181" r:id="rId1180" xr:uid="{00000000-0004-0000-0000-00009B040000}"/>
+    <hyperlink ref="D1182" r:id="rId1181" xr:uid="{00000000-0004-0000-0000-00009C040000}"/>
+    <hyperlink ref="D1183" r:id="rId1182" xr:uid="{00000000-0004-0000-0000-00009D040000}"/>
+    <hyperlink ref="D1184" r:id="rId1183" xr:uid="{00000000-0004-0000-0000-00009E040000}"/>
+    <hyperlink ref="D1185" r:id="rId1184" xr:uid="{00000000-0004-0000-0000-00009F040000}"/>
+    <hyperlink ref="D1186" r:id="rId1185" xr:uid="{00000000-0004-0000-0000-0000A0040000}"/>
+    <hyperlink ref="D1187" r:id="rId1186" xr:uid="{00000000-0004-0000-0000-0000A1040000}"/>
+    <hyperlink ref="D1188" r:id="rId1187" xr:uid="{00000000-0004-0000-0000-0000A2040000}"/>
+    <hyperlink ref="D1189" r:id="rId1188" xr:uid="{00000000-0004-0000-0000-0000A3040000}"/>
+    <hyperlink ref="D1190" r:id="rId1189" xr:uid="{00000000-0004-0000-0000-0000A4040000}"/>
+    <hyperlink ref="D1191" r:id="rId1190" xr:uid="{00000000-0004-0000-0000-0000A5040000}"/>
+    <hyperlink ref="D1192" r:id="rId1191" xr:uid="{00000000-0004-0000-0000-0000A6040000}"/>
+    <hyperlink ref="D1193" r:id="rId1192" xr:uid="{00000000-0004-0000-0000-0000A7040000}"/>
+    <hyperlink ref="D1194" r:id="rId1193" xr:uid="{00000000-0004-0000-0000-0000A8040000}"/>
+    <hyperlink ref="D1195" r:id="rId1194" xr:uid="{00000000-0004-0000-0000-0000A9040000}"/>
+    <hyperlink ref="D1196" r:id="rId1195" xr:uid="{00000000-0004-0000-0000-0000AA040000}"/>
+    <hyperlink ref="D1197" r:id="rId1196" xr:uid="{00000000-0004-0000-0000-0000AB040000}"/>
+    <hyperlink ref="D1198" r:id="rId1197" xr:uid="{00000000-0004-0000-0000-0000AC040000}"/>
+    <hyperlink ref="D1199" r:id="rId1198" xr:uid="{00000000-0004-0000-0000-0000AD040000}"/>
+    <hyperlink ref="D1200" r:id="rId1199" xr:uid="{00000000-0004-0000-0000-0000AE040000}"/>
+    <hyperlink ref="D1201" r:id="rId1200" xr:uid="{00000000-0004-0000-0000-0000AF040000}"/>
+    <hyperlink ref="D1202" r:id="rId1201" xr:uid="{00000000-0004-0000-0000-0000B0040000}"/>
+    <hyperlink ref="D1203" r:id="rId1202" xr:uid="{00000000-0004-0000-0000-0000B1040000}"/>
+    <hyperlink ref="D1204" r:id="rId1203" xr:uid="{00000000-0004-0000-0000-0000B2040000}"/>
+    <hyperlink ref="D1205" r:id="rId1204" xr:uid="{00000000-0004-0000-0000-0000B3040000}"/>
+    <hyperlink ref="D1206" r:id="rId1205" xr:uid="{00000000-0004-0000-0000-0000B4040000}"/>
+    <hyperlink ref="D1207" r:id="rId1206" xr:uid="{00000000-0004-0000-0000-0000B5040000}"/>
+    <hyperlink ref="D1208" r:id="rId1207" xr:uid="{00000000-0004-0000-0000-0000B6040000}"/>
+    <hyperlink ref="D1209" r:id="rId1208" xr:uid="{00000000-0004-0000-0000-0000B7040000}"/>
+    <hyperlink ref="D1210" r:id="rId1209" xr:uid="{00000000-0004-0000-0000-0000B8040000}"/>
+    <hyperlink ref="D1211" r:id="rId1210" xr:uid="{00000000-0004-0000-0000-0000B9040000}"/>
+    <hyperlink ref="D1212" r:id="rId1211" xr:uid="{00000000-0004-0000-0000-0000BA040000}"/>
+    <hyperlink ref="D1213" r:id="rId1212" xr:uid="{00000000-0004-0000-0000-0000BB040000}"/>
+    <hyperlink ref="D1214" r:id="rId1213" xr:uid="{00000000-0004-0000-0000-0000BC040000}"/>
+    <hyperlink ref="D1215" r:id="rId1214" xr:uid="{00000000-0004-0000-0000-0000BD040000}"/>
+    <hyperlink ref="D1216" r:id="rId1215" xr:uid="{00000000-0004-0000-0000-0000BE040000}"/>
+    <hyperlink ref="D1217" r:id="rId1216" xr:uid="{00000000-0004-0000-0000-0000BF040000}"/>
+    <hyperlink ref="D1218" r:id="rId1217" xr:uid="{00000000-0004-0000-0000-0000C0040000}"/>
+    <hyperlink ref="D1219" r:id="rId1218" xr:uid="{00000000-0004-0000-0000-0000C1040000}"/>
+    <hyperlink ref="D1220" r:id="rId1219" xr:uid="{00000000-0004-0000-0000-0000C2040000}"/>
+    <hyperlink ref="D1221" r:id="rId1220" xr:uid="{00000000-0004-0000-0000-0000C3040000}"/>
+    <hyperlink ref="D1222" r:id="rId1221" xr:uid="{00000000-0004-0000-0000-0000C4040000}"/>
+    <hyperlink ref="D1223" r:id="rId1222" xr:uid="{00000000-0004-0000-0000-0000C5040000}"/>
+    <hyperlink ref="D1224" r:id="rId1223" xr:uid="{00000000-0004-0000-0000-0000C6040000}"/>
+    <hyperlink ref="D1225" r:id="rId1224" xr:uid="{00000000-0004-0000-0000-0000C7040000}"/>
+    <hyperlink ref="D1226" r:id="rId1225" xr:uid="{00000000-0004-0000-0000-0000C8040000}"/>
+    <hyperlink ref="D1227" r:id="rId1226" xr:uid="{00000000-0004-0000-0000-0000C9040000}"/>
+    <hyperlink ref="D1228" r:id="rId1227" xr:uid="{00000000-0004-0000-0000-0000CA040000}"/>
+    <hyperlink ref="D1229" r:id="rId1228" xr:uid="{00000000-0004-0000-0000-0000CB040000}"/>
+    <hyperlink ref="D1230" r:id="rId1229" xr:uid="{00000000-0004-0000-0000-0000CC040000}"/>
+    <hyperlink ref="D1231" r:id="rId1230" xr:uid="{00000000-0004-0000-0000-0000CD040000}"/>
+    <hyperlink ref="D1232" r:id="rId1231" xr:uid="{00000000-0004-0000-0000-0000CE040000}"/>
+    <hyperlink ref="D1233" r:id="rId1232" xr:uid="{00000000-0004-0000-0000-0000CF040000}"/>
+    <hyperlink ref="D1234" r:id="rId1233" xr:uid="{00000000-0004-0000-0000-0000D0040000}"/>
+    <hyperlink ref="D1235" r:id="rId1234" xr:uid="{00000000-0004-0000-0000-0000D1040000}"/>
+    <hyperlink ref="D1236" r:id="rId1235" xr:uid="{00000000-0004-0000-0000-0000D2040000}"/>
+    <hyperlink ref="D1237" r:id="rId1236" xr:uid="{00000000-0004-0000-0000-0000D3040000}"/>
+    <hyperlink ref="D1238" r:id="rId1237" xr:uid="{00000000-0004-0000-0000-0000D4040000}"/>
+    <hyperlink ref="D1239" r:id="rId1238" xr:uid="{00000000-0004-0000-0000-0000D5040000}"/>
+    <hyperlink ref="D1240" r:id="rId1239" xr:uid="{00000000-0004-0000-0000-0000D6040000}"/>
+    <hyperlink ref="D1241" r:id="rId1240" xr:uid="{00000000-0004-0000-0000-0000D7040000}"/>
+    <hyperlink ref="D1242" r:id="rId1241" xr:uid="{00000000-0004-0000-0000-0000D8040000}"/>
+    <hyperlink ref="D1243" r:id="rId1242" xr:uid="{00000000-0004-0000-0000-0000D9040000}"/>
+    <hyperlink ref="D1244" r:id="rId1243" xr:uid="{00000000-0004-0000-0000-0000DA040000}"/>
+    <hyperlink ref="D1245" r:id="rId1244" xr:uid="{00000000-0004-0000-0000-0000DB040000}"/>
+    <hyperlink ref="D1246" r:id="rId1245" xr:uid="{00000000-0004-0000-0000-0000DC040000}"/>
+    <hyperlink ref="D1247" r:id="rId1246" xr:uid="{00000000-0004-0000-0000-0000DD040000}"/>
+    <hyperlink ref="D1248" r:id="rId1247" xr:uid="{00000000-0004-0000-0000-0000DE040000}"/>
+    <hyperlink ref="D1249" r:id="rId1248" xr:uid="{00000000-0004-0000-0000-0000DF040000}"/>
+    <hyperlink ref="D1250" r:id="rId1249" xr:uid="{00000000-0004-0000-0000-0000E0040000}"/>
+    <hyperlink ref="D1251" r:id="rId1250" xr:uid="{00000000-0004-0000-0000-0000E1040000}"/>
+    <hyperlink ref="D1252" r:id="rId1251" xr:uid="{00000000-0004-0000-0000-0000E2040000}"/>
+    <hyperlink ref="D1253" r:id="rId1252" xr:uid="{00000000-0004-0000-0000-0000E3040000}"/>
+    <hyperlink ref="D1254" r:id="rId1253" xr:uid="{00000000-0004-0000-0000-0000E4040000}"/>
+    <hyperlink ref="D1255" r:id="rId1254" xr:uid="{00000000-0004-0000-0000-0000E5040000}"/>
+    <hyperlink ref="D1256" r:id="rId1255" xr:uid="{00000000-0004-0000-0000-0000E6040000}"/>
+    <hyperlink ref="D1257" r:id="rId1256" xr:uid="{00000000-0004-0000-0000-0000E7040000}"/>
+    <hyperlink ref="D1258" r:id="rId1257" xr:uid="{00000000-0004-0000-0000-0000E8040000}"/>
+    <hyperlink ref="D1259" r:id="rId1258" xr:uid="{00000000-0004-0000-0000-0000E9040000}"/>
+    <hyperlink ref="D1260" r:id="rId1259" xr:uid="{00000000-0004-0000-0000-0000EA040000}"/>
+    <hyperlink ref="D1261" r:id="rId1260" xr:uid="{00000000-0004-0000-0000-0000EB040000}"/>
+    <hyperlink ref="D1262" r:id="rId1261" xr:uid="{00000000-0004-0000-0000-0000EC040000}"/>
+    <hyperlink ref="D1263" r:id="rId1262" xr:uid="{00000000-0004-0000-0000-0000ED040000}"/>
+    <hyperlink ref="D1264" r:id="rId1263" xr:uid="{00000000-0004-0000-0000-0000EE040000}"/>
+    <hyperlink ref="D1265" r:id="rId1264" xr:uid="{00000000-0004-0000-0000-0000EF040000}"/>
+    <hyperlink ref="D1266" r:id="rId1265" xr:uid="{00000000-0004-0000-0000-0000F0040000}"/>
+    <hyperlink ref="D1267" r:id="rId1266" xr:uid="{00000000-0004-0000-0000-0000F1040000}"/>
+    <hyperlink ref="D1268" r:id="rId1267" xr:uid="{00000000-0004-0000-0000-0000F2040000}"/>
+    <hyperlink ref="D1269" r:id="rId1268" xr:uid="{00000000-0004-0000-0000-0000F3040000}"/>
+    <hyperlink ref="D1270" r:id="rId1269" xr:uid="{00000000-0004-0000-0000-0000F4040000}"/>
+    <hyperlink ref="D1271" r:id="rId1270" xr:uid="{00000000-0004-0000-0000-0000F5040000}"/>
+    <hyperlink ref="D1272" r:id="rId1271" xr:uid="{00000000-0004-0000-0000-0000F6040000}"/>
+    <hyperlink ref="D1273" r:id="rId1272" xr:uid="{00000000-0004-0000-0000-0000F7040000}"/>
+    <hyperlink ref="D1274" r:id="rId1273" xr:uid="{00000000-0004-0000-0000-0000F8040000}"/>
+    <hyperlink ref="D1275" r:id="rId1274" xr:uid="{00000000-0004-0000-0000-0000F9040000}"/>
+    <hyperlink ref="D1276" r:id="rId1275" xr:uid="{00000000-0004-0000-0000-0000FA040000}"/>
+    <hyperlink ref="D1277" r:id="rId1276" xr:uid="{00000000-0004-0000-0000-0000FB040000}"/>
+    <hyperlink ref="D1278" r:id="rId1277" xr:uid="{00000000-0004-0000-0000-0000FC040000}"/>
+    <hyperlink ref="D1279" r:id="rId1278" xr:uid="{00000000-0004-0000-0000-0000FD040000}"/>
+    <hyperlink ref="D1280" r:id="rId1279" xr:uid="{00000000-0004-0000-0000-0000FE040000}"/>
+    <hyperlink ref="D1281" r:id="rId1280" xr:uid="{00000000-0004-0000-0000-0000FF040000}"/>
+    <hyperlink ref="D1282" r:id="rId1281" xr:uid="{00000000-0004-0000-0000-000000050000}"/>
+    <hyperlink ref="D1283" r:id="rId1282" xr:uid="{00000000-0004-0000-0000-000001050000}"/>
+    <hyperlink ref="D1284" r:id="rId1283" xr:uid="{00000000-0004-0000-0000-000002050000}"/>
+    <hyperlink ref="D1285" r:id="rId1284" xr:uid="{00000000-0004-0000-0000-000003050000}"/>
+    <hyperlink ref="D1286" r:id="rId1285" xr:uid="{00000000-0004-0000-0000-000004050000}"/>
+    <hyperlink ref="D1287" r:id="rId1286" xr:uid="{00000000-0004-0000-0000-000005050000}"/>
+    <hyperlink ref="D1288" r:id="rId1287" xr:uid="{00000000-0004-0000-0000-000006050000}"/>
+    <hyperlink ref="D1289" r:id="rId1288" xr:uid="{00000000-0004-0000-0000-000007050000}"/>
+    <hyperlink ref="D1290" r:id="rId1289" xr:uid="{00000000-0004-0000-0000-000008050000}"/>
+    <hyperlink ref="D1291" r:id="rId1290" xr:uid="{00000000-0004-0000-0000-000009050000}"/>
+    <hyperlink ref="D1292" r:id="rId1291" xr:uid="{00000000-0004-0000-0000-00000A050000}"/>
+    <hyperlink ref="D1293" r:id="rId1292" xr:uid="{00000000-0004-0000-0000-00000B050000}"/>
+    <hyperlink ref="D1294" r:id="rId1293" xr:uid="{00000000-0004-0000-0000-00000C050000}"/>
+    <hyperlink ref="D1295" r:id="rId1294" xr:uid="{00000000-0004-0000-0000-00000D050000}"/>
+    <hyperlink ref="D1296" r:id="rId1295" xr:uid="{00000000-0004-0000-0000-00000E050000}"/>
+    <hyperlink ref="D1297" r:id="rId1296" xr:uid="{00000000-0004-0000-0000-00000F050000}"/>
+    <hyperlink ref="D1298" r:id="rId1297" xr:uid="{00000000-0004-0000-0000-000010050000}"/>
+    <hyperlink ref="D1299" r:id="rId1298" xr:uid="{00000000-0004-0000-0000-000011050000}"/>
+    <hyperlink ref="D1300" r:id="rId1299" xr:uid="{00000000-0004-0000-0000-000012050000}"/>
+    <hyperlink ref="D1301" r:id="rId1300" xr:uid="{00000000-0004-0000-0000-000013050000}"/>
+    <hyperlink ref="D1302" r:id="rId1301" xr:uid="{00000000-0004-0000-0000-000014050000}"/>
+    <hyperlink ref="D1303" r:id="rId1302" xr:uid="{00000000-0004-0000-0000-000015050000}"/>
+    <hyperlink ref="D1304" r:id="rId1303" xr:uid="{00000000-0004-0000-0000-000016050000}"/>
+    <hyperlink ref="D1305" r:id="rId1304" xr:uid="{00000000-0004-0000-0000-000017050000}"/>
+    <hyperlink ref="D1306" r:id="rId1305" xr:uid="{00000000-0004-0000-0000-000018050000}"/>
+    <hyperlink ref="D1307" r:id="rId1306" xr:uid="{00000000-0004-0000-0000-000019050000}"/>
+    <hyperlink ref="D1308" r:id="rId1307" xr:uid="{00000000-0004-0000-0000-00001A050000}"/>
+    <hyperlink ref="D1309" r:id="rId1308" xr:uid="{00000000-0004-0000-0000-00001B050000}"/>
+    <hyperlink ref="D1310" r:id="rId1309" xr:uid="{00000000-0004-0000-0000-00001C050000}"/>
+    <hyperlink ref="D1311" r:id="rId1310" xr:uid="{00000000-0004-0000-0000-00001D050000}"/>
+    <hyperlink ref="D1312" r:id="rId1311" xr:uid="{00000000-0004-0000-0000-00001E050000}"/>
+    <hyperlink ref="D1313" r:id="rId1312" xr:uid="{00000000-0004-0000-0000-00001F050000}"/>
+    <hyperlink ref="D1314" r:id="rId1313" xr:uid="{00000000-0004-0000-0000-000020050000}"/>
+    <hyperlink ref="D1315" r:id="rId1314" xr:uid="{00000000-0004-0000-0000-000021050000}"/>
+    <hyperlink ref="D1316" r:id="rId1315" xr:uid="{00000000-0004-0000-0000-000022050000}"/>
+    <hyperlink ref="D1317" r:id="rId1316" xr:uid="{00000000-0004-0000-0000-000023050000}"/>
+    <hyperlink ref="D1318" r:id="rId1317" xr:uid="{00000000-0004-0000-0000-000024050000}"/>
+    <hyperlink ref="D1319" r:id="rId1318" xr:uid="{00000000-0004-0000-0000-000025050000}"/>
+    <hyperlink ref="D1320" r:id="rId1319" xr:uid="{00000000-0004-0000-0000-000026050000}"/>
+    <hyperlink ref="D1321" r:id="rId1320" xr:uid="{00000000-0004-0000-0000-000027050000}"/>
+    <hyperlink ref="D1322" r:id="rId1321" xr:uid="{00000000-0004-0000-0000-000028050000}"/>
+    <hyperlink ref="D1323" r:id="rId1322" xr:uid="{00000000-0004-0000-0000-000029050000}"/>
+    <hyperlink ref="D1324" r:id="rId1323" xr:uid="{00000000-0004-0000-0000-00002A050000}"/>
+    <hyperlink ref="D1325" r:id="rId1324" xr:uid="{00000000-0004-0000-0000-00002B050000}"/>
+    <hyperlink ref="D1326" r:id="rId1325" xr:uid="{00000000-0004-0000-0000-00002C050000}"/>
+    <hyperlink ref="D1327" r:id="rId1326" xr:uid="{00000000-0004-0000-0000-00002D050000}"/>
+    <hyperlink ref="D1328" r:id="rId1327" xr:uid="{00000000-0004-0000-0000-00002E050000}"/>
+    <hyperlink ref="D1329" r:id="rId1328" xr:uid="{00000000-0004-0000-0000-00002F050000}"/>
+    <hyperlink ref="D1330" r:id="rId1329" xr:uid="{00000000-0004-0000-0000-000030050000}"/>
+    <hyperlink ref="D1331" r:id="rId1330" xr:uid="{00000000-0004-0000-0000-000031050000}"/>
+    <hyperlink ref="D1332" r:id="rId1331" xr:uid="{00000000-0004-0000-0000-000032050000}"/>
+    <hyperlink ref="D1333" r:id="rId1332" xr:uid="{00000000-0004-0000-0000-000033050000}"/>
+    <hyperlink ref="D1334" r:id="rId1333" xr:uid="{00000000-0004-0000-0000-000034050000}"/>
+    <hyperlink ref="D1335" r:id="rId1334" xr:uid="{00000000-0004-0000-0000-000035050000}"/>
+    <hyperlink ref="D1336" r:id="rId1335" xr:uid="{00000000-0004-0000-0000-000036050000}"/>
+    <hyperlink ref="D1337" r:id="rId1336" xr:uid="{00000000-0004-0000-0000-000037050000}"/>
+    <hyperlink ref="D1338" r:id="rId1337" xr:uid="{00000000-0004-0000-0000-000038050000}"/>
+    <hyperlink ref="D1339" r:id="rId1338" xr:uid="{00000000-0004-0000-0000-000039050000}"/>
+    <hyperlink ref="D1340" r:id="rId1339" xr:uid="{00000000-0004-0000-0000-00003A050000}"/>
+    <hyperlink ref="D1341" r:id="rId1340" xr:uid="{00000000-0004-0000-0000-00003B050000}"/>
+    <hyperlink ref="D1342" r:id="rId1341" xr:uid="{00000000-0004-0000-0000-00003C050000}"/>
+    <hyperlink ref="D1343" r:id="rId1342" xr:uid="{00000000-0004-0000-0000-00003D050000}"/>
+    <hyperlink ref="D1344" r:id="rId1343" xr:uid="{00000000-0004-0000-0000-00003E050000}"/>
+    <hyperlink ref="D1345" r:id="rId1344" xr:uid="{00000000-0004-0000-0000-00003F050000}"/>
+    <hyperlink ref="D1346" r:id="rId1345" xr:uid="{00000000-0004-0000-0000-000040050000}"/>
+    <hyperlink ref="D1347" r:id="rId1346" xr:uid="{00000000-0004-0000-0000-000041050000}"/>
+    <hyperlink ref="D1348" r:id="rId1347" xr:uid="{00000000-0004-0000-0000-000042050000}"/>
+    <hyperlink ref="D1349" r:id="rId1348" xr:uid="{00000000-0004-0000-0000-000043050000}"/>
+    <hyperlink ref="D1350" r:id="rId1349" xr:uid="{00000000-0004-0000-0000-000044050000}"/>
+    <hyperlink ref="D1351" r:id="rId1350" xr:uid="{00000000-0004-0000-0000-000045050000}"/>
+    <hyperlink ref="D1352" r:id="rId1351" xr:uid="{00000000-0004-0000-0000-000046050000}"/>
+    <hyperlink ref="D1353" r:id="rId1352" xr:uid="{00000000-0004-0000-0000-000047050000}"/>
+    <hyperlink ref="D1354" r:id="rId1353" xr:uid="{00000000-0004-0000-0000-000048050000}"/>
+    <hyperlink ref="D1355" r:id="rId1354" xr:uid="{00000000-0004-0000-0000-000049050000}"/>
+    <hyperlink ref="D1356" r:id="rId1355" xr:uid="{00000000-0004-0000-0000-00004A050000}"/>
+    <hyperlink ref="D1357" r:id="rId1356" xr:uid="{00000000-0004-0000-0000-00004B050000}"/>
+    <hyperlink ref="D1358" r:id="rId1357" xr:uid="{00000000-0004-0000-0000-00004C050000}"/>
+    <hyperlink ref="D1359" r:id="rId1358" xr:uid="{00000000-0004-0000-0000-00004D050000}"/>
+    <hyperlink ref="D1360" r:id="rId1359" xr:uid="{00000000-0004-0000-0000-00004E050000}"/>
+    <hyperlink ref="D1361" r:id="rId1360" xr:uid="{00000000-0004-0000-0000-00004F050000}"/>
+    <hyperlink ref="D1362" r:id="rId1361" xr:uid="{00000000-0004-0000-0000-000050050000}"/>
+    <hyperlink ref="D1363" r:id="rId1362" xr:uid="{00000000-0004-0000-0000-000051050000}"/>
+    <hyperlink ref="D1364" r:id="rId1363" xr:uid="{00000000-0004-0000-0000-000052050000}"/>
+    <hyperlink ref="D1365" r:id="rId1364" xr:uid="{00000000-0004-0000-0000-000053050000}"/>
+    <hyperlink ref="D1366" r:id="rId1365" xr:uid="{00000000-0004-0000-0000-000054050000}"/>
+    <hyperlink ref="D1367" r:id="rId1366" xr:uid="{00000000-0004-0000-0000-000055050000}"/>
+    <hyperlink ref="D1368" r:id="rId1367" xr:uid="{00000000-0004-0000-0000-000056050000}"/>
+    <hyperlink ref="D1369" r:id="rId1368" xr:uid="{00000000-0004-0000-0000-000057050000}"/>
+    <hyperlink ref="D1370" r:id="rId1369" xr:uid="{00000000-0004-0000-0000-000058050000}"/>
+    <hyperlink ref="D1371" r:id="rId1370" xr:uid="{00000000-0004-0000-0000-000059050000}"/>
+    <hyperlink ref="D1372" r:id="rId1371" xr:uid="{00000000-0004-0000-0000-00005A050000}"/>
+    <hyperlink ref="D1373" r:id="rId1372" xr:uid="{00000000-0004-0000-0000-00005B050000}"/>
+    <hyperlink ref="D1374" r:id="rId1373" xr:uid="{00000000-0004-0000-0000-00005C050000}"/>
+    <hyperlink ref="D1375" r:id="rId1374" xr:uid="{00000000-0004-0000-0000-00005D050000}"/>
+    <hyperlink ref="D1376" r:id="rId1375" xr:uid="{00000000-0004-0000-0000-00005E050000}"/>
+    <hyperlink ref="D1377" r:id="rId1376" xr:uid="{00000000-0004-0000-0000-00005F050000}"/>
+    <hyperlink ref="D1378" r:id="rId1377" xr:uid="{00000000-0004-0000-0000-000060050000}"/>
+    <hyperlink ref="D1379" r:id="rId1378" xr:uid="{00000000-0004-0000-0000-000061050000}"/>
+    <hyperlink ref="D1380" r:id="rId1379" xr:uid="{00000000-0004-0000-0000-000062050000}"/>
+    <hyperlink ref="D1381" r:id="rId1380" xr:uid="{00000000-0004-0000-0000-000063050000}"/>
+    <hyperlink ref="D1382" r:id="rId1381" xr:uid="{00000000-0004-0000-0000-000064050000}"/>
+    <hyperlink ref="D1383" r:id="rId1382" xr:uid="{00000000-0004-0000-0000-000065050000}"/>
+    <hyperlink ref="D1384" r:id="rId1383" xr:uid="{00000000-0004-0000-0000-000066050000}"/>
+    <hyperlink ref="D1385" r:id="rId1384" xr:uid="{00000000-0004-0000-0000-000067050000}"/>
+    <hyperlink ref="D1386" r:id="rId1385" xr:uid="{00000000-0004-0000-0000-000068050000}"/>
+    <hyperlink ref="D1387" r:id="rId1386" xr:uid="{00000000-0004-0000-0000-000069050000}"/>
+    <hyperlink ref="D1388" r:id="rId1387" xr:uid="{00000000-0004-0000-0000-00006A050000}"/>
+    <hyperlink ref="D1389" r:id="rId1388" xr:uid="{00000000-0004-0000-0000-00006B050000}"/>
+    <hyperlink ref="D1390" r:id="rId1389" xr:uid="{00000000-0004-0000-0000-00006C050000}"/>
+    <hyperlink ref="D1391" r:id="rId1390" xr:uid="{00000000-0004-0000-0000-00006D050000}"/>
+    <hyperlink ref="D1392" r:id="rId1391" xr:uid="{00000000-0004-0000-0000-00006E050000}"/>
+    <hyperlink ref="D1394" r:id="rId1392" xr:uid="{00000000-0004-0000-0000-00006F050000}"/>
+    <hyperlink ref="D1395" r:id="rId1393" xr:uid="{00000000-0004-0000-0000-000070050000}"/>
+    <hyperlink ref="D1396" r:id="rId1394" xr:uid="{00000000-0004-0000-0000-000071050000}"/>
+    <hyperlink ref="D1397" r:id="rId1395" xr:uid="{00000000-0004-0000-0000-000072050000}"/>
+    <hyperlink ref="D1398" r:id="rId1396" xr:uid="{00000000-0004-0000-0000-000073050000}"/>
+    <hyperlink ref="D1399" r:id="rId1397" xr:uid="{00000000-0004-0000-0000-000074050000}"/>
+    <hyperlink ref="D1400" r:id="rId1398" xr:uid="{00000000-0004-0000-0000-000075050000}"/>
+    <hyperlink ref="D1401" r:id="rId1399" xr:uid="{00000000-0004-0000-0000-000076050000}"/>
+    <hyperlink ref="D1402" r:id="rId1400" xr:uid="{00000000-0004-0000-0000-000077050000}"/>
+    <hyperlink ref="D1403" r:id="rId1401" xr:uid="{00000000-0004-0000-0000-000078050000}"/>
+    <hyperlink ref="D1404" r:id="rId1402" xr:uid="{00000000-0004-0000-0000-000079050000}"/>
+    <hyperlink ref="D1405" r:id="rId1403" xr:uid="{00000000-0004-0000-0000-00007A050000}"/>
+    <hyperlink ref="D1406" r:id="rId1404" xr:uid="{00000000-0004-0000-0000-00007B050000}"/>
+    <hyperlink ref="D1407" r:id="rId1405" xr:uid="{00000000-0004-0000-0000-00007C050000}"/>
+    <hyperlink ref="D1408" r:id="rId1406" xr:uid="{00000000-0004-0000-0000-00007D050000}"/>
+    <hyperlink ref="D1409" r:id="rId1407" xr:uid="{00000000-0004-0000-0000-00007E050000}"/>
+    <hyperlink ref="D1410" r:id="rId1408" xr:uid="{00000000-0004-0000-0000-00007F050000}"/>
+    <hyperlink ref="D1411" r:id="rId1409" xr:uid="{00000000-0004-0000-0000-000080050000}"/>
+    <hyperlink ref="D1412" r:id="rId1410" xr:uid="{00000000-0004-0000-0000-000081050000}"/>
+    <hyperlink ref="D1413" r:id="rId1411" xr:uid="{00000000-0004-0000-0000-000082050000}"/>
+    <hyperlink ref="D1414" r:id="rId1412" xr:uid="{00000000-0004-0000-0000-000083050000}"/>
+    <hyperlink ref="D1415" r:id="rId1413" xr:uid="{00000000-0004-0000-0000-000084050000}"/>
+    <hyperlink ref="D1416" r:id="rId1414" xr:uid="{00000000-0004-0000-0000-000085050000}"/>
+    <hyperlink ref="D1417" r:id="rId1415" xr:uid="{00000000-0004-0000-0000-000086050000}"/>
+    <hyperlink ref="D1418" r:id="rId1416" xr:uid="{00000000-0004-0000-0000-000087050000}"/>
+    <hyperlink ref="D1419" r:id="rId1417" xr:uid="{00000000-0004-0000-0000-000088050000}"/>
+    <hyperlink ref="D1420" r:id="rId1418" xr:uid="{00000000-0004-0000-0000-000089050000}"/>
+    <hyperlink ref="D1421" r:id="rId1419" xr:uid="{00000000-0004-0000-0000-00008A050000}"/>
+    <hyperlink ref="D1422" r:id="rId1420" xr:uid="{00000000-0004-0000-0000-00008B050000}"/>
+    <hyperlink ref="D1423" r:id="rId1421" xr:uid="{00000000-0004-0000-0000-00008C050000}"/>
+    <hyperlink ref="D1424" r:id="rId1422" xr:uid="{00000000-0004-0000-0000-00008D050000}"/>
+    <hyperlink ref="D1425" r:id="rId1423" xr:uid="{00000000-0004-0000-0000-00008E050000}"/>
+    <hyperlink ref="D1426" r:id="rId1424" xr:uid="{00000000-0004-0000-0000-00008F050000}"/>
+    <hyperlink ref="D1427" r:id="rId1425" xr:uid="{00000000-0004-0000-0000-000090050000}"/>
+    <hyperlink ref="D1428" r:id="rId1426" xr:uid="{00000000-0004-0000-0000-000091050000}"/>
+    <hyperlink ref="D1429" r:id="rId1427" xr:uid="{00000000-0004-0000-0000-000092050000}"/>
+    <hyperlink ref="D1430" r:id="rId1428" xr:uid="{00000000-0004-0000-0000-000093050000}"/>
+    <hyperlink ref="D1431" r:id="rId1429" xr:uid="{00000000-0004-0000-0000-000094050000}"/>
+    <hyperlink ref="D1432" r:id="rId1430" xr:uid="{00000000-0004-0000-0000-000095050000}"/>
+    <hyperlink ref="D1433" r:id="rId1431" xr:uid="{00000000-0004-0000-0000-000096050000}"/>
+    <hyperlink ref="D1434" r:id="rId1432" xr:uid="{00000000-0004-0000-0000-000097050000}"/>
+    <hyperlink ref="D1435" r:id="rId1433" xr:uid="{00000000-0004-0000-0000-000098050000}"/>
+    <hyperlink ref="D1436" r:id="rId1434" xr:uid="{00000000-0004-0000-0000-000099050000}"/>
+    <hyperlink ref="D1437" r:id="rId1435" xr:uid="{00000000-0004-0000-0000-00009A050000}"/>
+    <hyperlink ref="D1438" r:id="rId1436" xr:uid="{00000000-0004-0000-0000-00009B050000}"/>
+    <hyperlink ref="D1439" r:id="rId1437" xr:uid="{00000000-0004-0000-0000-00009C050000}"/>
+    <hyperlink ref="D1440" r:id="rId1438" xr:uid="{00000000-0004-0000-0000-00009D050000}"/>
+    <hyperlink ref="D1441" r:id="rId1439" xr:uid="{00000000-0004-0000-0000-00009E050000}"/>
+    <hyperlink ref="D1442" r:id="rId1440" xr:uid="{00000000-0004-0000-0000-00009F050000}"/>
+    <hyperlink ref="D1443" r:id="rId1441" xr:uid="{00000000-0004-0000-0000-0000A0050000}"/>
+    <hyperlink ref="D1444" r:id="rId1442" xr:uid="{00000000-0004-0000-0000-0000A1050000}"/>
+    <hyperlink ref="D1445" r:id="rId1443" xr:uid="{00000000-0004-0000-0000-0000A2050000}"/>
+    <hyperlink ref="D1446" r:id="rId1444" xr:uid="{00000000-0004-0000-0000-0000A3050000}"/>
+    <hyperlink ref="D1447" r:id="rId1445" xr:uid="{00000000-0004-0000-0000-0000A4050000}"/>
+    <hyperlink ref="D1448" r:id="rId1446" xr:uid="{00000000-0004-0000-0000-0000A5050000}"/>
+    <hyperlink ref="D1449" r:id="rId1447" xr:uid="{00000000-0004-0000-0000-0000A6050000}"/>
+    <hyperlink ref="D1450" r:id="rId1448" xr:uid="{00000000-0004-0000-0000-0000A7050000}"/>
+    <hyperlink ref="D1451" r:id="rId1449" xr:uid="{00000000-0004-0000-0000-0000A8050000}"/>
+    <hyperlink ref="D1452" r:id="rId1450" xr:uid="{00000000-0004-0000-0000-0000A9050000}"/>
+    <hyperlink ref="D1453" r:id="rId1451" xr:uid="{00000000-0004-0000-0000-0000AA050000}"/>
+    <hyperlink ref="D1454" r:id="rId1452" xr:uid="{00000000-0004-0000-0000-0000AB050000}"/>
+    <hyperlink ref="D1455" r:id="rId1453" xr:uid="{00000000-0004-0000-0000-0000AC050000}"/>
+    <hyperlink ref="D1456" r:id="rId1454" xr:uid="{00000000-0004-0000-0000-0000AD050000}"/>
+    <hyperlink ref="D1457" r:id="rId1455" xr:uid="{00000000-0004-0000-0000-0000AE050000}"/>
+    <hyperlink ref="D1458" r:id="rId1456" xr:uid="{00000000-0004-0000-0000-0000AF050000}"/>
+    <hyperlink ref="D1459" r:id="rId1457" xr:uid="{00000000-0004-0000-0000-0000B0050000}"/>
+    <hyperlink ref="D1460" r:id="rId1458" xr:uid="{00000000-0004-0000-0000-0000B1050000}"/>
+    <hyperlink ref="D1461" r:id="rId1459" xr:uid="{00000000-0004-0000-0000-0000B2050000}"/>
+    <hyperlink ref="D1462" r:id="rId1460" xr:uid="{00000000-0004-0000-0000-0000B3050000}"/>
+    <hyperlink ref="D1463" r:id="rId1461" xr:uid="{00000000-0004-0000-0000-0000B4050000}"/>
+    <hyperlink ref="D1464" r:id="rId1462" xr:uid="{00000000-0004-0000-0000-0000B5050000}"/>
+    <hyperlink ref="D1465" r:id="rId1463" xr:uid="{00000000-0004-0000-0000-0000B6050000}"/>
+    <hyperlink ref="D1466" r:id="rId1464" xr:uid="{00000000-0004-0000-0000-0000B7050000}"/>
+    <hyperlink ref="D1467" r:id="rId1465" xr:uid="{00000000-0004-0000-0000-0000B8050000}"/>
+    <hyperlink ref="D1468" r:id="rId1466" xr:uid="{00000000-0004-0000-0000-0000B9050000}"/>
+    <hyperlink ref="D1469" r:id="rId1467" xr:uid="{00000000-0004-0000-0000-0000BA050000}"/>
+    <hyperlink ref="D1470" r:id="rId1468" xr:uid="{00000000-0004-0000-0000-0000BB050000}"/>
+    <hyperlink ref="D1471" r:id="rId1469" xr:uid="{00000000-0004-0000-0000-0000BC050000}"/>
+    <hyperlink ref="D1472" r:id="rId1470" xr:uid="{00000000-0004-0000-0000-0000BD050000}"/>
+    <hyperlink ref="D1473" r:id="rId1471" xr:uid="{00000000-0004-0000-0000-0000BE050000}"/>
+    <hyperlink ref="D1474" r:id="rId1472" xr:uid="{00000000-0004-0000-0000-0000BF050000}"/>
+    <hyperlink ref="D1475" r:id="rId1473" xr:uid="{00000000-0004-0000-0000-0000C0050000}"/>
+    <hyperlink ref="D1476" r:id="rId1474" xr:uid="{00000000-0004-0000-0000-0000C1050000}"/>
+    <hyperlink ref="D1477" r:id="rId1475" xr:uid="{00000000-0004-0000-0000-0000C2050000}"/>
+    <hyperlink ref="D1478" r:id="rId1476" xr:uid="{00000000-0004-0000-0000-0000C3050000}"/>
+    <hyperlink ref="D1479" r:id="rId1477" xr:uid="{00000000-0004-0000-0000-0000C4050000}"/>
+    <hyperlink ref="D1480" r:id="rId1478" xr:uid="{00000000-0004-0000-0000-0000C5050000}"/>
+    <hyperlink ref="D1481" r:id="rId1479" xr:uid="{00000000-0004-0000-0000-0000C6050000}"/>
+    <hyperlink ref="D1482" r:id="rId1480" xr:uid="{00000000-0004-0000-0000-0000C7050000}"/>
+    <hyperlink ref="D1483" r:id="rId1481" xr:uid="{00000000-0004-0000-0000-0000C8050000}"/>
+    <hyperlink ref="D1484" r:id="rId1482" xr:uid="{00000000-0004-0000-0000-0000C9050000}"/>
+    <hyperlink ref="D1485" r:id="rId1483" xr:uid="{00000000-0004-0000-0000-0000CA050000}"/>
+    <hyperlink ref="D1486" r:id="rId1484" xr:uid="{00000000-0004-0000-0000-0000CB050000}"/>
+    <hyperlink ref="D1487" r:id="rId1485" xr:uid="{00000000-0004-0000-0000-0000CC050000}"/>
+    <hyperlink ref="D1488" r:id="rId1486" xr:uid="{00000000-0004-0000-0000-0000CD050000}"/>
+    <hyperlink ref="D1489" r:id="rId1487" xr:uid="{00000000-0004-0000-0000-0000CE050000}"/>
+    <hyperlink ref="D1490" r:id="rId1488" xr:uid="{00000000-0004-0000-0000-0000CF050000}"/>
+    <hyperlink ref="D1491" r:id="rId1489" xr:uid="{00000000-0004-0000-0000-0000D0050000}"/>
+    <hyperlink ref="D1492" r:id="rId1490" xr:uid="{00000000-0004-0000-0000-0000D1050000}"/>
+    <hyperlink ref="D1493" r:id="rId1491" xr:uid="{00000000-0004-0000-0000-0000D2050000}"/>
+    <hyperlink ref="D1494" r:id="rId1492" xr:uid="{00000000-0004-0000-0000-0000D3050000}"/>
+    <hyperlink ref="D1495" r:id="rId1493" xr:uid="{00000000-0004-0000-0000-0000D4050000}"/>
+    <hyperlink ref="D1496" r:id="rId1494" xr:uid="{00000000-0004-0000-0000-0000D5050000}"/>
+    <hyperlink ref="D1497" r:id="rId1495" xr:uid="{00000000-0004-0000-0000-0000D6050000}"/>
+    <hyperlink ref="D1498" r:id="rId1496" xr:uid="{00000000-0004-0000-0000-0000D7050000}"/>
+    <hyperlink ref="D1499" r:id="rId1497" xr:uid="{00000000-0004-0000-0000-0000D8050000}"/>
+    <hyperlink ref="D1500" r:id="rId1498" xr:uid="{00000000-0004-0000-0000-0000D9050000}"/>
+    <hyperlink ref="D1501" r:id="rId1499" xr:uid="{00000000-0004-0000-0000-0000DA050000}"/>
+    <hyperlink ref="D1502" r:id="rId1500" xr:uid="{00000000-0004-0000-0000-0000DB050000}"/>
+    <hyperlink ref="D1503" r:id="rId1501" xr:uid="{00000000-0004-0000-0000-0000DC050000}"/>
+    <hyperlink ref="D1504" r:id="rId1502" xr:uid="{00000000-0004-0000-0000-0000DD050000}"/>
+    <hyperlink ref="D1505" r:id="rId1503" xr:uid="{00000000-0004-0000-0000-0000DE050000}"/>
+    <hyperlink ref="D1506" r:id="rId1504" xr:uid="{00000000-0004-0000-0000-0000DF050000}"/>
+    <hyperlink ref="D1507" r:id="rId1505" xr:uid="{00000000-0004-0000-0000-0000E0050000}"/>
+    <hyperlink ref="D1508" r:id="rId1506" xr:uid="{00000000-0004-0000-0000-0000E1050000}"/>
+    <hyperlink ref="D1509" r:id="rId1507" xr:uid="{00000000-0004-0000-0000-0000E2050000}"/>
+    <hyperlink ref="D1510" r:id="rId1508" xr:uid="{00000000-0004-0000-0000-0000E3050000}"/>
+    <hyperlink ref="D1511" r:id="rId1509" xr:uid="{00000000-0004-0000-0000-0000E4050000}"/>
+    <hyperlink ref="D1512" r:id="rId1510" xr:uid="{00000000-0004-0000-0000-0000E5050000}"/>
+    <hyperlink ref="D1513" r:id="rId1511" xr:uid="{00000000-0004-0000-0000-0000E6050000}"/>
+    <hyperlink ref="D1514" r:id="rId1512" xr:uid="{00000000-0004-0000-0000-0000E7050000}"/>
+    <hyperlink ref="D1515" r:id="rId1513" xr:uid="{00000000-0004-0000-0000-0000E8050000}"/>
+    <hyperlink ref="D1516" r:id="rId1514" xr:uid="{00000000-0004-0000-0000-0000E9050000}"/>
+    <hyperlink ref="D1517" r:id="rId1515" xr:uid="{00000000-0004-0000-0000-0000EA050000}"/>
+    <hyperlink ref="D1518" r:id="rId1516" xr:uid="{00000000-0004-0000-0000-0000EB050000}"/>
+    <hyperlink ref="D1519" r:id="rId1517" xr:uid="{00000000-0004-0000-0000-0000EC050000}"/>
+    <hyperlink ref="D1520" r:id="rId1518" xr:uid="{00000000-0004-0000-0000-0000ED050000}"/>
+    <hyperlink ref="D1521" r:id="rId1519" xr:uid="{00000000-0004-0000-0000-0000EE050000}"/>
+    <hyperlink ref="D1522" r:id="rId1520" xr:uid="{00000000-0004-0000-0000-0000EF050000}"/>
+    <hyperlink ref="D1523" r:id="rId1521" xr:uid="{00000000-0004-0000-0000-0000F0050000}"/>
+    <hyperlink ref="D1524" r:id="rId1522" xr:uid="{00000000-0004-0000-0000-0000F1050000}"/>
+    <hyperlink ref="D1525" r:id="rId1523" xr:uid="{00000000-0004-0000-0000-0000F2050000}"/>
+    <hyperlink ref="D1526" r:id="rId1524" xr:uid="{00000000-0004-0000-0000-0000F3050000}"/>
+    <hyperlink ref="D1527" r:id="rId1525" xr:uid="{00000000-0004-0000-0000-0000F4050000}"/>
+    <hyperlink ref="D1528" r:id="rId1526" xr:uid="{00000000-0004-0000-0000-0000F5050000}"/>
+    <hyperlink ref="D1529" r:id="rId1527" xr:uid="{00000000-0004-0000-0000-0000F6050000}"/>
+    <hyperlink ref="D1530" r:id="rId1528" xr:uid="{00000000-0004-0000-0000-0000F7050000}"/>
+    <hyperlink ref="D1531" r:id="rId1529" xr:uid="{00000000-0004-0000-0000-0000F8050000}"/>
+    <hyperlink ref="D1532" r:id="rId1530" xr:uid="{00000000-0004-0000-0000-0000F9050000}"/>
+    <hyperlink ref="D1533" r:id="rId1531" xr:uid="{00000000-0004-0000-0000-0000FA050000}"/>
+    <hyperlink ref="D1534" r:id="rId1532" xr:uid="{00000000-0004-0000-0000-0000FB050000}"/>
+    <hyperlink ref="D1535" r:id="rId1533" xr:uid="{00000000-0004-0000-0000-0000FC050000}"/>
+    <hyperlink ref="D1536" r:id="rId1534" xr:uid="{00000000-0004-0000-0000-0000FD050000}"/>
+    <hyperlink ref="D1537" r:id="rId1535" xr:uid="{00000000-0004-0000-0000-0000FE050000}"/>
+    <hyperlink ref="D1538" r:id="rId1536" xr:uid="{00000000-0004-0000-0000-0000FF050000}"/>
+    <hyperlink ref="D1539" r:id="rId1537" xr:uid="{00000000-0004-0000-0000-000000060000}"/>
+    <hyperlink ref="D1540" r:id="rId1538" xr:uid="{00000000-0004-0000-0000-000001060000}"/>
+    <hyperlink ref="D1541" r:id="rId1539" xr:uid="{00000000-0004-0000-0000-000002060000}"/>
+    <hyperlink ref="D1542" r:id="rId1540" xr:uid="{00000000-0004-0000-0000-000003060000}"/>
+    <hyperlink ref="D1543" r:id="rId1541" xr:uid="{00000000-0004-0000-0000-000004060000}"/>
+    <hyperlink ref="D1544" r:id="rId1542" xr:uid="{00000000-0004-0000-0000-000005060000}"/>
+    <hyperlink ref="D1545" r:id="rId1543" xr:uid="{00000000-0004-0000-0000-000006060000}"/>
+    <hyperlink ref="D1546" r:id="rId1544" xr:uid="{00000000-0004-0000-0000-000007060000}"/>
+    <hyperlink ref="D1547" r:id="rId1545" xr:uid="{00000000-0004-0000-0000-000008060000}"/>
+    <hyperlink ref="D1548" r:id="rId1546" xr:uid="{00000000-0004-0000-0000-000009060000}"/>
+    <hyperlink ref="D1549" r:id="rId1547" xr:uid="{00000000-0004-0000-0000-00000A060000}"/>
+    <hyperlink ref="D1550" r:id="rId1548" xr:uid="{00000000-0004-0000-0000-00000B060000}"/>
+    <hyperlink ref="D1551" r:id="rId1549" xr:uid="{00000000-0004-0000-0000-00000C060000}"/>
+    <hyperlink ref="D1552" r:id="rId1550" xr:uid="{00000000-0004-0000-0000-00000D060000}"/>
+    <hyperlink ref="D1553" r:id="rId1551" xr:uid="{00000000-0004-0000-0000-00000E060000}"/>
+    <hyperlink ref="D1554" r:id="rId1552" xr:uid="{00000000-0004-0000-0000-00000F060000}"/>
+    <hyperlink ref="D1555" r:id="rId1553" xr:uid="{00000000-0004-0000-0000-000010060000}"/>
+    <hyperlink ref="D1556" r:id="rId1554" xr:uid="{00000000-0004-0000-0000-000011060000}"/>
+    <hyperlink ref="D1557" r:id="rId1555" xr:uid="{00000000-0004-0000-0000-000012060000}"/>
+    <hyperlink ref="D1558" r:id="rId1556" xr:uid="{00000000-0004-0000-0000-000013060000}"/>
+    <hyperlink ref="D1559" r:id="rId1557" xr:uid="{00000000-0004-0000-0000-000014060000}"/>
+    <hyperlink ref="D1560" r:id="rId1558" xr:uid="{00000000-0004-0000-0000-000015060000}"/>
+    <hyperlink ref="D1561" r:id="rId1559" xr:uid="{00000000-0004-0000-0000-000016060000}"/>
+    <hyperlink ref="D1562" r:id="rId1560" xr:uid="{00000000-0004-0000-0000-000017060000}"/>
+    <hyperlink ref="D1563" r:id="rId1561" xr:uid="{00000000-0004-0000-0000-000018060000}"/>
+    <hyperlink ref="D1564" r:id="rId1562" xr:uid="{00000000-0004-0000-0000-000019060000}"/>
+    <hyperlink ref="D1565" r:id="rId1563" xr:uid="{00000000-0004-0000-0000-00001A060000}"/>
+    <hyperlink ref="D1566" r:id="rId1564" xr:uid="{00000000-0004-0000-0000-00001B060000}"/>
+    <hyperlink ref="D1567" r:id="rId1565" xr:uid="{00000000-0004-0000-0000-00001C060000}"/>
+    <hyperlink ref="D1568" r:id="rId1566" xr:uid="{00000000-0004-0000-0000-00001D060000}"/>
+    <hyperlink ref="D1569" r:id="rId1567" xr:uid="{00000000-0004-0000-0000-00001E060000}"/>
+    <hyperlink ref="D1570" r:id="rId1568" xr:uid="{00000000-0004-0000-0000-00001F060000}"/>
+    <hyperlink ref="D1571" r:id="rId1569" xr:uid="{00000000-0004-0000-0000-000020060000}"/>
+    <hyperlink ref="D1572" r:id="rId1570" xr:uid="{00000000-0004-0000-0000-000021060000}"/>
+    <hyperlink ref="D1573" r:id="rId1571" xr:uid="{00000000-0004-0000-0000-000022060000}"/>
+    <hyperlink ref="D1574" r:id="rId1572" xr:uid="{00000000-0004-0000-0000-000023060000}"/>
+    <hyperlink ref="D1575" r:id="rId1573" xr:uid="{00000000-0004-0000-0000-000024060000}"/>
+    <hyperlink ref="D1576" r:id="rId1574" xr:uid="{00000000-0004-0000-0000-000025060000}"/>
+    <hyperlink ref="D1577" r:id="rId1575" xr:uid="{00000000-0004-0000-0000-000026060000}"/>
+    <hyperlink ref="D1578" r:id="rId1576" xr:uid="{00000000-0004-0000-0000-000027060000}"/>
+    <hyperlink ref="D1579" r:id="rId1577" xr:uid="{00000000-0004-0000-0000-000028060000}"/>
+    <hyperlink ref="D1580" r:id="rId1578" xr:uid="{00000000-0004-0000-0000-000029060000}"/>
+    <hyperlink ref="D1581" r:id="rId1579" xr:uid="{00000000-0004-0000-0000-00002A060000}"/>
+    <hyperlink ref="D1582" r:id="rId1580" xr:uid="{00000000-0004-0000-0000-00002B060000}"/>
+    <hyperlink ref="D1583" r:id="rId1581" xr:uid="{00000000-0004-0000-0000-00002C060000}"/>
+    <hyperlink ref="D1584" r:id="rId1582" xr:uid="{00000000-0004-0000-0000-00002D060000}"/>
+    <hyperlink ref="D1585" r:id="rId1583" xr:uid="{00000000-0004-0000-0000-00002E060000}"/>
+    <hyperlink ref="D1586" r:id="rId1584" xr:uid="{00000000-0004-0000-0000-00002F060000}"/>
+    <hyperlink ref="D1587" r:id="rId1585" xr:uid="{00000000-0004-0000-0000-000030060000}"/>
+    <hyperlink ref="D1588" r:id="rId1586" xr:uid="{00000000-0004-0000-0000-000031060000}"/>
+    <hyperlink ref="D1589" r:id="rId1587" xr:uid="{00000000-0004-0000-0000-000032060000}"/>
+    <hyperlink ref="D1590" r:id="rId1588" xr:uid="{00000000-0004-0000-0000-000033060000}"/>
+    <hyperlink ref="D1591" r:id="rId1589" xr:uid="{00000000-0004-0000-0000-000034060000}"/>
+    <hyperlink ref="D1592" r:id="rId1590" xr:uid="{00000000-0004-0000-0000-000035060000}"/>
+    <hyperlink ref="D1593" r:id="rId1591" xr:uid="{00000000-0004-0000-0000-000036060000}"/>
+    <hyperlink ref="D1594" r:id="rId1592" xr:uid="{00000000-0004-0000-0000-000037060000}"/>
+    <hyperlink ref="D1595" r:id="rId1593" xr:uid="{00000000-0004-0000-0000-000038060000}"/>
+    <hyperlink ref="D1596" r:id="rId1594" xr:uid="{00000000-0004-0000-0000-000039060000}"/>
+    <hyperlink ref="D1597" r:id="rId1595" xr:uid="{00000000-0004-0000-0000-00003A060000}"/>
+    <hyperlink ref="D1598" r:id="rId1596" xr:uid="{00000000-0004-0000-0000-00003B060000}"/>
+    <hyperlink ref="D1599" r:id="rId1597" xr:uid="{00000000-0004-0000-0000-00003C060000}"/>
+    <hyperlink ref="D1600" r:id="rId1598" xr:uid="{00000000-0004-0000-0000-00003D060000}"/>
+    <hyperlink ref="D1601" r:id="rId1599" xr:uid="{00000000-0004-0000-0000-00003E060000}"/>
+    <hyperlink ref="D1602" r:id="rId1600" xr:uid="{00000000-0004-0000-0000-00003F060000}"/>
+    <hyperlink ref="D1603" r:id="rId1601" xr:uid="{00000000-0004-0000-0000-000040060000}"/>
+    <hyperlink ref="D1604" r:id="rId1602" xr:uid="{00000000-0004-0000-0000-000041060000}"/>
+    <hyperlink ref="D1605" r:id="rId1603" xr:uid="{00000000-0004-0000-0000-000042060000}"/>
+    <hyperlink ref="D1606" r:id="rId1604" xr:uid="{00000000-0004-0000-0000-000043060000}"/>
+    <hyperlink ref="D1607" r:id="rId1605" xr:uid="{00000000-0004-0000-0000-000044060000}"/>
+    <hyperlink ref="D1608" r:id="rId1606" xr:uid="{00000000-0004-0000-0000-000045060000}"/>
+    <hyperlink ref="D1609" r:id="rId1607" xr:uid="{00000000-0004-0000-0000-000046060000}"/>
+    <hyperlink ref="D1610" r:id="rId1608" xr:uid="{00000000-0004-0000-0000-000047060000}"/>
+    <hyperlink ref="D1611" r:id="rId1609" xr:uid="{00000000-0004-0000-0000-000048060000}"/>
+    <hyperlink ref="D1612" r:id="rId1610" xr:uid="{00000000-0004-0000-0000-000049060000}"/>
+    <hyperlink ref="D1613" r:id="rId1611" xr:uid="{00000000-0004-0000-0000-00004A060000}"/>
+    <hyperlink ref="D1614" r:id="rId1612" xr:uid="{00000000-0004-0000-0000-00004B060000}"/>
+    <hyperlink ref="D1615" r:id="rId1613" xr:uid="{00000000-0004-0000-0000-00004C060000}"/>
+    <hyperlink ref="D1616" r:id="rId1614" xr:uid="{00000000-0004-0000-0000-00004D060000}"/>
+    <hyperlink ref="D1617" r:id="rId1615" xr:uid="{00000000-0004-0000-0000-00004E060000}"/>
+    <hyperlink ref="D1618" r:id="rId1616" xr:uid="{00000000-0004-0000-0000-00004F060000}"/>
+    <hyperlink ref="D1619" r:id="rId1617" xr:uid="{00000000-0004-0000-0000-000050060000}"/>
+    <hyperlink ref="D1620" r:id="rId1618" xr:uid="{00000000-0004-0000-0000-000051060000}"/>
+    <hyperlink ref="D1621" r:id="rId1619" xr:uid="{00000000-0004-0000-0000-000052060000}"/>
+    <hyperlink ref="D1622" r:id="rId1620" xr:uid="{00000000-0004-0000-0000-000053060000}"/>
+    <hyperlink ref="D1623" r:id="rId1621" xr:uid="{00000000-0004-0000-0000-000054060000}"/>
+    <hyperlink ref="D1624" r:id="rId1622" xr:uid="{00000000-0004-0000-0000-000055060000}"/>
+    <hyperlink ref="D1625" r:id="rId1623" xr:uid="{00000000-0004-0000-0000-000056060000}"/>
+    <hyperlink ref="D1626" r:id="rId1624" xr:uid="{00000000-0004-0000-0000-000057060000}"/>
+    <hyperlink ref="D1627" r:id="rId1625" xr:uid="{00000000-0004-0000-0000-000058060000}"/>
+    <hyperlink ref="D1628" r:id="rId1626" xr:uid="{00000000-0004-0000-0000-000059060000}"/>
+    <hyperlink ref="D1629" r:id="rId1627" xr:uid="{00000000-0004-0000-0000-00005A060000}"/>
+    <hyperlink ref="D1630" r:id="rId1628" xr:uid="{00000000-0004-0000-0000-00005B060000}"/>
+    <hyperlink ref="D1631" r:id="rId1629" xr:uid="{00000000-0004-0000-0000-00005C060000}"/>
+    <hyperlink ref="D1632" r:id="rId1630" xr:uid="{00000000-0004-0000-0000-00005D060000}"/>
+    <hyperlink ref="D1633" r:id="rId1631" xr:uid="{00000000-0004-0000-0000-00005E060000}"/>
+    <hyperlink ref="D1634" r:id="rId1632" xr:uid="{00000000-0004-0000-0000-00005F060000}"/>
+    <hyperlink ref="D1635" r:id="rId1633" xr:uid="{00000000-0004-0000-0000-000060060000}"/>
+    <hyperlink ref="D1636" r:id="rId1634" xr:uid="{00000000-0004-0000-0000-000061060000}"/>
+    <hyperlink ref="D1637" r:id="rId1635" xr:uid="{00000000-0004-0000-0000-000062060000}"/>
+    <hyperlink ref="D1638" r:id="rId1636" xr:uid="{00000000-0004-0000-0000-000063060000}"/>
+    <hyperlink ref="D1639" r:id="rId1637" xr:uid="{00000000-0004-0000-0000-000064060000}"/>
+    <hyperlink ref="D1640" r:id="rId1638" xr:uid="{00000000-0004-0000-0000-000065060000}"/>
+    <hyperlink ref="D1641" r:id="rId1639" xr:uid="{00000000-0004-0000-0000-000066060000}"/>
+    <hyperlink ref="D1642" r:id="rId1640" xr:uid="{00000000-0004-0000-0000-000067060000}"/>
+    <hyperlink ref="D1643" r:id="rId1641" xr:uid="{00000000-0004-0000-0000-000068060000}"/>
+    <hyperlink ref="D1644" r:id="rId1642" xr:uid="{00000000-0004-0000-0000-000069060000}"/>
+    <hyperlink ref="D1645" r:id="rId1643" xr:uid="{00000000-0004-0000-0000-00006A060000}"/>
+    <hyperlink ref="D1646" r:id="rId1644" xr:uid="{00000000-0004-0000-0000-00006B060000}"/>
+    <hyperlink ref="D1647" r:id="rId1645" xr:uid="{00000000-0004-0000-0000-00006C060000}"/>
+    <hyperlink ref="D1648" r:id="rId1646" xr:uid="{00000000-0004-0000-0000-00006D060000}"/>
+    <hyperlink ref="D1649" r:id="rId1647" xr:uid="{00000000-0004-0000-0000-00006E060000}"/>
+    <hyperlink ref="D1650" r:id="rId1648" xr:uid="{00000000-0004-0000-0000-00006F060000}"/>
+    <hyperlink ref="D1651" r:id="rId1649" xr:uid="{00000000-0004-0000-0000-000070060000}"/>
+    <hyperlink ref="D1652" r:id="rId1650" xr:uid="{00000000-0004-0000-0000-000071060000}"/>
+    <hyperlink ref="D1653" r:id="rId1651" xr:uid="{00000000-0004-0000-0000-000072060000}"/>
+    <hyperlink ref="D1654" r:id="rId1652" xr:uid="{00000000-0004-0000-0000-000073060000}"/>
+    <hyperlink ref="D1655" r:id="rId1653" xr:uid="{00000000-0004-0000-0000-000074060000}"/>
+    <hyperlink ref="D1656" r:id="rId1654" xr:uid="{00000000-0004-0000-0000-000075060000}"/>
+    <hyperlink ref="D1657" r:id="rId1655" xr:uid="{00000000-0004-0000-0000-000076060000}"/>
+    <hyperlink ref="D1658" r:id="rId1656" xr:uid="{00000000-0004-0000-0000-000077060000}"/>
+    <hyperlink ref="D1659" r:id="rId1657" xr:uid="{00000000-0004-0000-0000-000078060000}"/>
+    <hyperlink ref="D1660" r:id="rId1658" xr:uid="{00000000-0004-0000-0000-000079060000}"/>
+    <hyperlink ref="D1661" r:id="rId1659" xr:uid="{00000000-0004-0000-0000-00007A060000}"/>
+    <hyperlink ref="D1662" r:id="rId1660" xr:uid="{00000000-0004-0000-0000-00007B060000}"/>
+    <hyperlink ref="D1663" r:id="rId1661" xr:uid="{00000000-0004-0000-0000-00007C060000}"/>
+    <hyperlink ref="D1664" r:id="rId1662" xr:uid="{00000000-0004-0000-0000-00007D060000}"/>
+    <hyperlink ref="D1665" r:id="rId1663" xr:uid="{00000000-0004-0000-0000-00007E060000}"/>
+    <hyperlink ref="D1666" r:id="rId1664" xr:uid="{00000000-0004-0000-0000-00007F060000}"/>
+    <hyperlink ref="D1667" r:id="rId1665" xr:uid="{00000000-0004-0000-0000-000080060000}"/>
+    <hyperlink ref="D1668" r:id="rId1666" xr:uid="{00000000-0004-0000-0000-000081060000}"/>
+    <hyperlink ref="D1669" r:id="rId1667" xr:uid="{00000000-0004-0000-0000-000082060000}"/>
+    <hyperlink ref="D1670" r:id="rId1668" xr:uid="{00000000-0004-0000-0000-000083060000}"/>
+    <hyperlink ref="D1671" r:id="rId1669" xr:uid="{00000000-0004-0000-0000-000084060000}"/>
+    <hyperlink ref="D1672" r:id="rId1670" xr:uid="{00000000-0004-0000-0000-000085060000}"/>
+    <hyperlink ref="D1673" r:id="rId1671" xr:uid="{00000000-0004-0000-0000-000086060000}"/>
+    <hyperlink ref="D1674" r:id="rId1672" xr:uid="{00000000-0004-0000-0000-000087060000}"/>
+    <hyperlink ref="D1675" r:id="rId1673" xr:uid="{00000000-0004-0000-0000-000088060000}"/>
+    <hyperlink ref="D1676" r:id="rId1674" xr:uid="{00000000-0004-0000-0000-000089060000}"/>
+    <hyperlink ref="D1677" r:id="rId1675" xr:uid="{00000000-0004-0000-0000-00008A060000}"/>
+    <hyperlink ref="D1678" r:id="rId1676" xr:uid="{00000000-0004-0000-0000-00008B060000}"/>
+    <hyperlink ref="D1679" r:id="rId1677" xr:uid="{00000000-0004-0000-0000-00008C060000}"/>
+    <hyperlink ref="D1680" r:id="rId1678" xr:uid="{00000000-0004-0000-0000-00008D060000}"/>
+    <hyperlink ref="D1681" r:id="rId1679" xr:uid="{00000000-0004-0000-0000-00008E060000}"/>
+    <hyperlink ref="D1682" r:id="rId1680" xr:uid="{00000000-0004-0000-0000-00008F060000}"/>
+    <hyperlink ref="D1683" r:id="rId1681" xr:uid="{00000000-0004-0000-0000-000090060000}"/>
+    <hyperlink ref="D1684" r:id="rId1682" xr:uid="{00000000-0004-0000-0000-000091060000}"/>
+    <hyperlink ref="D1685" r:id="rId1683" xr:uid="{00000000-0004-0000-0000-000092060000}"/>
+    <hyperlink ref="D1686" r:id="rId1684" xr:uid="{00000000-0004-0000-0000-000093060000}"/>
+    <hyperlink ref="D1687" r:id="rId1685" xr:uid="{00000000-0004-0000-0000-000094060000}"/>
+    <hyperlink ref="D1688" r:id="rId1686" xr:uid="{00000000-0004-0000-0000-000095060000}"/>
+    <hyperlink ref="D1689" r:id="rId1687" xr:uid="{00000000-0004-0000-0000-000096060000}"/>
+    <hyperlink ref="D1690" r:id="rId1688" xr:uid="{00000000-0004-0000-0000-000097060000}"/>
+    <hyperlink ref="D1691" r:id="rId1689" xr:uid="{00000000-0004-0000-0000-000098060000}"/>
+    <hyperlink ref="D1692" r:id="rId1690" xr:uid="{00000000-0004-0000-0000-000099060000}"/>
+    <hyperlink ref="D1693" r:id="rId1691" xr:uid="{00000000-0004-0000-0000-00009A060000}"/>
+    <hyperlink ref="D1694" r:id="rId1692" xr:uid="{00000000-0004-0000-0000-00009B060000}"/>
+    <hyperlink ref="D1695" r:id="rId1693" xr:uid="{00000000-0004-0000-0000-00009C060000}"/>
+    <hyperlink ref="D1696" r:id="rId1694" xr:uid="{00000000-0004-0000-0000-00009D060000}"/>
+    <hyperlink ref="D1697" r:id="rId1695" xr:uid="{00000000-0004-0000-0000-00009E060000}"/>
+    <hyperlink ref="D1698" r:id="rId1696" xr:uid="{00000000-0004-0000-0000-00009F060000}"/>
+    <hyperlink ref="D1699" r:id="rId1697" xr:uid="{00000000-0004-0000-0000-0000A0060000}"/>
+    <hyperlink ref="D1700" r:id="rId1698" xr:uid="{00000000-0004-0000-0000-0000A1060000}"/>
+    <hyperlink ref="D1701" r:id="rId1699" xr:uid="{00000000-0004-0000-0000-0000A2060000}"/>
+    <hyperlink ref="D1702" r:id="rId1700" xr:uid="{00000000-0004-0000-0000-0000A3060000}"/>
+    <hyperlink ref="D1703" r:id="rId1701" xr:uid="{00000000-0004-0000-0000-0000A4060000}"/>
+    <hyperlink ref="D1704" r:id="rId1702" xr:uid="{00000000-0004-0000-0000-0000A5060000}"/>
+    <hyperlink ref="D1705" r:id="rId1703" xr:uid="{00000000-0004-0000-0000-0000A6060000}"/>
+    <hyperlink ref="D1706" r:id="rId1704" xr:uid="{00000000-0004-0000-0000-0000A7060000}"/>
+    <hyperlink ref="D1707" r:id="rId1705" xr:uid="{00000000-0004-0000-0000-0000A8060000}"/>
+    <hyperlink ref="D1708" r:id="rId1706" xr:uid="{00000000-0004-0000-0000-0000A9060000}"/>
+    <hyperlink ref="D1709" r:id="rId1707" xr:uid="{00000000-0004-0000-0000-0000AA060000}"/>
+    <hyperlink ref="D1710" r:id="rId1708" xr:uid="{00000000-0004-0000-0000-0000AB060000}"/>
+    <hyperlink ref="D1711" r:id="rId1709" xr:uid="{00000000-0004-0000-0000-0000AC060000}"/>
+    <hyperlink ref="D1712" r:id="rId1710" xr:uid="{00000000-0004-0000-0000-0000AD060000}"/>
+    <hyperlink ref="D1713" r:id="rId1711" xr:uid="{00000000-0004-0000-0000-0000AE060000}"/>
+    <hyperlink ref="D1714" r:id="rId1712" xr:uid="{00000000-0004-0000-0000-0000AF060000}"/>
+    <hyperlink ref="D1715" r:id="rId1713" xr:uid="{00000000-0004-0000-0000-0000B0060000}"/>
+    <hyperlink ref="D1716" r:id="rId1714" xr:uid="{00000000-0004-0000-0000-0000B1060000}"/>
+    <hyperlink ref="D1717" r:id="rId1715" xr:uid="{00000000-0004-0000-0000-0000B2060000}"/>
+    <hyperlink ref="D1718" r:id="rId1716" xr:uid="{00000000-0004-0000-0000-0000B3060000}"/>
+    <hyperlink ref="D1719" r:id="rId1717" xr:uid="{00000000-0004-0000-0000-0000B4060000}"/>
+    <hyperlink ref="D1720" r:id="rId1718" xr:uid="{00000000-0004-0000-0000-0000B5060000}"/>
+    <hyperlink ref="D1721" r:id="rId1719" xr:uid="{00000000-0004-0000-0000-0000B6060000}"/>
+    <hyperlink ref="D1722" r:id="rId1720" xr:uid="{00000000-0004-0000-0000-0000B7060000}"/>
+    <hyperlink ref="D1723" r:id="rId1721" xr:uid="{00000000-0004-0000-0000-0000B8060000}"/>
+    <hyperlink ref="D1724" r:id="rId1722" xr:uid="{00000000-0004-0000-0000-0000B9060000}"/>
+    <hyperlink ref="D1725" r:id="rId1723" xr:uid="{00000000-0004-0000-0000-0000BA060000}"/>
+    <hyperlink ref="D1726" r:id="rId1724" xr:uid="{00000000-0004-0000-0000-0000BB060000}"/>
+    <hyperlink ref="D1727" r:id="rId1725" xr:uid="{00000000-0004-0000-0000-0000BC060000}"/>
+    <hyperlink ref="D1728" r:id="rId1726" xr:uid="{00000000-0004-0000-0000-0000BD060000}"/>
+    <hyperlink ref="D1729" r:id="rId1727" xr:uid="{00000000-0004-0000-0000-0000BE060000}"/>
+    <hyperlink ref="D1730" r:id="rId1728" xr:uid="{00000000-0004-0000-0000-0000BF060000}"/>
+    <hyperlink ref="D1731" r:id="rId1729" xr:uid="{00000000-0004-0000-0000-0000C0060000}"/>
+    <hyperlink ref="D1732" r:id="rId1730" xr:uid="{00000000-0004-0000-0000-0000C1060000}"/>
+    <hyperlink ref="D1733" r:id="rId1731" xr:uid="{00000000-0004-0000-0000-0000C2060000}"/>
+    <hyperlink ref="D1734" r:id="rId1732" xr:uid="{00000000-0004-0000-0000-0000C3060000}"/>
+    <hyperlink ref="D1735" r:id="rId1733" xr:uid="{00000000-0004-0000-0000-0000C4060000}"/>
+    <hyperlink ref="D1736" r:id="rId1734" xr:uid="{00000000-0004-0000-0000-0000C5060000}"/>
+    <hyperlink ref="D1737" r:id="rId1735" xr:uid="{00000000-0004-0000-0000-0000C6060000}"/>
+    <hyperlink ref="D1738" r:id="rId1736" xr:uid="{00000000-0004-0000-0000-0000C7060000}"/>
+    <hyperlink ref="D1739" r:id="rId1737" xr:uid="{00000000-0004-0000-0000-0000C8060000}"/>
+    <hyperlink ref="D1740" r:id="rId1738" xr:uid="{00000000-0004-0000-0000-0000C9060000}"/>
+    <hyperlink ref="D1741" r:id="rId1739" xr:uid="{00000000-0004-0000-0000-0000CA060000}"/>
+    <hyperlink ref="D1742" r:id="rId1740" xr:uid="{00000000-0004-0000-0000-0000CB060000}"/>
+    <hyperlink ref="D1743" r:id="rId1741" xr:uid="{00000000-0004-0000-0000-0000CC060000}"/>
+    <hyperlink ref="D1744" r:id="rId1742" xr:uid="{00000000-0004-0000-0000-0000CD060000}"/>
+    <hyperlink ref="D1745" r:id="rId1743" xr:uid="{00000000-0004-0000-0000-0000CE060000}"/>
+    <hyperlink ref="D1746" r:id="rId1744" xr:uid="{00000000-0004-0000-0000-0000CF060000}"/>
+    <hyperlink ref="D1747" r:id="rId1745" xr:uid="{00000000-0004-0000-0000-0000D0060000}"/>
+    <hyperlink ref="D1748" r:id="rId1746" xr:uid="{00000000-0004-0000-0000-0000D1060000}"/>
+    <hyperlink ref="D1749" r:id="rId1747" xr:uid="{00000000-0004-0000-0000-0000D2060000}"/>
+    <hyperlink ref="D1750" r:id="rId1748" xr:uid="{00000000-0004-0000-0000-0000D3060000}"/>
+    <hyperlink ref="D1751" r:id="rId1749" xr:uid="{00000000-0004-0000-0000-0000D4060000}"/>
+    <hyperlink ref="D1752" r:id="rId1750" xr:uid="{00000000-0004-0000-0000-0000D5060000}"/>
+    <hyperlink ref="D1753" r:id="rId1751" xr:uid="{00000000-0004-0000-0000-0000D6060000}"/>
+    <hyperlink ref="D1754" r:id="rId1752" xr:uid="{00000000-0004-0000-0000-0000D7060000}"/>
+    <hyperlink ref="D1755" r:id="rId1753" xr:uid="{00000000-0004-0000-0000-0000D8060000}"/>
+    <hyperlink ref="D1756" r:id="rId1754" xr:uid="{00000000-0004-0000-0000-0000D9060000}"/>
+    <hyperlink ref="D1757" r:id="rId1755" xr:uid="{00000000-0004-0000-0000-0000DA060000}"/>
+    <hyperlink ref="D1758" r:id="rId1756" xr:uid="{00000000-0004-0000-0000-0000DB060000}"/>
+    <hyperlink ref="D1759" r:id="rId1757" xr:uid="{00000000-0004-0000-0000-0000DC060000}"/>
+    <hyperlink ref="D1760" r:id="rId1758" xr:uid="{00000000-0004-0000-0000-0000DD060000}"/>
+    <hyperlink ref="D1761" r:id="rId1759" xr:uid="{00000000-0004-0000-0000-0000DE060000}"/>
+    <hyperlink ref="D1762" r:id="rId1760" xr:uid="{00000000-0004-0000-0000-0000DF060000}"/>
+    <hyperlink ref="D1763" r:id="rId1761" xr:uid="{00000000-0004-0000-0000-0000E0060000}"/>
+    <hyperlink ref="D1764" r:id="rId1762" xr:uid="{00000000-0004-0000-0000-0000E1060000}"/>
+    <hyperlink ref="D1765" r:id="rId1763" xr:uid="{00000000-0004-0000-0000-0000E2060000}"/>
+    <hyperlink ref="D1766" r:id="rId1764" xr:uid="{00000000-0004-0000-0000-0000E3060000}"/>
+    <hyperlink ref="D1767" r:id="rId1765" xr:uid="{00000000-0004-0000-0000-0000E4060000}"/>
+    <hyperlink ref="D1768" r:id="rId1766" xr:uid="{00000000-0004-0000-0000-0000E5060000}"/>
+    <hyperlink ref="D1769" r:id="rId1767" xr:uid="{00000000-0004-0000-0000-0000E6060000}"/>
+    <hyperlink ref="D1770" r:id="rId1768" xr:uid="{00000000-0004-0000-0000-0000E7060000}"/>
+    <hyperlink ref="D1771" r:id="rId1769" xr:uid="{00000000-0004-0000-0000-0000E8060000}"/>
+    <hyperlink ref="D1772" r:id="rId1770" xr:uid="{00000000-0004-0000-0000-0000E9060000}"/>
+    <hyperlink ref="D1773" r:id="rId1771" xr:uid="{00000000-0004-0000-0000-0000EA060000}"/>
+    <hyperlink ref="D1774" r:id="rId1772" xr:uid="{00000000-0004-0000-0000-0000EB060000}"/>
+    <hyperlink ref="D1775" r:id="rId1773" xr:uid="{00000000-0004-0000-0000-0000EC060000}"/>
+    <hyperlink ref="D1776" r:id="rId1774" xr:uid="{00000000-0004-0000-0000-0000ED060000}"/>
+    <hyperlink ref="D1777" r:id="rId1775" xr:uid="{00000000-0004-0000-0000-0000EE060000}"/>
+    <hyperlink ref="D1778" r:id="rId1776" xr:uid="{00000000-0004-0000-0000-0000EF060000}"/>
+    <hyperlink ref="D1779" r:id="rId1777" xr:uid="{00000000-0004-0000-0000-0000F0060000}"/>
+    <hyperlink ref="D1780" r:id="rId1778" xr:uid="{00000000-0004-0000-0000-0000F1060000}"/>
+    <hyperlink ref="D1781" r:id="rId1779" xr:uid="{00000000-0004-0000-0000-0000F2060000}"/>
+    <hyperlink ref="D1782" r:id="rId1780" xr:uid="{00000000-0004-0000-0000-0000F3060000}"/>
+    <hyperlink ref="D1783" r:id="rId1781" xr:uid="{00000000-0004-0000-0000-0000F4060000}"/>
+    <hyperlink ref="D1784" r:id="rId1782" xr:uid="{00000000-0004-0000-0000-0000F5060000}"/>
+    <hyperlink ref="D1785" r:id="rId1783" xr:uid="{00000000-0004-0000-0000-0000F6060000}"/>
+    <hyperlink ref="D1786" r:id="rId1784" xr:uid="{00000000-0004-0000-0000-0000F7060000}"/>
+    <hyperlink ref="D1787" r:id="rId1785" xr:uid="{00000000-0004-0000-0000-0000F8060000}"/>
+    <hyperlink ref="D1788" r:id="rId1786" xr:uid="{00000000-0004-0000-0000-0000F9060000}"/>
+    <hyperlink ref="D1789" r:id="rId1787" xr:uid="{00000000-0004-0000-0000-0000FA060000}"/>
+    <hyperlink ref="D1790" r:id="rId1788" xr:uid="{00000000-0004-0000-0000-0000FB060000}"/>
+    <hyperlink ref="D1791" r:id="rId1789" xr:uid="{00000000-0004-0000-0000-0000FC060000}"/>
+    <hyperlink ref="D1792" r:id="rId1790" xr:uid="{00000000-0004-0000-0000-0000FD060000}"/>
+    <hyperlink ref="D1793" r:id="rId1791" xr:uid="{00000000-0004-0000-0000-0000FE060000}"/>
+    <hyperlink ref="D1794" r:id="rId1792" xr:uid="{00000000-0004-0000-0000-0000FF060000}"/>
+    <hyperlink ref="D1795" r:id="rId1793" xr:uid="{00000000-0004-0000-0000-000000070000}"/>
+    <hyperlink ref="D1796" r:id="rId1794" xr:uid="{00000000-0004-0000-0000-000001070000}"/>
+    <hyperlink ref="D1797" r:id="rId1795" xr:uid="{00000000-0004-0000-0000-000002070000}"/>
+    <hyperlink ref="D1798" r:id="rId1796" xr:uid="{00000000-0004-0000-0000-000003070000}"/>
+    <hyperlink ref="D1799" r:id="rId1797" xr:uid="{00000000-0004-0000-0000-000004070000}"/>
+    <hyperlink ref="D1800" r:id="rId1798" xr:uid="{00000000-0004-0000-0000-000005070000}"/>
+    <hyperlink ref="D1801" r:id="rId1799" xr:uid="{00000000-0004-0000-0000-000006070000}"/>
+    <hyperlink ref="D1802" r:id="rId1800" xr:uid="{00000000-0004-0000-0000-000007070000}"/>
+    <hyperlink ref="D1803" r:id="rId1801" xr:uid="{00000000-0004-0000-0000-000008070000}"/>
+    <hyperlink ref="D1804" r:id="rId1802" xr:uid="{00000000-0004-0000-0000-000009070000}"/>
+    <hyperlink ref="D1805" r:id="rId1803" xr:uid="{00000000-0004-0000-0000-00000A070000}"/>
+    <hyperlink ref="D1806" r:id="rId1804" xr:uid="{00000000-0004-0000-0000-00000B070000}"/>
+    <hyperlink ref="D1807" r:id="rId1805" xr:uid="{00000000-0004-0000-0000-00000C070000}"/>
+    <hyperlink ref="D1808" r:id="rId1806" xr:uid="{00000000-0004-0000-0000-00000D070000}"/>
+    <hyperlink ref="D1809" r:id="rId1807" xr:uid="{00000000-0004-0000-0000-00000E070000}"/>
+    <hyperlink ref="D1810" r:id="rId1808" xr:uid="{00000000-0004-0000-0000-00000F070000}"/>
+    <hyperlink ref="D1811" r:id="rId1809" xr:uid="{00000000-0004-0000-0000-000010070000}"/>
+    <hyperlink ref="D1812" r:id="rId1810" xr:uid="{00000000-0004-0000-0000-000011070000}"/>
+    <hyperlink ref="D1813" r:id="rId1811" xr:uid="{00000000-0004-0000-0000-000012070000}"/>
+    <hyperlink ref="D1814" r:id="rId1812" xr:uid="{00000000-0004-0000-0000-000013070000}"/>
+    <hyperlink ref="D1815" r:id="rId1813" xr:uid="{00000000-0004-0000-0000-000014070000}"/>
+    <hyperlink ref="D1816" r:id="rId1814" xr:uid="{00000000-0004-0000-0000-000015070000}"/>
+    <hyperlink ref="D1817" r:id="rId1815" xr:uid="{00000000-0004-0000-0000-000016070000}"/>
+    <hyperlink ref="D1818" r:id="rId1816" xr:uid="{00000000-0004-0000-0000-000017070000}"/>
+    <hyperlink ref="D1819" r:id="rId1817" xr:uid="{00000000-0004-0000-0000-000018070000}"/>
+    <hyperlink ref="D1820" r:id="rId1818" xr:uid="{00000000-0004-0000-0000-000019070000}"/>
+    <hyperlink ref="D1821" r:id="rId1819" xr:uid="{00000000-0004-0000-0000-00001A070000}"/>
+    <hyperlink ref="D1822" r:id="rId1820" xr:uid="{00000000-0004-0000-0000-00001B070000}"/>
+    <hyperlink ref="D1823" r:id="rId1821" xr:uid="{00000000-0004-0000-0000-00001C070000}"/>
+    <hyperlink ref="D1824" r:id="rId1822" xr:uid="{00000000-0004-0000-0000-00001D070000}"/>
+    <hyperlink ref="D1825" r:id="rId1823" xr:uid="{00000000-0004-0000-0000-00001E070000}"/>
+    <hyperlink ref="D1826" r:id="rId1824" xr:uid="{00000000-0004-0000-0000-00001F070000}"/>
+    <hyperlink ref="D1827" r:id="rId1825" xr:uid="{00000000-0004-0000-0000-000020070000}"/>
+    <hyperlink ref="D1828" r:id="rId1826" xr:uid="{00000000-0004-0000-0000-000021070000}"/>
+    <hyperlink ref="D1829" r:id="rId1827" xr:uid="{00000000-0004-0000-0000-000022070000}"/>
+    <hyperlink ref="D1830" r:id="rId1828" xr:uid="{00000000-0004-0000-0000-000023070000}"/>
+    <hyperlink ref="D1831" r:id="rId1829" xr:uid="{00000000-0004-0000-0000-000024070000}"/>
+    <hyperlink ref="D1832" r:id="rId1830" xr:uid="{00000000-0004-0000-0000-000025070000}"/>
+    <hyperlink ref="D1833" r:id="rId1831" xr:uid="{00000000-0004-0000-0000-000026070000}"/>
+    <hyperlink ref="D1834" r:id="rId1832" xr:uid="{00000000-0004-0000-0000-000027070000}"/>
+    <hyperlink ref="D1835" r:id="rId1833" xr:uid="{00000000-0004-0000-0000-000028070000}"/>
+    <hyperlink ref="D1836" r:id="rId1834" xr:uid="{00000000-0004-0000-0000-000029070000}"/>
+    <hyperlink ref="D1837" r:id="rId1835" xr:uid="{00000000-0004-0000-0000-00002A070000}"/>
+    <hyperlink ref="D1838" r:id="rId1836" xr:uid="{00000000-0004-0000-0000-00002B070000}"/>
+    <hyperlink ref="D1839" r:id="rId1837" xr:uid="{00000000-0004-0000-0000-00002C070000}"/>
+    <hyperlink ref="D1840" r:id="rId1838" xr:uid="{00000000-0004-0000-0000-00002D070000}"/>
+    <hyperlink ref="D1841" r:id="rId1839" xr:uid="{00000000-0004-0000-0000-00002E070000}"/>
+    <hyperlink ref="D1843" r:id="rId1840" xr:uid="{00000000-0004-0000-0000-00002F070000}"/>
+    <hyperlink ref="D1844" r:id="rId1841" xr:uid="{00000000-0004-0000-0000-000030070000}"/>
+    <hyperlink ref="D1845" r:id="rId1842" xr:uid="{00000000-0004-0000-0000-000031070000}"/>
+    <hyperlink ref="D1846" r:id="rId1843" xr:uid="{00000000-0004-0000-0000-000032070000}"/>
+    <hyperlink ref="D1847" r:id="rId1844" xr:uid="{00000000-0004-0000-0000-000033070000}"/>
+    <hyperlink ref="D1848" r:id="rId1845" xr:uid="{00000000-0004-0000-0000-000034070000}"/>
+    <hyperlink ref="D1849" r:id="rId1846" xr:uid="{00000000-0004-0000-0000-000035070000}"/>
+    <hyperlink ref="D1850" r:id="rId1847" xr:uid="{00000000-0004-0000-0000-000036070000}"/>
+    <hyperlink ref="D1851" r:id="rId1848" xr:uid="{00000000-0004-0000-0000-000037070000}"/>
+    <hyperlink ref="D1852" r:id="rId1849" xr:uid="{00000000-0004-0000-0000-000038070000}"/>
+    <hyperlink ref="D1853" r:id="rId1850" xr:uid="{00000000-0004-0000-0000-000039070000}"/>
+    <hyperlink ref="D1854" r:id="rId1851" xr:uid="{00000000-0004-0000-0000-00003A070000}"/>
+    <hyperlink ref="D1855" r:id="rId1852" xr:uid="{00000000-0004-0000-0000-00003B070000}"/>
+    <hyperlink ref="D1856" r:id="rId1853" xr:uid="{00000000-0004-0000-0000-00003C070000}"/>
+    <hyperlink ref="D1857" r:id="rId1854" xr:uid="{00000000-0004-0000-0000-00003D070000}"/>
+    <hyperlink ref="D1858" r:id="rId1855" xr:uid="{00000000-0004-0000-0000-00003E070000}"/>
+    <hyperlink ref="D1859" r:id="rId1856" xr:uid="{00000000-0004-0000-0000-00003F070000}"/>
+    <hyperlink ref="D1860" r:id="rId1857" xr:uid="{00000000-0004-0000-0000-000040070000}"/>
+    <hyperlink ref="D1861" r:id="rId1858" xr:uid="{00000000-0004-0000-0000-000041070000}"/>
+    <hyperlink ref="D1862" r:id="rId1859" xr:uid="{00000000-0004-0000-0000-000042070000}"/>
+    <hyperlink ref="D1863" r:id="rId1860" xr:uid="{00000000-0004-0000-0000-000043070000}"/>
+    <hyperlink ref="D1864" r:id="rId1861" xr:uid="{00000000-0004-0000-0000-000044070000}"/>
+    <hyperlink ref="D1865" r:id="rId1862" xr:uid="{00000000-0004-0000-0000-000045070000}"/>
+    <hyperlink ref="D1866" r:id="rId1863" xr:uid="{00000000-0004-0000-0000-000046070000}"/>
+    <hyperlink ref="D1867" r:id="rId1864" xr:uid="{00000000-0004-0000-0000-000047070000}"/>
+    <hyperlink ref="D1868" r:id="rId1865" xr:uid="{00000000-0004-0000-0000-000048070000}"/>
+    <hyperlink ref="D1869" r:id="rId1866" xr:uid="{00000000-0004-0000-0000-000049070000}"/>
+    <hyperlink ref="D1870" r:id="rId1867" xr:uid="{00000000-0004-0000-0000-00004A070000}"/>
+    <hyperlink ref="D1871" r:id="rId1868" xr:uid="{00000000-0004-0000-0000-00004B070000}"/>
+    <hyperlink ref="D1872" r:id="rId1869" xr:uid="{00000000-0004-0000-0000-00004C070000}"/>
+    <hyperlink ref="D1873" r:id="rId1870" xr:uid="{00000000-0004-0000-0000-00004D070000}"/>
+    <hyperlink ref="D1874" r:id="rId1871" xr:uid="{00000000-0004-0000-0000-00004E070000}"/>
+    <hyperlink ref="D1875" r:id="rId1872" xr:uid="{00000000-0004-0000-0000-00004F070000}"/>
+    <hyperlink ref="D1876" r:id="rId1873" xr:uid="{00000000-0004-0000-0000-000050070000}"/>
+    <hyperlink ref="D1877" r:id="rId1874" xr:uid="{00000000-0004-0000-0000-000051070000}"/>
+    <hyperlink ref="D1878" r:id="rId1875" xr:uid="{00000000-0004-0000-0000-000052070000}"/>
+    <hyperlink ref="D1879" r:id="rId1876" xr:uid="{00000000-0004-0000-0000-000053070000}"/>
+    <hyperlink ref="D1880" r:id="rId1877" xr:uid="{00000000-0004-0000-0000-000054070000}"/>
+    <hyperlink ref="D1881" r:id="rId1878" xr:uid="{00000000-0004-0000-0000-000055070000}"/>
+    <hyperlink ref="D1882" r:id="rId1879" xr:uid="{00000000-0004-0000-0000-000056070000}"/>
+    <hyperlink ref="D1883" r:id="rId1880" xr:uid="{00000000-0004-0000-0000-000057070000}"/>
+    <hyperlink ref="D1884" r:id="rId1881" xr:uid="{00000000-0004-0000-0000-000058070000}"/>
+    <hyperlink ref="D1885" r:id="rId1882" xr:uid="{00000000-0004-0000-0000-000059070000}"/>
+    <hyperlink ref="D1886" r:id="rId1883" xr:uid="{00000000-0004-0000-0000-00005A070000}"/>
+    <hyperlink ref="D1887" r:id="rId1884" xr:uid="{00000000-0004-0000-0000-00005B070000}"/>
+    <hyperlink ref="D1888" r:id="rId1885" xr:uid="{00000000-0004-0000-0000-00005C070000}"/>
+    <hyperlink ref="D1889" r:id="rId1886" xr:uid="{00000000-0004-0000-0000-00005D070000}"/>
+    <hyperlink ref="D1890" r:id="rId1887" xr:uid="{00000000-0004-0000-0000-00005E070000}"/>
+    <hyperlink ref="D1891" r:id="rId1888" xr:uid="{00000000-0004-0000-0000-00005F070000}"/>
+    <hyperlink ref="D1892" r:id="rId1889" xr:uid="{00000000-0004-0000-0000-000060070000}"/>
+    <hyperlink ref="D1893" r:id="rId1890" xr:uid="{00000000-0004-0000-0000-000061070000}"/>
+    <hyperlink ref="D1894" r:id="rId1891" xr:uid="{00000000-0004-0000-0000-000062070000}"/>
+    <hyperlink ref="D1895" r:id="rId1892" xr:uid="{00000000-0004-0000-0000-000063070000}"/>
+    <hyperlink ref="D1896" r:id="rId1893" xr:uid="{00000000-0004-0000-0000-000064070000}"/>
+    <hyperlink ref="D1897" r:id="rId1894" xr:uid="{00000000-0004-0000-0000-000065070000}"/>
+    <hyperlink ref="D1898" r:id="rId1895" xr:uid="{00000000-0004-0000-0000-000066070000}"/>
+    <hyperlink ref="D1899" r:id="rId1896" xr:uid="{00000000-0004-0000-0000-000067070000}"/>
+    <hyperlink ref="D1900" r:id="rId1897" xr:uid="{00000000-0004-0000-0000-000068070000}"/>
+    <hyperlink ref="D1901" r:id="rId1898" xr:uid="{00000000-0004-0000-0000-000069070000}"/>
+    <hyperlink ref="D1902" r:id="rId1899" xr:uid="{00000000-0004-0000-0000-00006A070000}"/>
+    <hyperlink ref="D1903" r:id="rId1900" xr:uid="{00000000-0004-0000-0000-00006B070000}"/>
+    <hyperlink ref="D1904" r:id="rId1901" xr:uid="{00000000-0004-0000-0000-00006C070000}"/>
+    <hyperlink ref="D1905" r:id="rId1902" xr:uid="{00000000-0004-0000-0000-00006D070000}"/>
+    <hyperlink ref="D1906" r:id="rId1903" xr:uid="{00000000-0004-0000-0000-00006E070000}"/>
+    <hyperlink ref="D1907" r:id="rId1904" xr:uid="{00000000-0004-0000-0000-00006F070000}"/>
+    <hyperlink ref="D1908" r:id="rId1905" xr:uid="{00000000-0004-0000-0000-000070070000}"/>
+    <hyperlink ref="D1909" r:id="rId1906" xr:uid="{00000000-0004-0000-0000-000071070000}"/>
+    <hyperlink ref="D1910" r:id="rId1907" xr:uid="{00000000-0004-0000-0000-000072070000}"/>
+    <hyperlink ref="D1911" r:id="rId1908" xr:uid="{00000000-0004-0000-0000-000073070000}"/>
+    <hyperlink ref="D1912" r:id="rId1909" xr:uid="{00000000-0004-0000-0000-000074070000}"/>
+    <hyperlink ref="D1913" r:id="rId1910" xr:uid="{00000000-0004-0000-0000-000075070000}"/>
+    <hyperlink ref="D1914" r:id="rId1911" xr:uid="{00000000-0004-0000-0000-000076070000}"/>
+    <hyperlink ref="D1915" r:id="rId1912" xr:uid="{00000000-0004-0000-0000-000077070000}"/>
+    <hyperlink ref="D1916" r:id="rId1913" xr:uid="{00000000-0004-0000-0000-000078070000}"/>
+    <hyperlink ref="D1917" r:id="rId1914" xr:uid="{00000000-0004-0000-0000-000079070000}"/>
+    <hyperlink ref="D1918" r:id="rId1915" xr:uid="{00000000-0004-0000-0000-00007A070000}"/>
+    <hyperlink ref="D1919" r:id="rId1916" xr:uid="{00000000-0004-0000-0000-00007B070000}"/>
+    <hyperlink ref="D1920" r:id="rId1917" xr:uid="{00000000-0004-0000-0000-00007C070000}"/>
+    <hyperlink ref="D1921" r:id="rId1918" xr:uid="{00000000-0004-0000-0000-00007D070000}"/>
+    <hyperlink ref="D1922" r:id="rId1919" xr:uid="{00000000-0004-0000-0000-00007E070000}"/>
+    <hyperlink ref="D1923" r:id="rId1920" xr:uid="{00000000-0004-0000-0000-00007F070000}"/>
+    <hyperlink ref="D1924" r:id="rId1921" xr:uid="{00000000-0004-0000-0000-000080070000}"/>
+    <hyperlink ref="D1925" r:id="rId1922" xr:uid="{00000000-0004-0000-0000-000081070000}"/>
+    <hyperlink ref="D1926" r:id="rId1923" xr:uid="{00000000-0004-0000-0000-000082070000}"/>
+    <hyperlink ref="D1927" r:id="rId1924" xr:uid="{00000000-0004-0000-0000-000083070000}"/>
+    <hyperlink ref="D1928" r:id="rId1925" xr:uid="{00000000-0004-0000-0000-000084070000}"/>
+    <hyperlink ref="D1929" r:id="rId1926" xr:uid="{00000000-0004-0000-0000-000085070000}"/>
+    <hyperlink ref="D1930" r:id="rId1927" xr:uid="{00000000-0004-0000-0000-000086070000}"/>
+    <hyperlink ref="D1931" r:id="rId1928" xr:uid="{00000000-0004-0000-0000-000087070000}"/>
+    <hyperlink ref="D1932" r:id="rId1929" xr:uid="{00000000-0004-0000-0000-000088070000}"/>
+    <hyperlink ref="D1933" r:id="rId1930" xr:uid="{00000000-0004-0000-0000-000089070000}"/>
+    <hyperlink ref="D1934" r:id="rId1931" xr:uid="{00000000-0004-0000-0000-00008A070000}"/>
+    <hyperlink ref="D1935" r:id="rId1932" xr:uid="{00000000-0004-0000-0000-00008B070000}"/>
+    <hyperlink ref="D1936" r:id="rId1933" xr:uid="{00000000-0004-0000-0000-00008C070000}"/>
+    <hyperlink ref="D1937" r:id="rId1934" xr:uid="{00000000-0004-0000-0000-00008D070000}"/>
+    <hyperlink ref="D1938" r:id="rId1935" xr:uid="{00000000-0004-0000-0000-00008E070000}"/>
+    <hyperlink ref="D1939" r:id="rId1936" xr:uid="{00000000-0004-0000-0000-00008F070000}"/>
+    <hyperlink ref="D1940" r:id="rId1937" xr:uid="{00000000-0004-0000-0000-000090070000}"/>
+    <hyperlink ref="D1941" r:id="rId1938" xr:uid="{00000000-0004-0000-0000-000091070000}"/>
+    <hyperlink ref="D1942" r:id="rId1939" xr:uid="{00000000-0004-0000-0000-000092070000}"/>
+    <hyperlink ref="D1943" r:id="rId1940" xr:uid="{00000000-0004-0000-0000-000093070000}"/>
+    <hyperlink ref="D1944" r:id="rId1941" xr:uid="{00000000-0004-0000-0000-000094070000}"/>
+    <hyperlink ref="D1945" r:id="rId1942" xr:uid="{00000000-0004-0000-0000-000095070000}"/>
+    <hyperlink ref="D1946" r:id="rId1943" xr:uid="{00000000-0004-0000-0000-000096070000}"/>
+    <hyperlink ref="D1947" r:id="rId1944" xr:uid="{00000000-0004-0000-0000-000097070000}"/>
+    <hyperlink ref="D1948" r:id="rId1945" xr:uid="{00000000-0004-0000-0000-000098070000}"/>
+    <hyperlink ref="D1949" r:id="rId1946" xr:uid="{00000000-0004-0000-0000-000099070000}"/>
+    <hyperlink ref="D1950" r:id="rId1947" xr:uid="{00000000-0004-0000-0000-00009A070000}"/>
+    <hyperlink ref="D1951" r:id="rId1948" xr:uid="{00000000-0004-0000-0000-00009B070000}"/>
+    <hyperlink ref="D1952" r:id="rId1949" xr:uid="{00000000-0004-0000-0000-00009C070000}"/>
+    <hyperlink ref="D1953" r:id="rId1950" xr:uid="{00000000-0004-0000-0000-00009D070000}"/>
+    <hyperlink ref="D1954" r:id="rId1951" xr:uid="{00000000-0004-0000-0000-00009E070000}"/>
+    <hyperlink ref="D1955" r:id="rId1952" xr:uid="{00000000-0004-0000-0000-00009F070000}"/>
+    <hyperlink ref="D1956" r:id="rId1953" xr:uid="{00000000-0004-0000-0000-0000A0070000}"/>
+    <hyperlink ref="D1957" r:id="rId1954" xr:uid="{00000000-0004-0000-0000-0000A1070000}"/>
+    <hyperlink ref="D1958" r:id="rId1955" xr:uid="{00000000-0004-0000-0000-0000A2070000}"/>
+    <hyperlink ref="D1959" r:id="rId1956" xr:uid="{00000000-0004-0000-0000-0000A3070000}"/>
+    <hyperlink ref="D1960" r:id="rId1957" xr:uid="{00000000-0004-0000-0000-0000A4070000}"/>
+    <hyperlink ref="D1961" r:id="rId1958" xr:uid="{00000000-0004-0000-0000-0000A5070000}"/>
+    <hyperlink ref="D1962" r:id="rId1959" xr:uid="{00000000-0004-0000-0000-0000A6070000}"/>
+    <hyperlink ref="D1963" r:id="rId1960" xr:uid="{00000000-0004-0000-0000-0000A7070000}"/>
+    <hyperlink ref="D1964" r:id="rId1961" xr:uid="{00000000-0004-0000-0000-0000A8070000}"/>
+    <hyperlink ref="D1965" r:id="rId1962" xr:uid="{00000000-0004-0000-0000-0000A9070000}"/>
+    <hyperlink ref="D1966" r:id="rId1963" xr:uid="{00000000-0004-0000-0000-0000AA070000}"/>
+    <hyperlink ref="D1967" r:id="rId1964" xr:uid="{00000000-0004-0000-0000-0000AB070000}"/>
+    <hyperlink ref="D1968" r:id="rId1965" xr:uid="{00000000-0004-0000-0000-0000AC070000}"/>
+    <hyperlink ref="D1969" r:id="rId1966" xr:uid="{00000000-0004-0000-0000-0000AD070000}"/>
+    <hyperlink ref="D1970" r:id="rId1967" xr:uid="{00000000-0004-0000-0000-0000AE070000}"/>
+    <hyperlink ref="D1971" r:id="rId1968" xr:uid="{00000000-0004-0000-0000-0000AF070000}"/>
+    <hyperlink ref="D1972" r:id="rId1969" xr:uid="{00000000-0004-0000-0000-0000B0070000}"/>
+    <hyperlink ref="D1973" r:id="rId1970" xr:uid="{00000000-0004-0000-0000-0000B1070000}"/>
+    <hyperlink ref="D1974" r:id="rId1971" xr:uid="{00000000-0004-0000-0000-0000B2070000}"/>
+    <hyperlink ref="D1975" r:id="rId1972" xr:uid="{00000000-0004-0000-0000-0000B3070000}"/>
+    <hyperlink ref="D1976" r:id="rId1973" xr:uid="{00000000-0004-0000-0000-0000B4070000}"/>
+    <hyperlink ref="D1977" r:id="rId1974" xr:uid="{00000000-0004-0000-0000-0000B5070000}"/>
+    <hyperlink ref="D1978" r:id="rId1975" xr:uid="{00000000-0004-0000-0000-0000B6070000}"/>
+    <hyperlink ref="D1979" r:id="rId1976" xr:uid="{00000000-0004-0000-0000-0000B7070000}"/>
+    <hyperlink ref="D1980" r:id="rId1977" xr:uid="{00000000-0004-0000-0000-0000B8070000}"/>
+    <hyperlink ref="D1981" r:id="rId1978" xr:uid="{00000000-0004-0000-0000-0000B9070000}"/>
+    <hyperlink ref="D1982" r:id="rId1979" xr:uid="{00000000-0004-0000-0000-0000BA070000}"/>
+    <hyperlink ref="D1983" r:id="rId1980" xr:uid="{00000000-0004-0000-0000-0000BB070000}"/>
+    <hyperlink ref="D1984" r:id="rId1981" xr:uid="{00000000-0004-0000-0000-0000BC070000}"/>
+    <hyperlink ref="D1985" r:id="rId1982" xr:uid="{00000000-0004-0000-0000-0000BD070000}"/>
+    <hyperlink ref="D1986" r:id="rId1983" xr:uid="{00000000-0004-0000-0000-0000BE070000}"/>
+    <hyperlink ref="D1987" r:id="rId1984" xr:uid="{00000000-0004-0000-0000-0000BF070000}"/>
+    <hyperlink ref="D1988" r:id="rId1985" xr:uid="{00000000-0004-0000-0000-0000C0070000}"/>
+    <hyperlink ref="D1989" r:id="rId1986" xr:uid="{00000000-0004-0000-0000-0000C1070000}"/>
+    <hyperlink ref="D1990" r:id="rId1987" xr:uid="{00000000-0004-0000-0000-0000C2070000}"/>
+    <hyperlink ref="D1991" r:id="rId1988" xr:uid="{00000000-0004-0000-0000-0000C3070000}"/>
+    <hyperlink ref="D1992" r:id="rId1989" xr:uid="{00000000-0004-0000-0000-0000C4070000}"/>
+    <hyperlink ref="D1993" r:id="rId1990" xr:uid="{00000000-0004-0000-0000-0000C5070000}"/>
+    <hyperlink ref="D1994" r:id="rId1991" xr:uid="{00000000-0004-0000-0000-0000C6070000}"/>
+    <hyperlink ref="D1995" r:id="rId1992" xr:uid="{00000000-0004-0000-0000-0000C7070000}"/>
+    <hyperlink ref="D1996" r:id="rId1993" xr:uid="{00000000-0004-0000-0000-0000C8070000}"/>
+    <hyperlink ref="D1997" r:id="rId1994" xr:uid="{00000000-0004-0000-0000-0000C9070000}"/>
+    <hyperlink ref="D1998" r:id="rId1995" xr:uid="{00000000-0004-0000-0000-0000CA070000}"/>
+    <hyperlink ref="D1999" r:id="rId1996" xr:uid="{00000000-0004-0000-0000-0000CB070000}"/>
+    <hyperlink ref="D2000" r:id="rId1997" xr:uid="{00000000-0004-0000-0000-0000CC070000}"/>
+    <hyperlink ref="D2001" r:id="rId1998" xr:uid="{00000000-0004-0000-0000-0000CD070000}"/>
+    <hyperlink ref="D2002" r:id="rId1999" xr:uid="{00000000-0004-0000-0000-0000CE070000}"/>
+    <hyperlink ref="D2003" r:id="rId2000" xr:uid="{00000000-0004-0000-0000-0000CF070000}"/>
+    <hyperlink ref="D2004" r:id="rId2001" xr:uid="{00000000-0004-0000-0000-0000D0070000}"/>
+    <hyperlink ref="D2005" r:id="rId2002" xr:uid="{00000000-0004-0000-0000-0000D1070000}"/>
+    <hyperlink ref="D2006" r:id="rId2003" xr:uid="{00000000-0004-0000-0000-0000D2070000}"/>
+    <hyperlink ref="D2007" r:id="rId2004" xr:uid="{00000000-0004-0000-0000-0000D3070000}"/>
+    <hyperlink ref="D2008" r:id="rId2005" xr:uid="{00000000-0004-0000-0000-0000D4070000}"/>
+    <hyperlink ref="D2009" r:id="rId2006" xr:uid="{00000000-0004-0000-0000-0000D5070000}"/>
+    <hyperlink ref="D2010" r:id="rId2007" xr:uid="{00000000-0004-0000-0000-0000D6070000}"/>
+    <hyperlink ref="D2011" r:id="rId2008" xr:uid="{00000000-0004-0000-0000-0000D7070000}"/>
+    <hyperlink ref="D2012" r:id="rId2009" xr:uid="{00000000-0004-0000-0000-0000D8070000}"/>
+    <hyperlink ref="D2013" r:id="rId2010" xr:uid="{00000000-0004-0000-0000-0000D9070000}"/>
+    <hyperlink ref="D2014" r:id="rId2011" xr:uid="{00000000-0004-0000-0000-0000DA070000}"/>
+    <hyperlink ref="D2015" r:id="rId2012" xr:uid="{00000000-0004-0000-0000-0000DB070000}"/>
+    <hyperlink ref="D2016" r:id="rId2013" xr:uid="{00000000-0004-0000-0000-0000DC070000}"/>
+    <hyperlink ref="D2017" r:id="rId2014" xr:uid="{00000000-0004-0000-0000-0000DD070000}"/>
+    <hyperlink ref="D2018" r:id="rId2015" xr:uid="{00000000-0004-0000-0000-0000DE070000}"/>
+    <hyperlink ref="D2019" r:id="rId2016" xr:uid="{00000000-0004-0000-0000-0000DF070000}"/>
+    <hyperlink ref="D2020" r:id="rId2017" xr:uid="{00000000-0004-0000-0000-0000E0070000}"/>
+    <hyperlink ref="D2021" r:id="rId2018" xr:uid="{00000000-0004-0000-0000-0000E1070000}"/>
+    <hyperlink ref="D2022" r:id="rId2019" xr:uid="{00000000-0004-0000-0000-0000E2070000}"/>
+    <hyperlink ref="D2023" r:id="rId2020" xr:uid="{00000000-0004-0000-0000-0000E3070000}"/>
+    <hyperlink ref="D2024" r:id="rId2021" xr:uid="{00000000-0004-0000-0000-0000E4070000}"/>
+    <hyperlink ref="D2025" r:id="rId2022" xr:uid="{00000000-0004-0000-0000-0000E5070000}"/>
+    <hyperlink ref="D2026" r:id="rId2023" xr:uid="{00000000-0004-0000-0000-0000E6070000}"/>
+    <hyperlink ref="D2027" r:id="rId2024" xr:uid="{00000000-0004-0000-0000-0000E7070000}"/>
+    <hyperlink ref="D2028" r:id="rId2025" xr:uid="{00000000-0004-0000-0000-0000E8070000}"/>
+    <hyperlink ref="D2029" r:id="rId2026" xr:uid="{00000000-0004-0000-0000-0000E9070000}"/>
+    <hyperlink ref="D2030" r:id="rId2027" xr:uid="{00000000-0004-0000-0000-0000EA070000}"/>
+    <hyperlink ref="D2031" r:id="rId2028" xr:uid="{00000000-0004-0000-0000-0000EB070000}"/>
+    <hyperlink ref="D2032" r:id="rId2029" xr:uid="{00000000-0004-0000-0000-0000EC070000}"/>
+    <hyperlink ref="D2033" r:id="rId2030" xr:uid="{00000000-0004-0000-0000-0000ED070000}"/>
+    <hyperlink ref="D2034" r:id="rId2031" xr:uid="{00000000-0004-0000-0000-0000EE070000}"/>
+    <hyperlink ref="D2035" r:id="rId2032" xr:uid="{00000000-0004-0000-0000-0000EF070000}"/>
+    <hyperlink ref="D2036" r:id="rId2033" xr:uid="{00000000-0004-0000-0000-0000F0070000}"/>
+    <hyperlink ref="D2037" r:id="rId2034" xr:uid="{00000000-0004-0000-0000-0000F1070000}"/>
+    <hyperlink ref="D2038" r:id="rId2035" xr:uid="{00000000-0004-0000-0000-0000F2070000}"/>
+    <hyperlink ref="D2039" r:id="rId2036" xr:uid="{00000000-0004-0000-0000-0000F3070000}"/>
+    <hyperlink ref="D2040" r:id="rId2037" xr:uid="{00000000-0004-0000-0000-0000F4070000}"/>
+    <hyperlink ref="D2041" r:id="rId2038" xr:uid="{00000000-0004-0000-0000-0000F5070000}"/>
+    <hyperlink ref="D2042" r:id="rId2039" xr:uid="{00000000-0004-0000-0000-0000F6070000}"/>
+    <hyperlink ref="D2043" r:id="rId2040" xr:uid="{00000000-0004-0000-0000-0000F7070000}"/>
+    <hyperlink ref="D2044" r:id="rId2041" xr:uid="{00000000-0004-0000-0000-0000F8070000}"/>
+    <hyperlink ref="D2045" r:id="rId2042" xr:uid="{00000000-0004-0000-0000-0000F9070000}"/>
+    <hyperlink ref="D2046" r:id="rId2043" xr:uid="{00000000-0004-0000-0000-0000FA070000}"/>
+    <hyperlink ref="D2047" r:id="rId2044" xr:uid="{00000000-0004-0000-0000-0000FB070000}"/>
+    <hyperlink ref="D2048" r:id="rId2045" xr:uid="{00000000-0004-0000-0000-0000FC070000}"/>
+    <hyperlink ref="D2049" r:id="rId2046" xr:uid="{00000000-0004-0000-0000-0000FD070000}"/>
+    <hyperlink ref="D2050" r:id="rId2047" xr:uid="{00000000-0004-0000-0000-0000FE070000}"/>
+    <hyperlink ref="D2051" r:id="rId2048" xr:uid="{00000000-0004-0000-0000-0000FF070000}"/>
+    <hyperlink ref="D2052" r:id="rId2049" xr:uid="{00000000-0004-0000-0000-000000080000}"/>
+    <hyperlink ref="D2053" r:id="rId2050" xr:uid="{00000000-0004-0000-0000-000001080000}"/>
+    <hyperlink ref="D2054" r:id="rId2051" xr:uid="{00000000-0004-0000-0000-000002080000}"/>
+    <hyperlink ref="D2055" r:id="rId2052" xr:uid="{00000000-0004-0000-0000-000003080000}"/>
+    <hyperlink ref="D2056" r:id="rId2053" xr:uid="{00000000-0004-0000-0000-000004080000}"/>
+    <hyperlink ref="D2057" r:id="rId2054" xr:uid="{00000000-0004-0000-0000-000005080000}"/>
+    <hyperlink ref="D2058" r:id="rId2055" xr:uid="{00000000-0004-0000-0000-000006080000}"/>
+    <hyperlink ref="D2059" r:id="rId2056" xr:uid="{00000000-0004-0000-0000-000007080000}"/>
+    <hyperlink ref="D2060" r:id="rId2057" xr:uid="{00000000-0004-0000-0000-000008080000}"/>
+    <hyperlink ref="D2061" r:id="rId2058" xr:uid="{00000000-0004-0000-0000-000009080000}"/>
+    <hyperlink ref="D2062" r:id="rId2059" xr:uid="{00000000-0004-0000-0000-00000A080000}"/>
+    <hyperlink ref="D2063" r:id="rId2060" xr:uid="{00000000-0004-0000-0000-00000B080000}"/>
+    <hyperlink ref="D2064" r:id="rId2061" xr:uid="{00000000-0004-0000-0000-00000C080000}"/>
+    <hyperlink ref="D2065" r:id="rId2062" xr:uid="{00000000-0004-0000-0000-00000D080000}"/>
+    <hyperlink ref="D2066" r:id="rId2063" xr:uid="{00000000-0004-0000-0000-00000E080000}"/>
+    <hyperlink ref="D2067" r:id="rId2064" xr:uid="{00000000-0004-0000-0000-00000F080000}"/>
+    <hyperlink ref="D2068" r:id="rId2065" xr:uid="{00000000-0004-0000-0000-000010080000}"/>
+    <hyperlink ref="D2069" r:id="rId2066" xr:uid="{00000000-0004-0000-0000-000011080000}"/>
+    <hyperlink ref="D2070" r:id="rId2067" xr:uid="{00000000-0004-0000-0000-000012080000}"/>
+    <hyperlink ref="D2071" r:id="rId2068" xr:uid="{00000000-0004-0000-0000-000013080000}"/>
+    <hyperlink ref="D2072" r:id="rId2069" xr:uid="{00000000-0004-0000-0000-000014080000}"/>
+    <hyperlink ref="D2073" r:id="rId2070" xr:uid="{00000000-0004-0000-0000-000015080000}"/>
+    <hyperlink ref="D2074" r:id="rId2071" xr:uid="{00000000-0004-0000-0000-000016080000}"/>
+    <hyperlink ref="D2075" r:id="rId2072" xr:uid="{00000000-0004-0000-0000-000017080000}"/>
+    <hyperlink ref="D2076" r:id="rId2073" xr:uid="{00000000-0004-0000-0000-000018080000}"/>
+    <hyperlink ref="D2077" r:id="rId2074" xr:uid="{00000000-0004-0000-0000-000019080000}"/>
+    <hyperlink ref="D2078" r:id="rId2075" xr:uid="{00000000-0004-0000-0000-00001A080000}"/>
+    <hyperlink ref="D2079" r:id="rId2076" xr:uid="{00000000-0004-0000-0000-00001B080000}"/>
+    <hyperlink ref="D2080" r:id="rId2077" xr:uid="{00000000-0004-0000-0000-00001C080000}"/>
+    <hyperlink ref="D2081" r:id="rId2078" xr:uid="{00000000-0004-0000-0000-00001D080000}"/>
+    <hyperlink ref="D2082" r:id="rId2079" xr:uid="{00000000-0004-0000-0000-00001E080000}"/>
+    <hyperlink ref="D2083" r:id="rId2080" xr:uid="{00000000-0004-0000-0000-00001F080000}"/>
+    <hyperlink ref="D2084" r:id="rId2081" xr:uid="{00000000-0004-0000-0000-000020080000}"/>
+    <hyperlink ref="D2085" r:id="rId2082" xr:uid="{00000000-0004-0000-0000-000021080000}"/>
+    <hyperlink ref="D2086" r:id="rId2083" xr:uid="{00000000-0004-0000-0000-000022080000}"/>
+    <hyperlink ref="D2087" r:id="rId2084" xr:uid="{00000000-0004-0000-0000-000023080000}"/>
+    <hyperlink ref="D2088" r:id="rId2085" xr:uid="{00000000-0004-0000-0000-000024080000}"/>
+    <hyperlink ref="D2089" r:id="rId2086" xr:uid="{00000000-0004-0000-0000-000025080000}"/>
+    <hyperlink ref="D2090" r:id="rId2087" xr:uid="{00000000-0004-0000-0000-000026080000}"/>
+    <hyperlink ref="D2091" r:id="rId2088" xr:uid="{00000000-0004-0000-0000-000027080000}"/>
+    <hyperlink ref="D2092" r:id="rId2089" xr:uid="{00000000-0004-0000-0000-000028080000}"/>
+    <hyperlink ref="D2093" r:id="rId2090" xr:uid="{00000000-0004-0000-0000-000029080000}"/>
+    <hyperlink ref="D2094" r:id="rId2091" xr:uid="{00000000-0004-0000-0000-00002A080000}"/>
+    <hyperlink ref="D2095" r:id="rId2092" xr:uid="{00000000-0004-0000-0000-00002B080000}"/>
+    <hyperlink ref="D2096" r:id="rId2093" xr:uid="{00000000-0004-0000-0000-00002C080000}"/>
+    <hyperlink ref="D2097" r:id="rId2094" xr:uid="{00000000-0004-0000-0000-00002D080000}"/>
+    <hyperlink ref="D2098" r:id="rId2095" xr:uid="{00000000-0004-0000-0000-00002E080000}"/>
+    <hyperlink ref="D2099" r:id="rId2096" xr:uid="{00000000-0004-0000-0000-00002F080000}"/>
+    <hyperlink ref="D2100" r:id="rId2097" xr:uid="{00000000-0004-0000-0000-000030080000}"/>
+    <hyperlink ref="D2101" r:id="rId2098" xr:uid="{00000000-0004-0000-0000-000031080000}"/>
+    <hyperlink ref="D2102" r:id="rId2099" xr:uid="{00000000-0004-0000-0000-000032080000}"/>
+    <hyperlink ref="D2103" r:id="rId2100" xr:uid="{00000000-0004-0000-0000-000033080000}"/>
+    <hyperlink ref="D2104" r:id="rId2101" xr:uid="{00000000-0004-0000-0000-000034080000}"/>
+    <hyperlink ref="D2105" r:id="rId2102" xr:uid="{00000000-0004-0000-0000-000035080000}"/>
+    <hyperlink ref="D2106" r:id="rId2103" xr:uid="{00000000-0004-0000-0000-000036080000}"/>
+    <hyperlink ref="D2107" r:id="rId2104" xr:uid="{00000000-0004-0000-0000-000037080000}"/>
+    <hyperlink ref="D2108" r:id="rId2105" xr:uid="{00000000-0004-0000-0000-000038080000}"/>
+    <hyperlink ref="D2109" r:id="rId2106" xr:uid="{00000000-0004-0000-0000-000039080000}"/>
+    <hyperlink ref="D2110" r:id="rId2107" xr:uid="{00000000-0004-0000-0000-00003A080000}"/>
+    <hyperlink ref="D2111" r:id="rId2108" xr:uid="{00000000-0004-0000-0000-00003B080000}"/>
+    <hyperlink ref="D2112" r:id="rId2109" xr:uid="{00000000-0004-0000-0000-00003C080000}"/>
+    <hyperlink ref="D2113" r:id="rId2110" xr:uid="{00000000-0004-0000-0000-00003D080000}"/>
+    <hyperlink ref="D2114" r:id="rId2111" xr:uid="{00000000-0004-0000-0000-00003E080000}"/>
+    <hyperlink ref="D2115" r:id="rId2112" xr:uid="{00000000-0004-0000-0000-00003F080000}"/>
+    <hyperlink ref="D2116" r:id="rId2113" xr:uid="{00000000-0004-0000-0000-000040080000}"/>
+    <hyperlink ref="D2117" r:id="rId2114" xr:uid="{00000000-0004-0000-0000-000041080000}"/>
+    <hyperlink ref="D2118" r:id="rId2115" xr:uid="{00000000-0004-0000-0000-000042080000}"/>
+    <hyperlink ref="D2119" r:id="rId2116" xr:uid="{00000000-0004-0000-0000-000043080000}"/>
+    <hyperlink ref="D2120" r:id="rId2117" xr:uid="{00000000-0004-0000-0000-000044080000}"/>
+    <hyperlink ref="D2121" r:id="rId2118" xr:uid="{00000000-0004-0000-0000-000045080000}"/>
+    <hyperlink ref="D2122" r:id="rId2119" xr:uid="{00000000-0004-0000-0000-000046080000}"/>
+    <hyperlink ref="D2123" r:id="rId2120" xr:uid="{00000000-0004-0000-0000-000047080000}"/>
+    <hyperlink ref="D2124" r:id="rId2121" xr:uid="{00000000-0004-0000-0000-000048080000}"/>
+    <hyperlink ref="D2125" r:id="rId2122" xr:uid="{00000000-0004-0000-0000-000049080000}"/>
+    <hyperlink ref="D2126" r:id="rId2123" xr:uid="{00000000-0004-0000-0000-00004A080000}"/>
+    <hyperlink ref="D2127" r:id="rId2124" xr:uid="{00000000-0004-0000-0000-00004B080000}"/>
+    <hyperlink ref="D2128" r:id="rId2125" xr:uid="{00000000-0004-0000-0000-00004C080000}"/>
+    <hyperlink ref="D2129" r:id="rId2126" xr:uid="{00000000-0004-0000-0000-00004D080000}"/>
+    <hyperlink ref="D2130" r:id="rId2127" xr:uid="{00000000-0004-0000-0000-00004E080000}"/>
+    <hyperlink ref="D2131" r:id="rId2128" xr:uid="{00000000-0004-0000-0000-00004F080000}"/>
+    <hyperlink ref="D2132" r:id="rId2129" xr:uid="{00000000-0004-0000-0000-000050080000}"/>
+    <hyperlink ref="D2133" r:id="rId2130" xr:uid="{00000000-0004-0000-0000-000051080000}"/>
+    <hyperlink ref="D2134" r:id="rId2131" xr:uid="{00000000-0004-0000-0000-000052080000}"/>
+    <hyperlink ref="D2135" r:id="rId2132" xr:uid="{00000000-0004-0000-0000-000053080000}"/>
+    <hyperlink ref="D2136" r:id="rId2133" xr:uid="{00000000-0004-0000-0000-000054080000}"/>
+    <hyperlink ref="D2137" r:id="rId2134" xr:uid="{00000000-0004-0000-0000-000055080000}"/>
+    <hyperlink ref="D2138" r:id="rId2135" xr:uid="{00000000-0004-0000-0000-000056080000}"/>
+    <hyperlink ref="D2139" r:id="rId2136" xr:uid="{00000000-0004-0000-0000-000057080000}"/>
+    <hyperlink ref="D2140" r:id="rId2137" xr:uid="{00000000-0004-0000-0000-000058080000}"/>
+    <hyperlink ref="D2141" r:id="rId2138" xr:uid="{00000000-0004-0000-0000-000059080000}"/>
+    <hyperlink ref="D2142" r:id="rId2139" xr:uid="{00000000-0004-0000-0000-00005A080000}"/>
+    <hyperlink ref="D2143" r:id="rId2140" xr:uid="{00000000-0004-0000-0000-00005B080000}"/>
+    <hyperlink ref="D2144" r:id="rId2141" xr:uid="{00000000-0004-0000-0000-00005C080000}"/>
+    <hyperlink ref="D2145" r:id="rId2142" xr:uid="{00000000-0004-0000-0000-00005D080000}"/>
+    <hyperlink ref="D2146" r:id="rId2143" xr:uid="{00000000-0004-0000-0000-00005E080000}"/>
+    <hyperlink ref="D2147" r:id="rId2144" xr:uid="{00000000-0004-0000-0000-00005F080000}"/>
+    <hyperlink ref="D2148" r:id="rId2145" xr:uid="{00000000-0004-0000-0000-000060080000}"/>
+    <hyperlink ref="D2149" r:id="rId2146" xr:uid="{00000000-0004-0000-0000-000061080000}"/>
+    <hyperlink ref="D2150" r:id="rId2147" xr:uid="{00000000-0004-0000-0000-000062080000}"/>
+    <hyperlink ref="D2151" r:id="rId2148" xr:uid="{00000000-0004-0000-0000-000063080000}"/>
+    <hyperlink ref="D2152" r:id="rId2149" xr:uid="{00000000-0004-0000-0000-000064080000}"/>
+    <hyperlink ref="D2153" r:id="rId2150" xr:uid="{00000000-0004-0000-0000-000065080000}"/>
+    <hyperlink ref="D2154" r:id="rId2151" xr:uid="{00000000-0004-0000-0000-000066080000}"/>
+    <hyperlink ref="D2155" r:id="rId2152" xr:uid="{00000000-0004-0000-0000-000067080000}"/>
+    <hyperlink ref="D2156" r:id="rId2153" xr:uid="{00000000-0004-0000-0000-000068080000}"/>
+    <hyperlink ref="D2157" r:id="rId2154" xr:uid="{00000000-0004-0000-0000-000069080000}"/>
+    <hyperlink ref="D2158" r:id="rId2155" xr:uid="{00000000-0004-0000-0000-00006A080000}"/>
+    <hyperlink ref="D2159" r:id="rId2156" xr:uid="{00000000-0004-0000-0000-00006B080000}"/>
+    <hyperlink ref="D2160" r:id="rId2157" xr:uid="{00000000-0004-0000-0000-00006C080000}"/>
+    <hyperlink ref="D2161" r:id="rId2158" xr:uid="{00000000-0004-0000-0000-00006D080000}"/>
+    <hyperlink ref="D2162" r:id="rId2159" xr:uid="{00000000-0004-0000-0000-00006E080000}"/>
+    <hyperlink ref="D2163" r:id="rId2160" xr:uid="{00000000-0004-0000-0000-00006F080000}"/>
+    <hyperlink ref="D2164" r:id="rId2161" xr:uid="{00000000-0004-0000-0000-000070080000}"/>
+    <hyperlink ref="D2165" r:id="rId2162" xr:uid="{00000000-0004-0000-0000-000071080000}"/>
+    <hyperlink ref="D2166" r:id="rId2163" xr:uid="{00000000-0004-0000-0000-000072080000}"/>
+    <hyperlink ref="D2167" r:id="rId2164" xr:uid="{00000000-0004-0000-0000-000073080000}"/>
+    <hyperlink ref="D2168" r:id="rId2165" xr:uid="{00000000-0004-0000-0000-000074080000}"/>
+    <hyperlink ref="D2169" r:id="rId2166" xr:uid="{00000000-0004-0000-0000-000075080000}"/>
+    <hyperlink ref="D2170" r:id="rId2167" xr:uid="{00000000-0004-0000-0000-000076080000}"/>
+    <hyperlink ref="D2171" r:id="rId2168" xr:uid="{00000000-0004-0000-0000-000077080000}"/>
+    <hyperlink ref="D2172" r:id="rId2169" xr:uid="{00000000-0004-0000-0000-000078080000}"/>
+    <hyperlink ref="D2173" r:id="rId2170" xr:uid="{00000000-0004-0000-0000-000079080000}"/>
+    <hyperlink ref="D2174" r:id="rId2171" xr:uid="{00000000-0004-0000-0000-00007A080000}"/>
+    <hyperlink ref="D2175" r:id="rId2172" xr:uid="{00000000-0004-0000-0000-00007B080000}"/>
+    <hyperlink ref="D2176" r:id="rId2173" xr:uid="{00000000-0004-0000-0000-00007C080000}"/>
+    <hyperlink ref="D2177" r:id="rId2174" xr:uid="{00000000-0004-0000-0000-00007D080000}"/>
+    <hyperlink ref="D2178" r:id="rId2175" xr:uid="{00000000-0004-0000-0000-00007E080000}"/>
+    <hyperlink ref="D2179" r:id="rId2176" xr:uid="{00000000-0004-0000-0000-00007F080000}"/>
+    <hyperlink ref="D2180" r:id="rId2177" xr:uid="{00000000-0004-0000-0000-000080080000}"/>
+    <hyperlink ref="D2181" r:id="rId2178" xr:uid="{00000000-0004-0000-0000-000081080000}"/>
+    <hyperlink ref="D2182" r:id="rId2179" xr:uid="{00000000-0004-0000-0000-000082080000}"/>
+    <hyperlink ref="D2183" r:id="rId2180" xr:uid="{00000000-0004-0000-0000-000083080000}"/>
+    <hyperlink ref="D2184" r:id="rId2181" xr:uid="{00000000-0004-0000-0000-000084080000}"/>
+    <hyperlink ref="D2185" r:id="rId2182" xr:uid="{00000000-0004-0000-0000-000085080000}"/>
+    <hyperlink ref="D2186" r:id="rId2183" xr:uid="{00000000-0004-0000-0000-000086080000}"/>
+    <hyperlink ref="D2187" r:id="rId2184" xr:uid="{00000000-0004-0000-0000-000087080000}"/>
+    <hyperlink ref="D2188" r:id="rId2185" xr:uid="{00000000-0004-0000-0000-000088080000}"/>
+    <hyperlink ref="D2189" r:id="rId2186" xr:uid="{00000000-0004-0000-0000-000089080000}"/>
+    <hyperlink ref="D2190" r:id="rId2187" xr:uid="{00000000-0004-0000-0000-00008A080000}"/>
+    <hyperlink ref="D2191" r:id="rId2188" xr:uid="{00000000-0004-0000-0000-00008B080000}"/>
+    <hyperlink ref="D2192" r:id="rId2189" xr:uid="{00000000-0004-0000-0000-00008C080000}"/>
+    <hyperlink ref="D2193" r:id="rId2190" xr:uid="{00000000-0004-0000-0000-00008D080000}"/>
+    <hyperlink ref="D2194" r:id="rId2191" xr:uid="{00000000-0004-0000-0000-00008E080000}"/>
+    <hyperlink ref="D2195" r:id="rId2192" xr:uid="{00000000-0004-0000-0000-00008F080000}"/>
+    <hyperlink ref="D2196" r:id="rId2193" xr:uid="{00000000-0004-0000-0000-000090080000}"/>
+    <hyperlink ref="D2197" r:id="rId2194" xr:uid="{00000000-0004-0000-0000-000091080000}"/>
+    <hyperlink ref="D2198" r:id="rId2195" xr:uid="{00000000-0004-0000-0000-000092080000}"/>
+    <hyperlink ref="D2199" r:id="rId2196" xr:uid="{00000000-0004-0000-0000-000093080000}"/>
+    <hyperlink ref="D2200" r:id="rId2197" xr:uid="{00000000-0004-0000-0000-000094080000}"/>
+    <hyperlink ref="D2201" r:id="rId2198" xr:uid="{00000000-0004-0000-0000-000095080000}"/>
+    <hyperlink ref="D2202" r:id="rId2199" xr:uid="{00000000-0004-0000-0000-000096080000}"/>
+    <hyperlink ref="D2203" r:id="rId2200" xr:uid="{00000000-0004-0000-0000-000097080000}"/>
+    <hyperlink ref="D2204" r:id="rId2201" xr:uid="{00000000-0004-0000-0000-000098080000}"/>
+    <hyperlink ref="D2205" r:id="rId2202" xr:uid="{00000000-0004-0000-0000-000099080000}"/>
+    <hyperlink ref="D2206" r:id="rId2203" xr:uid="{00000000-0004-0000-0000-00009A080000}"/>
+    <hyperlink ref="D2207" r:id="rId2204" xr:uid="{00000000-0004-0000-0000-00009B080000}"/>
+    <hyperlink ref="D2208" r:id="rId2205" xr:uid="{00000000-0004-0000-0000-00009C080000}"/>
+    <hyperlink ref="D2209" r:id="rId2206" xr:uid="{00000000-0004-0000-0000-00009D080000}"/>
+    <hyperlink ref="D2210" r:id="rId2207" xr:uid="{00000000-0004-0000-0000-00009E080000}"/>
+    <hyperlink ref="D2211" r:id="rId2208" xr:uid="{00000000-0004-0000-0000-00009F080000}"/>
+    <hyperlink ref="D2212" r:id="rId2209" xr:uid="{00000000-0004-0000-0000-0000A0080000}"/>
+    <hyperlink ref="D2213" r:id="rId2210" xr:uid="{00000000-0004-0000-0000-0000A1080000}"/>
+    <hyperlink ref="D2214" r:id="rId2211" xr:uid="{00000000-0004-0000-0000-0000A2080000}"/>
+    <hyperlink ref="D2215" r:id="rId2212" xr:uid="{00000000-0004-0000-0000-0000A3080000}"/>
+    <hyperlink ref="D2216" r:id="rId2213" xr:uid="{00000000-0004-0000-0000-0000A4080000}"/>
+    <hyperlink ref="D2217" r:id="rId2214" xr:uid="{00000000-0004-0000-0000-0000A5080000}"/>
+    <hyperlink ref="D2218" r:id="rId2215" xr:uid="{00000000-0004-0000-0000-0000A6080000}"/>
+    <hyperlink ref="D2219" r:id="rId2216" xr:uid="{00000000-0004-0000-0000-0000A7080000}"/>
+    <hyperlink ref="D2220" r:id="rId2217" xr:uid="{00000000-0004-0000-0000-0000A8080000}"/>
+    <hyperlink ref="D2221" r:id="rId2218" xr:uid="{00000000-0004-0000-0000-0000A9080000}"/>
+    <hyperlink ref="D2222" r:id="rId2219" xr:uid="{00000000-0004-0000-0000-0000AA080000}"/>
+    <hyperlink ref="D2223" r:id="rId2220" xr:uid="{00000000-0004-0000-0000-0000AB080000}"/>
+    <hyperlink ref="D2224" r:id="rId2221" xr:uid="{00000000-0004-0000-0000-0000AC080000}"/>
+    <hyperlink ref="D2225" r:id="rId2222" xr:uid="{00000000-0004-0000-0000-0000AD080000}"/>
+    <hyperlink ref="D2226" r:id="rId2223" xr:uid="{00000000-0004-0000-0000-0000AE080000}"/>
+    <hyperlink ref="D2227" r:id="rId2224" xr:uid="{00000000-0004-0000-0000-0000AF080000}"/>
+    <hyperlink ref="D2228" r:id="rId2225" xr:uid="{00000000-0004-0000-0000-0000B0080000}"/>
+    <hyperlink ref="D2229" r:id="rId2226" xr:uid="{00000000-0004-0000-0000-0000B1080000}"/>
+    <hyperlink ref="D2230" r:id="rId2227" xr:uid="{00000000-0004-0000-0000-0000B2080000}"/>
+    <hyperlink ref="D2231" r:id="rId2228" xr:uid="{00000000-0004-0000-0000-0000B3080000}"/>
+    <hyperlink ref="D2232" r:id="rId2229" xr:uid="{00000000-0004-0000-0000-0000B4080000}"/>
+    <hyperlink ref="D2233" r:id="rId2230" xr:uid="{00000000-0004-0000-0000-0000B5080000}"/>
+    <hyperlink ref="D2234" r:id="rId2231" xr:uid="{00000000-0004-0000-0000-0000B6080000}"/>
+    <hyperlink ref="D2235" r:id="rId2232" xr:uid="{00000000-0004-0000-0000-0000B7080000}"/>
+    <hyperlink ref="D2236" r:id="rId2233" xr:uid="{00000000-0004-0000-0000-0000B8080000}"/>
+    <hyperlink ref="D2237" r:id="rId2234" xr:uid="{00000000-0004-0000-0000-0000B9080000}"/>
+    <hyperlink ref="D2238" r:id="rId2235" xr:uid="{00000000-0004-0000-0000-0000BA080000}"/>
+    <hyperlink ref="D2239" r:id="rId2236" xr:uid="{00000000-0004-0000-0000-0000BB080000}"/>
+    <hyperlink ref="D2240" r:id="rId2237" xr:uid="{00000000-0004-0000-0000-0000BC080000}"/>
+    <hyperlink ref="D2241" r:id="rId2238" xr:uid="{00000000-0004-0000-0000-0000BD080000}"/>
+    <hyperlink ref="D2242" r:id="rId2239" xr:uid="{00000000-0004-0000-0000-0000BE080000}"/>
+    <hyperlink ref="D2243" r:id="rId2240" xr:uid="{00000000-0004-0000-0000-0000BF080000}"/>
+    <hyperlink ref="D2244" r:id="rId2241" xr:uid="{00000000-0004-0000-0000-0000C0080000}"/>
+    <hyperlink ref="D2245" r:id="rId2242" xr:uid="{00000000-0004-0000-0000-0000C1080000}"/>
+    <hyperlink ref="D2246" r:id="rId2243" xr:uid="{00000000-0004-0000-0000-0000C2080000}"/>
+    <hyperlink ref="D2247" r:id="rId2244" xr:uid="{00000000-0004-0000-0000-0000C3080000}"/>
+    <hyperlink ref="D2248" r:id="rId2245" xr:uid="{00000000-0004-0000-0000-0000C4080000}"/>
+    <hyperlink ref="D2249" r:id="rId2246" xr:uid="{00000000-0004-0000-0000-0000C5080000}"/>
+    <hyperlink ref="D2250" r:id="rId2247" xr:uid="{00000000-0004-0000-0000-0000C6080000}"/>
+    <hyperlink ref="D2251" r:id="rId2248" xr:uid="{00000000-0004-0000-0000-0000C7080000}"/>
+    <hyperlink ref="D2252" r:id="rId2249" xr:uid="{00000000-0004-0000-0000-0000C8080000}"/>
+    <hyperlink ref="D2253" r:id="rId2250" xr:uid="{00000000-0004-0000-0000-0000C9080000}"/>
+    <hyperlink ref="D2254" r:id="rId2251" xr:uid="{00000000-0004-0000-0000-0000CA080000}"/>
+    <hyperlink ref="D2255" r:id="rId2252" xr:uid="{00000000-0004-0000-0000-0000CB080000}"/>
+    <hyperlink ref="D2256" r:id="rId2253" xr:uid="{00000000-0004-0000-0000-0000CC080000}"/>
+    <hyperlink ref="D2257" r:id="rId2254" xr:uid="{00000000-0004-0000-0000-0000CD080000}"/>
+    <hyperlink ref="D2258" r:id="rId2255" xr:uid="{00000000-0004-0000-0000-0000CE080000}"/>
+    <hyperlink ref="D2259" r:id="rId2256" xr:uid="{00000000-0004-0000-0000-0000CF080000}"/>
+    <hyperlink ref="D2260" r:id="rId2257" xr:uid="{00000000-0004-0000-0000-0000D0080000}"/>
+    <hyperlink ref="D2261" r:id="rId2258" xr:uid="{00000000-0004-0000-0000-0000D1080000}"/>
+    <hyperlink ref="D2262" r:id="rId2259" xr:uid="{00000000-0004-0000-0000-0000D2080000}"/>
+    <hyperlink ref="D2263" r:id="rId2260" xr:uid="{00000000-0004-0000-0000-0000D3080000}"/>
+    <hyperlink ref="D2264" r:id="rId2261" xr:uid="{00000000-0004-0000-0000-0000D4080000}"/>
+    <hyperlink ref="D2265" r:id="rId2262" xr:uid="{00000000-0004-0000-0000-0000D5080000}"/>
+    <hyperlink ref="D2266" r:id="rId2263" xr:uid="{00000000-0004-0000-0000-0000D6080000}"/>
+    <hyperlink ref="D2267" r:id="rId2264" xr:uid="{00000000-0004-0000-0000-0000D7080000}"/>
+    <hyperlink ref="D2268" r:id="rId2265" xr:uid="{00000000-0004-0000-0000-0000D8080000}"/>
+    <hyperlink ref="D2269" r:id="rId2266" xr:uid="{00000000-0004-0000-0000-0000D9080000}"/>
+    <hyperlink ref="D2270" r:id="rId2267" xr:uid="{00000000-0004-0000-0000-0000DA080000}"/>
+    <hyperlink ref="D2271" r:id="rId2268" xr:uid="{00000000-0004-0000-0000-0000DB080000}"/>
+    <hyperlink ref="D2272" r:id="rId2269" xr:uid="{00000000-0004-0000-0000-0000DC080000}"/>
+    <hyperlink ref="D2273" r:id="rId2270" xr:uid="{00000000-0004-0000-0000-0000DD080000}"/>
+    <hyperlink ref="D2274" r:id="rId2271" xr:uid="{00000000-0004-0000-0000-0000DE080000}"/>
+    <hyperlink ref="D2275" r:id="rId2272" xr:uid="{00000000-0004-0000-0000-0000DF080000}"/>
+    <hyperlink ref="D2276" r:id="rId2273" xr:uid="{00000000-0004-0000-0000-0000E0080000}"/>
+    <hyperlink ref="D2277" r:id="rId2274" xr:uid="{00000000-0004-0000-0000-0000E1080000}"/>
+    <hyperlink ref="D2278" r:id="rId2275" xr:uid="{00000000-0004-0000-0000-0000E2080000}"/>
+    <hyperlink ref="D2279" r:id="rId2276" xr:uid="{00000000-0004-0000-0000-0000E3080000}"/>
+    <hyperlink ref="D2280" r:id="rId2277" xr:uid="{00000000-0004-0000-0000-0000E4080000}"/>
+    <hyperlink ref="D2281" r:id="rId2278" xr:uid="{00000000-0004-0000-0000-0000E5080000}"/>
+    <hyperlink ref="D2282" r:id="rId2279" xr:uid="{00000000-0004-0000-0000-0000E6080000}"/>
+    <hyperlink ref="D2283" r:id="rId2280" xr:uid="{00000000-0004-0000-0000-0000E7080000}"/>
+    <hyperlink ref="D2284" r:id="rId2281" xr:uid="{00000000-0004-0000-0000-0000E8080000}"/>
+    <hyperlink ref="D2285" r:id="rId2282" xr:uid="{00000000-0004-0000-0000-0000E9080000}"/>
+    <hyperlink ref="D2286" r:id="rId2283" xr:uid="{00000000-0004-0000-0000-0000EA080000}"/>
+    <hyperlink ref="D2287" r:id="rId2284" xr:uid="{00000000-0004-0000-0000-0000EB080000}"/>
+    <hyperlink ref="D2288" r:id="rId2285" xr:uid="{00000000-0004-0000-0000-0000EC080000}"/>
+    <hyperlink ref="D2289" r:id="rId2286" xr:uid="{00000000-0004-0000-0000-0000ED080000}"/>
+    <hyperlink ref="D2290" r:id="rId2287" xr:uid="{00000000-0004-0000-0000-0000EE080000}"/>
+    <hyperlink ref="D2291" r:id="rId2288" xr:uid="{00000000-0004-0000-0000-0000EF080000}"/>
+    <hyperlink ref="D2292" r:id="rId2289" xr:uid="{00000000-0004-0000-0000-0000F0080000}"/>
+    <hyperlink ref="D2293" r:id="rId2290" xr:uid="{00000000-0004-0000-0000-0000F1080000}"/>
+    <hyperlink ref="D2294" r:id="rId2291" xr:uid="{00000000-0004-0000-0000-0000F2080000}"/>
+    <hyperlink ref="D2295" r:id="rId2292" xr:uid="{00000000-0004-0000-0000-0000F3080000}"/>
+    <hyperlink ref="D2296" r:id="rId2293" xr:uid="{00000000-0004-0000-0000-0000F4080000}"/>
+    <hyperlink ref="D2297" r:id="rId2294" xr:uid="{00000000-0004-0000-0000-0000F5080000}"/>
+    <hyperlink ref="D2298" r:id="rId2295" xr:uid="{00000000-0004-0000-0000-0000F6080000}"/>
+    <hyperlink ref="D2299" r:id="rId2296" xr:uid="{00000000-0004-0000-0000-0000F7080000}"/>
+    <hyperlink ref="D2300" r:id="rId2297" xr:uid="{00000000-0004-0000-0000-0000F8080000}"/>
+    <hyperlink ref="D2301" r:id="rId2298" xr:uid="{00000000-0004-0000-0000-0000F9080000}"/>
+    <hyperlink ref="D2302" r:id="rId2299" xr:uid="{00000000-0004-0000-0000-0000FA080000}"/>
+    <hyperlink ref="D2303" r:id="rId2300" xr:uid="{00000000-0004-0000-0000-0000FB080000}"/>
+    <hyperlink ref="D2304" r:id="rId2301" xr:uid="{00000000-0004-0000-0000-0000FC080000}"/>
+    <hyperlink ref="D2305" r:id="rId2302" xr:uid="{00000000-0004-0000-0000-0000FD080000}"/>
+    <hyperlink ref="D2306" r:id="rId2303" xr:uid="{00000000-0004-0000-0000-0000FE080000}"/>
+    <hyperlink ref="D2307" r:id="rId2304" xr:uid="{00000000-0004-0000-0000-0000FF080000}"/>
+    <hyperlink ref="D2308" r:id="rId2305" xr:uid="{00000000-0004-0000-0000-000000090000}"/>
+    <hyperlink ref="D2309" r:id="rId2306" xr:uid="{00000000-0004-0000-0000-000001090000}"/>
+    <hyperlink ref="D2310" r:id="rId2307" xr:uid="{00000000-0004-0000-0000-000002090000}"/>
+    <hyperlink ref="D2311" r:id="rId2308" xr:uid="{00000000-0004-0000-0000-000003090000}"/>
+    <hyperlink ref="D2312" r:id="rId2309" xr:uid="{00000000-0004-0000-0000-000004090000}"/>
+    <hyperlink ref="D2313" r:id="rId2310" xr:uid="{00000000-0004-0000-0000-000005090000}"/>
+    <hyperlink ref="D2314" r:id="rId2311" xr:uid="{00000000-0004-0000-0000-000006090000}"/>
+    <hyperlink ref="D2315" r:id="rId2312" xr:uid="{00000000-0004-0000-0000-000007090000}"/>
+    <hyperlink ref="D2316" r:id="rId2313" xr:uid="{00000000-0004-0000-0000-000008090000}"/>
+    <hyperlink ref="D2317" r:id="rId2314" xr:uid="{00000000-0004-0000-0000-000009090000}"/>
+    <hyperlink ref="D2318" r:id="rId2315" xr:uid="{00000000-0004-0000-0000-00000A090000}"/>
+    <hyperlink ref="D2319" r:id="rId2316" xr:uid="{00000000-0004-0000-0000-00000B090000}"/>
+    <hyperlink ref="D2320" r:id="rId2317" xr:uid="{00000000-0004-0000-0000-00000C090000}"/>
+    <hyperlink ref="D2321" r:id="rId2318" xr:uid="{00000000-0004-0000-0000-00000D090000}"/>
+    <hyperlink ref="D2322" r:id="rId2319" xr:uid="{00000000-0004-0000-0000-00000E090000}"/>
+    <hyperlink ref="D2323" r:id="rId2320" xr:uid="{00000000-0004-0000-0000-00000F090000}"/>
+    <hyperlink ref="D2324" r:id="rId2321" xr:uid="{00000000-0004-0000-0000-000010090000}"/>
+    <hyperlink ref="D2325" r:id="rId2322" xr:uid="{00000000-0004-0000-0000-000011090000}"/>
+    <hyperlink ref="D2326" r:id="rId2323" xr:uid="{00000000-0004-0000-0000-000012090000}"/>
+    <hyperlink ref="D2327" r:id="rId2324" xr:uid="{00000000-0004-0000-0000-000013090000}"/>
+    <hyperlink ref="D2328" r:id="rId2325" xr:uid="{00000000-0004-0000-0000-000014090000}"/>
+    <hyperlink ref="D2329" r:id="rId2326" xr:uid="{00000000-0004-0000-0000-000015090000}"/>
+    <hyperlink ref="D2330" r:id="rId2327" xr:uid="{00000000-0004-0000-0000-000016090000}"/>
+    <hyperlink ref="D2331" r:id="rId2328" xr:uid="{00000000-0004-0000-0000-000017090000}"/>
+    <hyperlink ref="D2332" r:id="rId2329" xr:uid="{00000000-0004-0000-0000-000018090000}"/>
+    <hyperlink ref="D2333" r:id="rId2330" xr:uid="{00000000-0004-0000-0000-000019090000}"/>
+    <hyperlink ref="D2334" r:id="rId2331" xr:uid="{00000000-0004-0000-0000-00001A090000}"/>
+    <hyperlink ref="D2335" r:id="rId2332" xr:uid="{00000000-0004-0000-0000-00001B090000}"/>
+    <hyperlink ref="D2336" r:id="rId2333" xr:uid="{00000000-0004-0000-0000-00001C090000}"/>
+    <hyperlink ref="D2337" r:id="rId2334" xr:uid="{00000000-0004-0000-0000-00001D090000}"/>
+    <hyperlink ref="D2338" r:id="rId2335" xr:uid="{00000000-0004-0000-0000-00001E090000}"/>
+    <hyperlink ref="D2339" r:id="rId2336" xr:uid="{00000000-0004-0000-0000-00001F090000}"/>
+    <hyperlink ref="D2340" r:id="rId2337" xr:uid="{00000000-0004-0000-0000-000020090000}"/>
+    <hyperlink ref="D2341" r:id="rId2338" xr:uid="{00000000-0004-0000-0000-000021090000}"/>
+    <hyperlink ref="D2342" r:id="rId2339" xr:uid="{00000000-0004-0000-0000-000022090000}"/>
+    <hyperlink ref="D2343" r:id="rId2340" xr:uid="{00000000-0004-0000-0000-000023090000}"/>
+    <hyperlink ref="D2344" r:id="rId2341" xr:uid="{00000000-0004-0000-0000-000024090000}"/>
+    <hyperlink ref="D2345" r:id="rId2342" xr:uid="{00000000-0004-0000-0000-000025090000}"/>
+    <hyperlink ref="D2346" r:id="rId2343" xr:uid="{00000000-0004-0000-0000-000026090000}"/>
+    <hyperlink ref="D2347" r:id="rId2344" xr:uid="{00000000-0004-0000-0000-000027090000}"/>
+    <hyperlink ref="D2348" r:id="rId2345" xr:uid="{00000000-0004-0000-0000-000028090000}"/>
+    <hyperlink ref="D2349" r:id="rId2346" xr:uid="{00000000-0004-0000-0000-000029090000}"/>
+    <hyperlink ref="D2350" r:id="rId2347" xr:uid="{00000000-0004-0000-0000-00002A090000}"/>
+    <hyperlink ref="D2351" r:id="rId2348" xr:uid="{00000000-0004-0000-0000-00002B090000}"/>
+    <hyperlink ref="D2352" r:id="rId2349" xr:uid="{00000000-0004-0000-0000-00002C090000}"/>
+    <hyperlink ref="D2353" r:id="rId2350" xr:uid="{00000000-0004-0000-0000-00002D090000}"/>
+    <hyperlink ref="D2354" r:id="rId2351" xr:uid="{00000000-0004-0000-0000-00002E090000}"/>
+    <hyperlink ref="D2355" r:id="rId2352" xr:uid="{00000000-0004-0000-0000-00002F090000}"/>
+    <hyperlink ref="D2356" r:id="rId2353" xr:uid="{00000000-0004-0000-0000-000030090000}"/>
+    <hyperlink ref="D2357" r:id="rId2354" xr:uid="{00000000-0004-0000-0000-000031090000}"/>
+    <hyperlink ref="D2358" r:id="rId2355" xr:uid="{00000000-0004-0000-0000-000032090000}"/>
+    <hyperlink ref="D2359" r:id="rId2356" xr:uid="{00000000-0004-0000-0000-000033090000}"/>
+    <hyperlink ref="D2360" r:id="rId2357" xr:uid="{00000000-0004-0000-0000-000034090000}"/>
+    <hyperlink ref="D2361" r:id="rId2358" xr:uid="{00000000-0004-0000-0000-000035090000}"/>
+    <hyperlink ref="D2362" r:id="rId2359" xr:uid="{00000000-0004-0000-0000-000036090000}"/>
+    <hyperlink ref="D2363" r:id="rId2360" xr:uid="{00000000-0004-0000-0000-000037090000}"/>
+    <hyperlink ref="D2364" r:id="rId2361" xr:uid="{00000000-0004-0000-0000-000038090000}"/>
+    <hyperlink ref="D2365" r:id="rId2362" xr:uid="{00000000-0004-0000-0000-000039090000}"/>
+    <hyperlink ref="D2366" r:id="rId2363" xr:uid="{00000000-0004-0000-0000-00003A090000}"/>
+    <hyperlink ref="D2367" r:id="rId2364" xr:uid="{00000000-0004-0000-0000-00003B090000}"/>
+    <hyperlink ref="D2368" r:id="rId2365" xr:uid="{00000000-0004-0000-0000-00003C090000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
